--- a/AFL_ML/Data/Essendon_stats.xlsx
+++ b/AFL_ML/Data/Essendon_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JG102"/>
+  <dimension ref="A1:JH102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="II102" activeCellId="0" sqref="II102"/>
@@ -1260,8 +1260,11 @@
       <c r="JF1" s="2" t="n">
         <v>10724</v>
       </c>
-      <c r="JG1" t="n">
+      <c r="JG1" s="2" t="n">
         <v>10735</v>
+      </c>
+      <c r="JH1" t="n">
+        <v>10758</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2065,8 +2068,11 @@
       <c r="JF2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JG2" t="n">
+      <c r="JG2" s="2" t="n">
         <v>2022</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>2023</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="3">
@@ -2870,8 +2876,11 @@
       <c r="JF3" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JG3" t="n">
+      <c r="JG3" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3675,8 +3684,11 @@
       <c r="JF4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JG4" t="n">
+      <c r="JG4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4480,7 +4492,10 @@
       <c r="JF5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JG5" t="n">
+      <c r="JG5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JH5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5285,8 +5300,11 @@
       <c r="JF6" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="JG6" t="n">
+      <c r="JG6" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="JH6" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6090,8 +6108,11 @@
       <c r="JF7" s="2" t="n">
         <v>146</v>
       </c>
-      <c r="JG7" t="n">
+      <c r="JG7" s="2" t="n">
         <v>141</v>
+      </c>
+      <c r="JH7" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6895,8 +6916,11 @@
       <c r="JF8" s="2" t="n">
         <v>-84</v>
       </c>
-      <c r="JG8" t="n">
+      <c r="JG8" s="2" t="n">
         <v>-66</v>
+      </c>
+      <c r="JH8" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7700,8 +7724,11 @@
       <c r="JF9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JG9" t="n">
+      <c r="JG9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JH9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -8505,8 +8532,11 @@
       <c r="JF10" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JG10" t="n">
+      <c r="JG10" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JH10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9310,8 +9340,11 @@
       <c r="JF11" s="2" t="n">
         <v>213</v>
       </c>
-      <c r="JG11" t="n">
+      <c r="JG11" s="2" t="n">
         <v>195</v>
+      </c>
+      <c r="JH11" t="n">
+        <v>255</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -10115,8 +10148,11 @@
       <c r="JF12" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="JG12" t="n">
+      <c r="JG12" s="2" t="n">
         <v>134</v>
+      </c>
+      <c r="JH12" t="n">
+        <v>159</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10920,8 +10956,11 @@
       <c r="JF13" s="2" t="n">
         <v>367</v>
       </c>
-      <c r="JG13" t="n">
+      <c r="JG13" s="2" t="n">
         <v>329</v>
+      </c>
+      <c r="JH13" t="n">
+        <v>414</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -11725,8 +11764,11 @@
       <c r="JF14" s="2" t="n">
         <v>1.38</v>
       </c>
-      <c r="JG14" t="n">
+      <c r="JG14" s="2" t="n">
         <v>1.46</v>
+      </c>
+      <c r="JH14" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -12530,8 +12572,11 @@
       <c r="JF15" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="JG15" t="n">
+      <c r="JG15" s="2" t="n">
         <v>83</v>
+      </c>
+      <c r="JH15" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -13335,8 +13380,11 @@
       <c r="JF16" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JG16" t="n">
+      <c r="JG16" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="JH16" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -14140,8 +14188,11 @@
       <c r="JF17" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JG17" t="n">
+      <c r="JG17" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="JH17" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -14945,8 +14996,11 @@
       <c r="JF18" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JG18" t="n">
+      <c r="JG18" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="JH18" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -15750,8 +15804,11 @@
       <c r="JF19" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JG19" t="n">
+      <c r="JG19" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JH19" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -16555,8 +16612,11 @@
       <c r="JF20" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JG20" t="n">
+      <c r="JG20" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JH20" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -17360,8 +17420,11 @@
       <c r="JF21" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JG21" t="n">
+      <c r="JG21" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JH21" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -18165,8 +18228,11 @@
       <c r="JF22" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JG22" t="n">
+      <c r="JG22" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JH22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -18970,8 +19036,11 @@
       <c r="JF23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JG23" t="n">
+      <c r="JG23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JH23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -19775,8 +19844,11 @@
       <c r="JF24" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JG24" t="n">
+      <c r="JG24" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JH24" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -20580,8 +20652,11 @@
       <c r="JF25" s="2" t="n">
         <v>52.9</v>
       </c>
-      <c r="JG25" t="n">
+      <c r="JG25" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JH25" t="n">
+        <v>65.5</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -21385,8 +21460,11 @@
       <c r="JF26" s="2" t="n">
         <v>40.78</v>
       </c>
-      <c r="JG26" t="n">
+      <c r="JG26" s="2" t="n">
         <v>29.91</v>
+      </c>
+      <c r="JH26" t="n">
+        <v>21.79</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -22190,8 +22268,11 @@
       <c r="JF27" s="2" t="n">
         <v>21.59</v>
       </c>
-      <c r="JG27" t="n">
+      <c r="JG27" s="2" t="n">
         <v>16.45</v>
+      </c>
+      <c r="JH27" t="n">
+        <v>14.28</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -22995,8 +23076,11 @@
       <c r="JF28" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JG28" t="n">
+      <c r="JG28" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JH28" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -23800,8 +23884,11 @@
       <c r="JF29" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JG29" t="n">
+      <c r="JG29" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="JH29" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -24605,8 +24692,11 @@
       <c r="JF30" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JG30" t="n">
+      <c r="JG30" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JH30" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -25410,8 +25500,11 @@
       <c r="JF31" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JG31" t="n">
+      <c r="JG31" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JH31" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -26215,8 +26308,11 @@
       <c r="JF32" s="2" t="n">
         <v>2.76</v>
       </c>
-      <c r="JG32" t="n">
+      <c r="JG32" s="2" t="n">
         <v>2.1</v>
+      </c>
+      <c r="JH32" t="n">
+        <v>2.28</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -27020,8 +27116,11 @@
       <c r="JF33" s="2" t="n">
         <v>5.22</v>
       </c>
-      <c r="JG33" t="n">
+      <c r="JG33" s="2" t="n">
         <v>3.82</v>
+      </c>
+      <c r="JH33" t="n">
+        <v>3.47</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -27825,8 +27924,11 @@
       <c r="JF34" s="2" t="n">
         <v>31.9</v>
       </c>
-      <c r="JG34" t="n">
+      <c r="JG34" s="2" t="n">
         <v>40.5</v>
+      </c>
+      <c r="JH34" t="n">
+        <v>42.4</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -28630,8 +28732,11 @@
       <c r="JF35" s="2" t="n">
         <v>19.1</v>
       </c>
-      <c r="JG35" t="n">
+      <c r="JG35" s="2" t="n">
         <v>26.2</v>
+      </c>
+      <c r="JH35" t="n">
+        <v>28.8</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -29435,8 +29540,11 @@
       <c r="JF36" s="2" t="n">
         <v>188.5</v>
       </c>
-      <c r="JG36" t="n">
+      <c r="JG36" s="2" t="n">
         <v>188.4</v>
+      </c>
+      <c r="JH36" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -30240,8 +30348,11 @@
       <c r="JF37" s="2" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="JG37" t="n">
+      <c r="JG37" s="2" t="n">
         <v>86.09999999999999</v>
+      </c>
+      <c r="JH37" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -31045,8 +31156,11 @@
       <c r="JF38" s="2" t="n">
         <v>24.49</v>
       </c>
-      <c r="JG38" t="n">
+      <c r="JG38" s="2" t="n">
         <v>24.8</v>
+      </c>
+      <c r="JH38" t="n">
+        <v>25.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -31850,8 +31964,11 @@
       <c r="JF39" s="2" t="n">
         <v>84.7</v>
       </c>
-      <c r="JG39" t="n">
+      <c r="JG39" s="2" t="n">
         <v>88.8</v>
+      </c>
+      <c r="JH39" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -32655,7 +32772,10 @@
       <c r="JF40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JG40" t="n">
+      <c r="JG40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JH40" t="n">
         <v>9</v>
       </c>
     </row>
@@ -33460,8 +33580,11 @@
       <c r="JF41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JG41" t="n">
+      <c r="JG41" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JH41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -34265,8 +34388,11 @@
       <c r="JF42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JG42" t="n">
+      <c r="JG42" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JH42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -35070,8 +35196,11 @@
       <c r="JF43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JG43" t="n">
+      <c r="JG43" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JH43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -35875,8 +36004,11 @@
       <c r="JF44" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="JG44" t="n">
+      <c r="JG44" s="2" t="n">
         <v>125</v>
+      </c>
+      <c r="JH44" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -36680,8 +36812,11 @@
       <c r="JF45" s="2" t="n">
         <v>238</v>
       </c>
-      <c r="JG45" t="n">
+      <c r="JG45" s="2" t="n">
         <v>195</v>
+      </c>
+      <c r="JH45" t="n">
+        <v>282</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -37485,8 +37620,11 @@
       <c r="JF46" s="2" t="n">
         <v>266</v>
       </c>
-      <c r="JG46" t="n">
+      <c r="JG46" s="2" t="n">
         <v>246</v>
+      </c>
+      <c r="JH46" t="n">
+        <v>322</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -38290,8 +38428,11 @@
       <c r="JF47" s="2" t="n">
         <v>72.5</v>
       </c>
-      <c r="JG47" t="n">
+      <c r="JG47" s="2" t="n">
         <v>74.8</v>
+      </c>
+      <c r="JH47" t="n">
+        <v>77.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -39095,8 +39236,11 @@
       <c r="JF48" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JG48" t="n">
+      <c r="JG48" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="JH48" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -39900,8 +40044,11 @@
       <c r="JF49" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JG49" t="n">
+      <c r="JG49" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JH49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -40705,8 +40852,11 @@
       <c r="JF50" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JG50" t="n">
+      <c r="JG50" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JH50" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -41510,8 +41660,11 @@
       <c r="JF51" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JG51" t="n">
+      <c r="JG51" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JH51" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -42315,8 +42468,11 @@
       <c r="JF52" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JG52" t="n">
+      <c r="JG52" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JH52" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -43120,8 +43276,11 @@
       <c r="JF53" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JG53" t="n">
+      <c r="JG53" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JH53" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -43925,8 +44084,11 @@
       <c r="JF54" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JG54" t="n">
+      <c r="JG54" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JH54" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -44730,8 +44892,11 @@
       <c r="JF55" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JG55" t="n">
+      <c r="JG55" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JH55" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -45535,8 +45700,11 @@
       <c r="JF56" s="2" t="n">
         <v>88.90000000000001</v>
       </c>
-      <c r="JG56" t="n">
+      <c r="JG56" s="2" t="n">
         <v>54.5</v>
+      </c>
+      <c r="JH56" t="n">
+        <v>78.90000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -46340,8 +46508,11 @@
       <c r="JF57" s="2" t="n">
         <v>239</v>
       </c>
-      <c r="JG57" t="n">
+      <c r="JG57" s="2" t="n">
         <v>216</v>
+      </c>
+      <c r="JH57" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -47145,8 +47316,11 @@
       <c r="JF58" s="2" t="n">
         <v>186</v>
       </c>
-      <c r="JG58" t="n">
+      <c r="JG58" s="2" t="n">
         <v>151</v>
+      </c>
+      <c r="JH58" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -47950,8 +48124,11 @@
       <c r="JF59" s="2" t="n">
         <v>425</v>
       </c>
-      <c r="JG59" t="n">
+      <c r="JG59" s="2" t="n">
         <v>367</v>
+      </c>
+      <c r="JH59" t="n">
+        <v>370</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -48755,8 +48932,11 @@
       <c r="JF60" s="2" t="n">
         <v>1.28</v>
       </c>
-      <c r="JG60" t="n">
+      <c r="JG60" s="2" t="n">
         <v>1.43</v>
+      </c>
+      <c r="JH60" t="n">
+        <v>1.53</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -49560,8 +49740,11 @@
       <c r="JF61" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="JG61" t="n">
+      <c r="JG61" s="2" t="n">
         <v>98</v>
+      </c>
+      <c r="JH61" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -50365,8 +50548,11 @@
       <c r="JF62" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="JG62" t="n">
+      <c r="JG62" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="JH62" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -51170,8 +51356,11 @@
       <c r="JF63" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JG63" t="n">
+      <c r="JG63" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="JH63" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -51975,8 +52164,11 @@
       <c r="JF64" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JG64" t="n">
+      <c r="JG64" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JH64" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -52780,8 +52972,11 @@
       <c r="JF65" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JG65" t="n">
+      <c r="JG65" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="JH65" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -53585,8 +53780,11 @@
       <c r="JF66" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="JG66" t="n">
+      <c r="JG66" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="JH66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -54390,8 +54588,11 @@
       <c r="JF67" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JG67" t="n">
+      <c r="JG67" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JH67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -55195,8 +55396,11 @@
       <c r="JF68" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JG68" t="n">
+      <c r="JG68" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JH68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -56000,7 +56204,10 @@
       <c r="JF69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JG69" t="n">
+      <c r="JG69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JH69" t="n">
         <v>3</v>
       </c>
     </row>
@@ -56805,8 +57012,11 @@
       <c r="JF70" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="JG70" t="n">
+      <c r="JG70" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JH70" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -57610,8 +57820,11 @@
       <c r="JF71" s="2" t="n">
         <v>74.2</v>
       </c>
-      <c r="JG71" t="n">
+      <c r="JG71" s="2" t="n">
         <v>58.3</v>
+      </c>
+      <c r="JH71" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -58415,8 +58628,11 @@
       <c r="JF72" s="2" t="n">
         <v>18.48</v>
       </c>
-      <c r="JG72" t="n">
+      <c r="JG72" s="2" t="n">
         <v>17.48</v>
+      </c>
+      <c r="JH72" t="n">
+        <v>41.11</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -59220,8 +59436,11 @@
       <c r="JF73" s="2" t="n">
         <v>13.71</v>
       </c>
-      <c r="JG73" t="n">
+      <c r="JG73" s="2" t="n">
         <v>10.19</v>
+      </c>
+      <c r="JH73" t="n">
+        <v>18.5</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -60025,7 +60244,10 @@
       <c r="JF74" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="JG74" t="n">
+      <c r="JG74" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JH74" t="n">
         <v>26</v>
       </c>
     </row>
@@ -60830,8 +61052,11 @@
       <c r="JF75" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="JG75" t="n">
+      <c r="JG75" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="JH75" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -61635,8 +61860,11 @@
       <c r="JF76" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JG76" t="n">
+      <c r="JG76" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="JH76" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -62440,8 +62668,11 @@
       <c r="JF77" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="JG77" t="n">
+      <c r="JG77" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="JH77" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -63245,8 +63476,11 @@
       <c r="JF78" s="2" t="n">
         <v>1.97</v>
       </c>
-      <c r="JG78" t="n">
+      <c r="JG78" s="2" t="n">
         <v>1.61</v>
+      </c>
+      <c r="JH78" t="n">
+        <v>2.45</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -64050,8 +64284,11 @@
       <c r="JF79" s="2" t="n">
         <v>2.65</v>
       </c>
-      <c r="JG79" t="n">
+      <c r="JG79" s="2" t="n">
         <v>2.76</v>
+      </c>
+      <c r="JH79" t="n">
+        <v>5.44</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -64855,8 +65092,11 @@
       <c r="JF80" s="2" t="n">
         <v>47.5</v>
       </c>
-      <c r="JG80" t="n">
+      <c r="JG80" s="2" t="n">
         <v>56.9</v>
+      </c>
+      <c r="JH80" t="n">
+        <v>34.7</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -65660,8 +65900,11 @@
       <c r="JF81" s="2" t="n">
         <v>37.7</v>
       </c>
-      <c r="JG81" t="n">
+      <c r="JG81" s="2" t="n">
         <v>36.2</v>
+      </c>
+      <c r="JH81" t="n">
+        <v>18.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -66465,8 +66708,11 @@
       <c r="JF82" s="2" t="n">
         <v>187.5</v>
       </c>
-      <c r="JG82" t="n">
+      <c r="JG82" s="2" t="n">
         <v>186.4</v>
+      </c>
+      <c r="JH82" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -67270,8 +67516,11 @@
       <c r="JF83" s="2" t="n">
         <v>85.40000000000001</v>
       </c>
-      <c r="JG83" t="n">
+      <c r="JG83" s="2" t="n">
         <v>85.7</v>
+      </c>
+      <c r="JH83" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -68075,8 +68324,11 @@
       <c r="JF84" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="JG84" t="n">
+      <c r="JG84" s="2" t="n">
         <v>26.58</v>
+      </c>
+      <c r="JH84" t="n">
+        <v>24.58</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -68880,8 +69132,11 @@
       <c r="JF85" s="2" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="JG85" t="n">
+      <c r="JG85" s="2" t="n">
         <v>124.7</v>
+      </c>
+      <c r="JH85" t="n">
+        <v>68.5</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -69685,8 +69940,11 @@
       <c r="JF86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JG86" t="n">
+      <c r="JG86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JH86" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -70490,8 +70748,11 @@
       <c r="JF87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JG87" t="n">
+      <c r="JG87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JH87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -71295,8 +71556,11 @@
       <c r="JF88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JG88" t="n">
+      <c r="JG88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JH88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -72100,8 +72364,11 @@
       <c r="JF89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JG89" t="n">
+      <c r="JG89" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JH89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -72905,8 +73172,11 @@
       <c r="JF90" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="JG90" t="n">
+      <c r="JG90" s="2" t="n">
         <v>129</v>
+      </c>
+      <c r="JH90" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -73710,8 +73980,11 @@
       <c r="JF91" s="2" t="n">
         <v>284</v>
       </c>
-      <c r="JG91" t="n">
+      <c r="JG91" s="2" t="n">
         <v>236</v>
+      </c>
+      <c r="JH91" t="n">
+        <v>254</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -74515,8 +74788,11 @@
       <c r="JF92" s="2" t="n">
         <v>337</v>
       </c>
-      <c r="JG92" t="n">
+      <c r="JG92" s="2" t="n">
         <v>289</v>
+      </c>
+      <c r="JH92" t="n">
+        <v>273</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -75320,8 +75596,11 @@
       <c r="JF93" s="2" t="n">
         <v>79.3</v>
       </c>
-      <c r="JG93" t="n">
+      <c r="JG93" s="2" t="n">
         <v>78.7</v>
+      </c>
+      <c r="JH93" t="n">
+        <v>73.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -76125,8 +76404,11 @@
       <c r="JF94" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="JG94" t="n">
+      <c r="JG94" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="JH94" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -76930,8 +77212,11 @@
       <c r="JF95" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JG95" t="n">
+      <c r="JG95" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JH95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -77735,8 +78020,11 @@
       <c r="JF96" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JG96" t="n">
+      <c r="JG96" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="JH96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -78540,7 +78828,10 @@
       <c r="JF97" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="JG97" t="n">
+      <c r="JG97" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JH97" t="n">
         <v>26</v>
       </c>
     </row>
@@ -79345,8 +79636,11 @@
       <c r="JF98" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JG98" t="n">
+      <c r="JG98" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="JH98" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -80150,8 +80444,11 @@
       <c r="JF99" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JG99" t="n">
+      <c r="JG99" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="JH99" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -80955,8 +81252,11 @@
       <c r="JF100" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JG100" t="n">
+      <c r="JG100" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JH100" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -81760,8 +82060,11 @@
       <c r="JF101" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JG101" t="n">
+      <c r="JG101" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JH101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -82565,7 +82868,10 @@
       <c r="JF102" s="2" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="JG102" t="n">
+      <c r="JG102" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JH102" t="n">
         <v>66.7</v>
       </c>
     </row>

--- a/AFL_ML/Data/Essendon_stats.xlsx
+++ b/AFL_ML/Data/Essendon_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JI102"/>
+  <dimension ref="A1:JJ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="II102" activeCellId="0" sqref="II102"/>
@@ -1266,8 +1266,11 @@
       <c r="JH1" s="2" t="n">
         <v>10758</v>
       </c>
-      <c r="JI1" t="n">
+      <c r="JI1" s="2" t="n">
         <v>10767</v>
+      </c>
+      <c r="JJ1" t="n">
+        <v>10773</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2077,7 +2080,10 @@
       <c r="JH2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="JI2" t="n">
+      <c r="JI2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JJ2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2888,8 +2894,11 @@
       <c r="JH3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JI3" t="n">
+      <c r="JI3" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3699,8 +3708,11 @@
       <c r="JH4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JI4" t="n">
+      <c r="JI4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4510,7 +4522,10 @@
       <c r="JH5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JI5" t="n">
+      <c r="JI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5321,8 +5336,11 @@
       <c r="JH6" s="2" t="n">
         <v>124</v>
       </c>
-      <c r="JI6" t="n">
+      <c r="JI6" s="2" t="n">
         <v>108</v>
+      </c>
+      <c r="JJ6" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6132,8 +6150,11 @@
       <c r="JH7" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="JI7" t="n">
+      <c r="JI7" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="JJ7" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6943,8 +6964,11 @@
       <c r="JH8" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="JI8" t="n">
+      <c r="JI8" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="JJ8" t="n">
+        <v>-18</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7754,8 +7778,11 @@
       <c r="JH9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JI9" t="n">
+      <c r="JI9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JJ9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -8565,8 +8592,11 @@
       <c r="JH10" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JI10" t="n">
+      <c r="JI10" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JJ10" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9376,8 +9406,11 @@
       <c r="JH11" s="2" t="n">
         <v>255</v>
       </c>
-      <c r="JI11" t="n">
+      <c r="JI11" s="2" t="n">
         <v>213</v>
+      </c>
+      <c r="JJ11" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -10187,8 +10220,11 @@
       <c r="JH12" s="2" t="n">
         <v>159</v>
       </c>
-      <c r="JI12" t="n">
+      <c r="JI12" s="2" t="n">
         <v>154</v>
+      </c>
+      <c r="JJ12" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -10998,8 +11034,11 @@
       <c r="JH13" s="2" t="n">
         <v>414</v>
       </c>
-      <c r="JI13" t="n">
+      <c r="JI13" s="2" t="n">
         <v>367</v>
+      </c>
+      <c r="JJ13" t="n">
+        <v>420</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -11809,8 +11848,11 @@
       <c r="JH14" s="2" t="n">
         <v>1.6</v>
       </c>
-      <c r="JI14" t="n">
+      <c r="JI14" s="2" t="n">
         <v>1.38</v>
+      </c>
+      <c r="JJ14" t="n">
+        <v>1.47</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -12620,8 +12662,11 @@
       <c r="JH15" s="2" t="n">
         <v>131</v>
       </c>
-      <c r="JI15" t="n">
+      <c r="JI15" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="JJ15" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -13431,8 +13476,11 @@
       <c r="JH16" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JI16" t="n">
+      <c r="JI16" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="JJ16" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -14242,8 +14290,11 @@
       <c r="JH17" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JI17" t="n">
+      <c r="JI17" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JJ17" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -15053,7 +15104,10 @@
       <c r="JH18" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JI18" t="n">
+      <c r="JI18" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JJ18" t="n">
         <v>18</v>
       </c>
     </row>
@@ -15864,8 +15918,11 @@
       <c r="JH19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JI19" t="n">
+      <c r="JI19" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JJ19" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -16675,8 +16732,11 @@
       <c r="JH20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JI20" t="n">
+      <c r="JI20" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JJ20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -17486,8 +17546,11 @@
       <c r="JH21" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JI21" t="n">
+      <c r="JI21" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JJ21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -18297,8 +18360,11 @@
       <c r="JH22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JI22" t="n">
+      <c r="JI22" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JJ22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -19108,8 +19174,11 @@
       <c r="JH23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JI23" t="n">
+      <c r="JI23" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JJ23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -19919,8 +19988,11 @@
       <c r="JH24" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="JI24" t="n">
+      <c r="JI24" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="JJ24" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -20730,8 +20802,11 @@
       <c r="JH25" s="2" t="n">
         <v>65.5</v>
       </c>
-      <c r="JI25" t="n">
+      <c r="JI25" s="2" t="n">
         <v>57.1</v>
+      </c>
+      <c r="JJ25" t="n">
+        <v>57.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -21541,8 +21616,11 @@
       <c r="JH26" s="2" t="n">
         <v>21.79</v>
       </c>
-      <c r="JI26" t="n">
+      <c r="JI26" s="2" t="n">
         <v>22.94</v>
+      </c>
+      <c r="JJ26" t="n">
+        <v>38.18</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -22352,8 +22430,11 @@
       <c r="JH27" s="2" t="n">
         <v>14.28</v>
       </c>
-      <c r="JI27" t="n">
+      <c r="JI27" s="2" t="n">
         <v>13.11</v>
+      </c>
+      <c r="JJ27" t="n">
+        <v>22.11</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -23163,8 +23244,11 @@
       <c r="JH28" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="JI28" t="n">
+      <c r="JI28" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JJ28" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -23974,8 +24058,11 @@
       <c r="JH29" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JI29" t="n">
+      <c r="JI29" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="JJ29" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -24785,8 +24872,11 @@
       <c r="JH30" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JI30" t="n">
+      <c r="JI30" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="JJ30" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -25596,8 +25686,11 @@
       <c r="JH31" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="JI31" t="n">
+      <c r="JI31" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="JJ31" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -26407,8 +26500,11 @@
       <c r="JH32" s="2" t="n">
         <v>2.28</v>
       </c>
-      <c r="JI32" t="n">
+      <c r="JI32" s="2" t="n">
         <v>2.04</v>
+      </c>
+      <c r="JJ32" t="n">
+        <v>2.53</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -27218,8 +27314,11 @@
       <c r="JH33" s="2" t="n">
         <v>3.47</v>
       </c>
-      <c r="JI33" t="n">
+      <c r="JI33" s="2" t="n">
         <v>3.56</v>
+      </c>
+      <c r="JJ33" t="n">
+        <v>4.36</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -28029,8 +28128,11 @@
       <c r="JH34" s="2" t="n">
         <v>42.4</v>
       </c>
-      <c r="JI34" t="n">
+      <c r="JI34" s="2" t="n">
         <v>42.1</v>
+      </c>
+      <c r="JJ34" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -28840,8 +28942,11 @@
       <c r="JH35" s="2" t="n">
         <v>28.8</v>
       </c>
-      <c r="JI35" t="n">
+      <c r="JI35" s="2" t="n">
         <v>28.1</v>
+      </c>
+      <c r="JJ35" t="n">
+        <v>22.9</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -29651,8 +29756,11 @@
       <c r="JH36" s="2" t="n">
         <v>188.3</v>
       </c>
-      <c r="JI36" t="n">
+      <c r="JI36" s="2" t="n">
         <v>188.1</v>
+      </c>
+      <c r="JJ36" t="n">
+        <v>187.6</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -30462,8 +30570,11 @@
       <c r="JH37" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="JI37" t="n">
+      <c r="JI37" s="2" t="n">
         <v>86.5</v>
+      </c>
+      <c r="JJ37" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -31273,8 +31384,11 @@
       <c r="JH38" s="2" t="n">
         <v>25.24</v>
       </c>
-      <c r="JI38" t="n">
+      <c r="JI38" s="2" t="n">
         <v>24.8</v>
+      </c>
+      <c r="JJ38" t="n">
+        <v>24.91</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -32084,8 +32198,11 @@
       <c r="JH39" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="JI39" t="n">
+      <c r="JI39" s="2" t="n">
         <v>77.90000000000001</v>
+      </c>
+      <c r="JJ39" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -32895,8 +33012,11 @@
       <c r="JH40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JI40" t="n">
+      <c r="JI40" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JJ40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -33706,7 +33826,10 @@
       <c r="JH41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JI41" t="n">
+      <c r="JI41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JJ41" t="n">
         <v>6</v>
       </c>
     </row>
@@ -34517,7 +34640,10 @@
       <c r="JH42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JI42" t="n">
+      <c r="JI42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JJ42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35328,8 +35454,11 @@
       <c r="JH43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JI43" t="n">
+      <c r="JI43" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JJ43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -36139,8 +36268,11 @@
       <c r="JH44" s="2" t="n">
         <v>128</v>
       </c>
-      <c r="JI44" t="n">
+      <c r="JI44" s="2" t="n">
         <v>140</v>
+      </c>
+      <c r="JJ44" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -36950,8 +37082,11 @@
       <c r="JH45" s="2" t="n">
         <v>282</v>
       </c>
-      <c r="JI45" t="n">
+      <c r="JI45" s="2" t="n">
         <v>218</v>
+      </c>
+      <c r="JJ45" t="n">
+        <v>276</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -37761,8 +37896,11 @@
       <c r="JH46" s="2" t="n">
         <v>322</v>
       </c>
-      <c r="JI46" t="n">
+      <c r="JI46" s="2" t="n">
         <v>286</v>
+      </c>
+      <c r="JJ46" t="n">
+        <v>315</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -38572,8 +38710,11 @@
       <c r="JH47" s="2" t="n">
         <v>77.8</v>
       </c>
-      <c r="JI47" t="n">
+      <c r="JI47" s="2" t="n">
         <v>77.90000000000001</v>
+      </c>
+      <c r="JJ47" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -39383,8 +39524,11 @@
       <c r="JH48" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JI48" t="n">
+      <c r="JI48" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="JJ48" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -40194,7 +40338,10 @@
       <c r="JH49" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JI49" t="n">
+      <c r="JI49" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JJ49" t="n">
         <v>11</v>
       </c>
     </row>
@@ -41005,8 +41152,11 @@
       <c r="JH50" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JI50" t="n">
+      <c r="JI50" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JJ50" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -41816,8 +41966,11 @@
       <c r="JH51" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="JI51" t="n">
+      <c r="JI51" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JJ51" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -42627,8 +42780,11 @@
       <c r="JH52" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JI52" t="n">
+      <c r="JI52" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="JJ52" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -43438,8 +43594,11 @@
       <c r="JH53" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JI53" t="n">
+      <c r="JI53" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="JJ53" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -44249,8 +44408,11 @@
       <c r="JH54" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JI54" t="n">
+      <c r="JI54" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JJ54" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -45060,8 +45222,11 @@
       <c r="JH55" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JI55" t="n">
+      <c r="JI55" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JJ55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -45871,8 +46036,11 @@
       <c r="JH56" s="2" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="JI56" t="n">
+      <c r="JI56" s="2" t="n">
         <v>62.5</v>
+      </c>
+      <c r="JJ56" t="n">
+        <v>72.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -46682,8 +46850,11 @@
       <c r="JH57" s="2" t="n">
         <v>224</v>
       </c>
-      <c r="JI57" t="n">
+      <c r="JI57" s="2" t="n">
         <v>216</v>
+      </c>
+      <c r="JJ57" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -47493,8 +47664,11 @@
       <c r="JH58" s="2" t="n">
         <v>146</v>
       </c>
-      <c r="JI58" t="n">
+      <c r="JI58" s="2" t="n">
         <v>115</v>
+      </c>
+      <c r="JJ58" t="n">
+        <v>162</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -48304,8 +48478,11 @@
       <c r="JH59" s="2" t="n">
         <v>370</v>
       </c>
-      <c r="JI59" t="n">
+      <c r="JI59" s="2" t="n">
         <v>331</v>
+      </c>
+      <c r="JJ59" t="n">
+        <v>404</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -49115,8 +49292,11 @@
       <c r="JH60" s="2" t="n">
         <v>1.53</v>
       </c>
-      <c r="JI60" t="n">
+      <c r="JI60" s="2" t="n">
         <v>1.88</v>
+      </c>
+      <c r="JJ60" t="n">
+        <v>1.49</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -49926,8 +50106,11 @@
       <c r="JH61" s="2" t="n">
         <v>124</v>
       </c>
-      <c r="JI61" t="n">
+      <c r="JI61" s="2" t="n">
         <v>91</v>
+      </c>
+      <c r="JJ61" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -50737,8 +50920,11 @@
       <c r="JH62" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="JI62" t="n">
+      <c r="JI62" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="JJ62" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -51548,8 +51734,11 @@
       <c r="JH63" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="JI63" t="n">
+      <c r="JI63" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JJ63" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -52359,8 +52548,11 @@
       <c r="JH64" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JI64" t="n">
+      <c r="JI64" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JJ64" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -53170,7 +53362,10 @@
       <c r="JH65" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JI65" t="n">
+      <c r="JI65" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JJ65" t="n">
         <v>18</v>
       </c>
     </row>
@@ -53981,8 +54176,11 @@
       <c r="JH66" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JI66" t="n">
+      <c r="JI66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JJ66" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -54792,8 +54990,11 @@
       <c r="JH67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JI67" t="n">
+      <c r="JI67" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JJ67" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -55603,8 +55804,11 @@
       <c r="JH68" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JI68" t="n">
+      <c r="JI68" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JJ68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -56414,7 +56618,10 @@
       <c r="JH69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JI69" t="n">
+      <c r="JI69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JJ69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -57225,8 +57432,11 @@
       <c r="JH70" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JI70" t="n">
+      <c r="JI70" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="JJ70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -58036,8 +58246,11 @@
       <c r="JH71" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JI71" t="n">
+      <c r="JI71" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="JJ71" t="n">
+        <v>63.6</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -58847,8 +59060,11 @@
       <c r="JH72" s="2" t="n">
         <v>41.11</v>
       </c>
-      <c r="JI72" t="n">
+      <c r="JI72" s="2" t="n">
         <v>30.09</v>
+      </c>
+      <c r="JJ72" t="n">
+        <v>28.86</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -59658,8 +59874,11 @@
       <c r="JH73" s="2" t="n">
         <v>18.5</v>
       </c>
-      <c r="JI73" t="n">
+      <c r="JI73" s="2" t="n">
         <v>13.24</v>
+      </c>
+      <c r="JJ73" t="n">
+        <v>18.36</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -60469,8 +60688,11 @@
       <c r="JH74" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JI74" t="n">
+      <c r="JI74" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JJ74" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -61280,8 +61502,11 @@
       <c r="JH75" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="JI75" t="n">
+      <c r="JI75" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="JJ75" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -62091,8 +62316,11 @@
       <c r="JH76" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JI76" t="n">
+      <c r="JI76" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JJ76" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -62902,8 +63130,11 @@
       <c r="JH77" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JI77" t="n">
+      <c r="JI77" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="JJ77" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -63713,8 +63944,11 @@
       <c r="JH78" s="2" t="n">
         <v>2.45</v>
       </c>
-      <c r="JI78" t="n">
+      <c r="JI78" s="2" t="n">
         <v>2.28</v>
+      </c>
+      <c r="JJ78" t="n">
+        <v>2.36</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -64524,8 +64758,11 @@
       <c r="JH79" s="2" t="n">
         <v>5.44</v>
       </c>
-      <c r="JI79" t="n">
+      <c r="JI79" s="2" t="n">
         <v>5.18</v>
+      </c>
+      <c r="JJ79" t="n">
+        <v>3.71</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -65335,8 +65572,11 @@
       <c r="JH80" s="2" t="n">
         <v>34.7</v>
       </c>
-      <c r="JI80" t="n">
+      <c r="JI80" s="2" t="n">
         <v>42.1</v>
+      </c>
+      <c r="JJ80" t="n">
+        <v>40.4</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -66146,8 +66386,11 @@
       <c r="JH81" s="2" t="n">
         <v>18.4</v>
       </c>
-      <c r="JI81" t="n">
+      <c r="JI81" s="2" t="n">
         <v>19.3</v>
+      </c>
+      <c r="JJ81" t="n">
+        <v>26.9</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -66957,8 +67200,11 @@
       <c r="JH82" s="2" t="n">
         <v>188.2</v>
       </c>
-      <c r="JI82" t="n">
+      <c r="JI82" s="2" t="n">
         <v>188</v>
+      </c>
+      <c r="JJ82" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -67768,8 +68014,11 @@
       <c r="JH83" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="JI83" t="n">
+      <c r="JI83" s="2" t="n">
         <v>86.90000000000001</v>
+      </c>
+      <c r="JJ83" t="n">
+        <v>85.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -68579,8 +68828,11 @@
       <c r="JH84" s="2" t="n">
         <v>24.58</v>
       </c>
-      <c r="JI84" t="n">
+      <c r="JI84" s="2" t="n">
         <v>25.8</v>
+      </c>
+      <c r="JJ84" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -69390,8 +69642,11 @@
       <c r="JH85" s="2" t="n">
         <v>68.5</v>
       </c>
-      <c r="JI85" t="n">
+      <c r="JI85" s="2" t="n">
         <v>82</v>
+      </c>
+      <c r="JJ85" t="n">
+        <v>84.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -70201,7 +70456,10 @@
       <c r="JH86" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JI86" t="n">
+      <c r="JI86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JJ86" t="n">
         <v>7</v>
       </c>
     </row>
@@ -71012,8 +71270,11 @@
       <c r="JH87" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JI87" t="n">
+      <c r="JI87" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JJ87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -71823,8 +72084,11 @@
       <c r="JH88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JI88" t="n">
+      <c r="JI88" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JJ88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -72634,8 +72898,11 @@
       <c r="JH89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JI89" t="n">
+      <c r="JI89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JJ89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -73445,8 +73712,11 @@
       <c r="JH90" s="2" t="n">
         <v>114</v>
       </c>
-      <c r="JI90" t="n">
+      <c r="JI90" s="2" t="n">
         <v>137</v>
+      </c>
+      <c r="JJ90" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -74256,8 +74526,11 @@
       <c r="JH91" s="2" t="n">
         <v>254</v>
       </c>
-      <c r="JI91" t="n">
+      <c r="JI91" s="2" t="n">
         <v>181</v>
+      </c>
+      <c r="JJ91" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -75067,8 +75340,11 @@
       <c r="JH92" s="2" t="n">
         <v>273</v>
       </c>
-      <c r="JI92" t="n">
+      <c r="JI92" s="2" t="n">
         <v>228</v>
+      </c>
+      <c r="JJ92" t="n">
+        <v>292</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -75878,8 +76154,11 @@
       <c r="JH93" s="2" t="n">
         <v>73.8</v>
       </c>
-      <c r="JI93" t="n">
+      <c r="JI93" s="2" t="n">
         <v>68.90000000000001</v>
+      </c>
+      <c r="JJ93" t="n">
+        <v>72.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -76689,8 +76968,11 @@
       <c r="JH94" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="JI94" t="n">
+      <c r="JI94" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="JJ94" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -77500,8 +77782,11 @@
       <c r="JH95" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JI95" t="n">
+      <c r="JI95" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JJ95" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -78311,8 +78596,11 @@
       <c r="JH96" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JI96" t="n">
+      <c r="JI96" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JJ96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -79122,8 +79410,11 @@
       <c r="JH97" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JI97" t="n">
+      <c r="JI97" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JJ97" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -79933,8 +80224,11 @@
       <c r="JH98" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JI98" t="n">
+      <c r="JI98" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JJ98" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -80744,8 +81038,11 @@
       <c r="JH99" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="JI99" t="n">
+      <c r="JI99" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="JJ99" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -81555,8 +81852,11 @@
       <c r="JH100" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JI100" t="n">
+      <c r="JI100" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JJ100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -82366,8 +82666,11 @@
       <c r="JH101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JI101" t="n">
+      <c r="JI101" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JJ101" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -83177,8 +83480,11 @@
       <c r="JH102" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="JI102" t="n">
+      <c r="JI102" s="2" t="n">
         <v>72.7</v>
+      </c>
+      <c r="JJ102" t="n">
+        <v>78.59999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Essendon_stats.xlsx
+++ b/AFL_ML/Data/Essendon_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JJ102"/>
+  <dimension ref="A1:JK102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="II102" activeCellId="0" sqref="II102"/>
@@ -1269,8 +1269,11 @@
       <c r="JI1" s="2" t="n">
         <v>10767</v>
       </c>
-      <c r="JJ1" t="n">
+      <c r="JJ1" s="2" t="n">
         <v>10773</v>
+      </c>
+      <c r="JK1" t="n">
+        <v>10784</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2083,7 +2086,10 @@
       <c r="JI2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="JJ2" t="n">
+      <c r="JJ2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JK2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2897,8 +2903,11 @@
       <c r="JI3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JJ3" t="n">
+      <c r="JJ3" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3711,8 +3720,11 @@
       <c r="JI4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JJ4" t="n">
+      <c r="JJ4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4525,7 +4537,10 @@
       <c r="JI5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JJ5" t="n">
+      <c r="JJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5339,8 +5354,11 @@
       <c r="JI6" s="2" t="n">
         <v>108</v>
       </c>
-      <c r="JJ6" t="n">
+      <c r="JJ6" s="2" t="n">
         <v>74</v>
+      </c>
+      <c r="JK6" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6153,8 +6171,11 @@
       <c r="JI7" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="JJ7" t="n">
+      <c r="JJ7" s="2" t="n">
         <v>92</v>
+      </c>
+      <c r="JK7" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6967,8 +6988,11 @@
       <c r="JI8" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="JJ8" t="n">
+      <c r="JJ8" s="2" t="n">
         <v>-18</v>
+      </c>
+      <c r="JK8" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7781,8 +7805,11 @@
       <c r="JI9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JJ9" t="n">
+      <c r="JJ9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JK9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -8595,8 +8622,11 @@
       <c r="JI10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JJ10" t="n">
+      <c r="JJ10" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JK10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9409,8 +9439,11 @@
       <c r="JI11" s="2" t="n">
         <v>213</v>
       </c>
-      <c r="JJ11" t="n">
+      <c r="JJ11" s="2" t="n">
         <v>250</v>
+      </c>
+      <c r="JK11" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -10223,8 +10256,11 @@
       <c r="JI12" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="JJ12" t="n">
+      <c r="JJ12" s="2" t="n">
         <v>170</v>
+      </c>
+      <c r="JK12" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11037,8 +11073,11 @@
       <c r="JI13" s="2" t="n">
         <v>367</v>
       </c>
-      <c r="JJ13" t="n">
+      <c r="JJ13" s="2" t="n">
         <v>420</v>
+      </c>
+      <c r="JK13" t="n">
+        <v>381</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -11851,8 +11890,11 @@
       <c r="JI14" s="2" t="n">
         <v>1.38</v>
       </c>
-      <c r="JJ14" t="n">
+      <c r="JJ14" s="2" t="n">
         <v>1.47</v>
+      </c>
+      <c r="JK14" t="n">
+        <v>1.41</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -12665,8 +12707,11 @@
       <c r="JI15" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="JJ15" t="n">
+      <c r="JJ15" s="2" t="n">
         <v>127</v>
+      </c>
+      <c r="JK15" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -13479,8 +13524,11 @@
       <c r="JI16" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="JJ16" t="n">
+      <c r="JJ16" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="JK16" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -14293,8 +14341,11 @@
       <c r="JI17" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JJ17" t="n">
+      <c r="JJ17" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="JK17" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -15107,8 +15158,11 @@
       <c r="JI18" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JJ18" t="n">
+      <c r="JJ18" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JK18" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -15921,8 +15975,11 @@
       <c r="JI19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JJ19" t="n">
+      <c r="JJ19" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JK19" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -16735,7 +16792,10 @@
       <c r="JI20" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JJ20" t="n">
+      <c r="JJ20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JK20" t="n">
         <v>11</v>
       </c>
     </row>
@@ -17549,8 +17609,11 @@
       <c r="JI21" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JJ21" t="n">
+      <c r="JJ21" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JK21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -18363,8 +18426,11 @@
       <c r="JI22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JJ22" t="n">
+      <c r="JJ22" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JK22" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -19177,7 +19243,10 @@
       <c r="JI23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JJ23" t="n">
+      <c r="JJ23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JK23" t="n">
         <v>3</v>
       </c>
     </row>
@@ -19991,8 +20060,11 @@
       <c r="JI24" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="JJ24" t="n">
+      <c r="JJ24" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="JK24" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -20805,8 +20877,11 @@
       <c r="JI25" s="2" t="n">
         <v>57.1</v>
       </c>
-      <c r="JJ25" t="n">
+      <c r="JJ25" s="2" t="n">
         <v>57.9</v>
+      </c>
+      <c r="JK25" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -21619,8 +21694,11 @@
       <c r="JI26" s="2" t="n">
         <v>22.94</v>
       </c>
-      <c r="JJ26" t="n">
+      <c r="JJ26" s="2" t="n">
         <v>38.18</v>
+      </c>
+      <c r="JK26" t="n">
+        <v>34.64</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -22433,8 +22511,11 @@
       <c r="JI27" s="2" t="n">
         <v>13.11</v>
       </c>
-      <c r="JJ27" t="n">
+      <c r="JJ27" s="2" t="n">
         <v>22.11</v>
+      </c>
+      <c r="JK27" t="n">
+        <v>11.55</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -23247,8 +23328,11 @@
       <c r="JI28" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JJ28" t="n">
+      <c r="JJ28" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JK28" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -24061,8 +24145,11 @@
       <c r="JI29" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="JJ29" t="n">
+      <c r="JJ29" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="JK29" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -24875,7 +24962,10 @@
       <c r="JI30" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JJ30" t="n">
+      <c r="JJ30" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JK30" t="n">
         <v>38</v>
       </c>
     </row>
@@ -25689,8 +25779,11 @@
       <c r="JI31" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="JJ31" t="n">
+      <c r="JJ31" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="JK31" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -26503,8 +26596,11 @@
       <c r="JI32" s="2" t="n">
         <v>2.04</v>
       </c>
-      <c r="JJ32" t="n">
+      <c r="JJ32" s="2" t="n">
         <v>2.53</v>
+      </c>
+      <c r="JK32" t="n">
+        <v>1.85</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -27317,8 +27413,11 @@
       <c r="JI33" s="2" t="n">
         <v>3.56</v>
       </c>
-      <c r="JJ33" t="n">
+      <c r="JJ33" s="2" t="n">
         <v>4.36</v>
+      </c>
+      <c r="JK33" t="n">
+        <v>5.55</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -28131,8 +28230,11 @@
       <c r="JI34" s="2" t="n">
         <v>42.1</v>
       </c>
-      <c r="JJ34" t="n">
+      <c r="JJ34" s="2" t="n">
         <v>33.3</v>
+      </c>
+      <c r="JK34" t="n">
+        <v>49.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -28945,8 +29047,11 @@
       <c r="JI35" s="2" t="n">
         <v>28.1</v>
       </c>
-      <c r="JJ35" t="n">
+      <c r="JJ35" s="2" t="n">
         <v>22.9</v>
+      </c>
+      <c r="JK35" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -29759,8 +29864,11 @@
       <c r="JI36" s="2" t="n">
         <v>188.1</v>
       </c>
-      <c r="JJ36" t="n">
+      <c r="JJ36" s="2" t="n">
         <v>187.6</v>
+      </c>
+      <c r="JK36" t="n">
+        <v>189.3</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -30573,8 +30681,11 @@
       <c r="JI37" s="2" t="n">
         <v>86.5</v>
       </c>
-      <c r="JJ37" t="n">
+      <c r="JJ37" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="JK37" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -31387,8 +31498,11 @@
       <c r="JI38" s="2" t="n">
         <v>24.8</v>
       </c>
-      <c r="JJ38" t="n">
+      <c r="JJ38" s="2" t="n">
         <v>24.91</v>
+      </c>
+      <c r="JK38" t="n">
+        <v>25.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -32201,8 +32315,11 @@
       <c r="JI39" s="2" t="n">
         <v>77.90000000000001</v>
       </c>
-      <c r="JJ39" t="n">
+      <c r="JJ39" s="2" t="n">
         <v>84</v>
+      </c>
+      <c r="JK39" t="n">
+        <v>85.8</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -33015,7 +33132,10 @@
       <c r="JI40" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JJ40" t="n">
+      <c r="JJ40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JK40" t="n">
         <v>9</v>
       </c>
     </row>
@@ -33829,7 +33949,10 @@
       <c r="JI41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JJ41" t="n">
+      <c r="JJ41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JK41" t="n">
         <v>6</v>
       </c>
     </row>
@@ -34643,7 +34766,10 @@
       <c r="JI42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JJ42" t="n">
+      <c r="JJ42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JK42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35457,7 +35583,10 @@
       <c r="JI43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JJ43" t="n">
+      <c r="JJ43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JK43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -36271,8 +36400,11 @@
       <c r="JI44" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="JJ44" t="n">
+      <c r="JJ44" s="2" t="n">
         <v>136</v>
+      </c>
+      <c r="JK44" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -37085,8 +37217,11 @@
       <c r="JI45" s="2" t="n">
         <v>218</v>
       </c>
-      <c r="JJ45" t="n">
+      <c r="JJ45" s="2" t="n">
         <v>276</v>
+      </c>
+      <c r="JK45" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -37899,8 +38034,11 @@
       <c r="JI46" s="2" t="n">
         <v>286</v>
       </c>
-      <c r="JJ46" t="n">
+      <c r="JJ46" s="2" t="n">
         <v>315</v>
+      </c>
+      <c r="JK46" t="n">
+        <v>281</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -38713,8 +38851,11 @@
       <c r="JI47" s="2" t="n">
         <v>77.90000000000001</v>
       </c>
-      <c r="JJ47" t="n">
+      <c r="JJ47" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="JK47" t="n">
+        <v>73.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -39527,8 +39668,11 @@
       <c r="JI48" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="JJ48" t="n">
+      <c r="JJ48" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="JK48" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -40341,8 +40485,11 @@
       <c r="JI49" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JJ49" t="n">
+      <c r="JJ49" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JK49" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -41155,8 +41302,11 @@
       <c r="JI50" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JJ50" t="n">
+      <c r="JJ50" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JK50" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -41969,8 +42119,11 @@
       <c r="JI51" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JJ51" t="n">
+      <c r="JJ51" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JK51" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -42783,7 +42936,10 @@
       <c r="JI52" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JJ52" t="n">
+      <c r="JJ52" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JK52" t="n">
         <v>38</v>
       </c>
     </row>
@@ -43597,8 +43753,11 @@
       <c r="JI53" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JJ53" t="n">
+      <c r="JJ53" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JK53" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -44411,8 +44570,11 @@
       <c r="JI54" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JJ54" t="n">
+      <c r="JJ54" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JK54" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -45225,8 +45387,11 @@
       <c r="JI55" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JJ55" t="n">
+      <c r="JJ55" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JK55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -46039,8 +46204,11 @@
       <c r="JI56" s="2" t="n">
         <v>62.5</v>
       </c>
-      <c r="JJ56" t="n">
+      <c r="JJ56" s="2" t="n">
         <v>72.7</v>
+      </c>
+      <c r="JK56" t="n">
+        <v>90.90000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -46853,8 +47021,11 @@
       <c r="JI57" s="2" t="n">
         <v>216</v>
       </c>
-      <c r="JJ57" t="n">
+      <c r="JJ57" s="2" t="n">
         <v>242</v>
+      </c>
+      <c r="JK57" t="n">
+        <v>235</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -47667,8 +47838,11 @@
       <c r="JI58" s="2" t="n">
         <v>115</v>
       </c>
-      <c r="JJ58" t="n">
+      <c r="JJ58" s="2" t="n">
         <v>162</v>
+      </c>
+      <c r="JK58" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -48481,8 +48655,11 @@
       <c r="JI59" s="2" t="n">
         <v>331</v>
       </c>
-      <c r="JJ59" t="n">
+      <c r="JJ59" s="2" t="n">
         <v>404</v>
+      </c>
+      <c r="JK59" t="n">
+        <v>393</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -49295,7 +49472,10 @@
       <c r="JI60" s="2" t="n">
         <v>1.88</v>
       </c>
-      <c r="JJ60" t="n">
+      <c r="JJ60" s="2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="JK60" t="n">
         <v>1.49</v>
       </c>
     </row>
@@ -50109,8 +50289,11 @@
       <c r="JI61" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="JJ61" t="n">
+      <c r="JJ61" s="2" t="n">
         <v>119</v>
+      </c>
+      <c r="JK61" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -50923,8 +51106,11 @@
       <c r="JI62" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JJ62" t="n">
+      <c r="JJ62" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JK62" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -51737,8 +51923,11 @@
       <c r="JI63" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JJ63" t="n">
+      <c r="JJ63" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="JK63" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -52551,8 +52740,11 @@
       <c r="JI64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JJ64" t="n">
+      <c r="JJ64" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JK64" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -53365,8 +53557,11 @@
       <c r="JI65" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JJ65" t="n">
+      <c r="JJ65" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JK65" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -54179,8 +54374,11 @@
       <c r="JI66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JJ66" t="n">
+      <c r="JJ66" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JK66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -54993,8 +55191,11 @@
       <c r="JI67" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JJ67" t="n">
+      <c r="JJ67" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JK67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -55807,8 +56008,11 @@
       <c r="JI68" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JJ68" t="n">
+      <c r="JJ68" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JK68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -56621,7 +56825,10 @@
       <c r="JI69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JJ69" t="n">
+      <c r="JJ69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -57435,8 +57642,11 @@
       <c r="JI70" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="JJ70" t="n">
+      <c r="JJ70" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JK70" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -58249,8 +58459,11 @@
       <c r="JI71" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JJ71" t="n">
+      <c r="JJ71" s="2" t="n">
         <v>63.6</v>
+      </c>
+      <c r="JK71" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -59063,8 +59276,11 @@
       <c r="JI72" s="2" t="n">
         <v>30.09</v>
       </c>
-      <c r="JJ72" t="n">
+      <c r="JJ72" s="2" t="n">
         <v>28.86</v>
+      </c>
+      <c r="JK72" t="n">
+        <v>35.73</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -59877,8 +60093,11 @@
       <c r="JI73" s="2" t="n">
         <v>13.24</v>
       </c>
-      <c r="JJ73" t="n">
+      <c r="JJ73" s="2" t="n">
         <v>18.36</v>
+      </c>
+      <c r="JK73" t="n">
+        <v>19.65</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -60691,8 +60910,11 @@
       <c r="JI74" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JJ74" t="n">
+      <c r="JJ74" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="JK74" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -61505,8 +61727,11 @@
       <c r="JI75" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="JJ75" t="n">
+      <c r="JJ75" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="JK75" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -62319,8 +62544,11 @@
       <c r="JI76" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JJ76" t="n">
+      <c r="JJ76" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="JK76" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -63133,8 +63361,11 @@
       <c r="JI77" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="JJ77" t="n">
+      <c r="JJ77" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="JK77" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -63947,8 +64178,11 @@
       <c r="JI78" s="2" t="n">
         <v>2.28</v>
       </c>
-      <c r="JJ78" t="n">
+      <c r="JJ78" s="2" t="n">
         <v>2.36</v>
+      </c>
+      <c r="JK78" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -64761,8 +64995,11 @@
       <c r="JI79" s="2" t="n">
         <v>5.18</v>
       </c>
-      <c r="JJ79" t="n">
+      <c r="JJ79" s="2" t="n">
         <v>3.71</v>
+      </c>
+      <c r="JK79" t="n">
+        <v>4.55</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -65575,8 +65812,11 @@
       <c r="JI80" s="2" t="n">
         <v>42.1</v>
       </c>
-      <c r="JJ80" t="n">
+      <c r="JJ80" s="2" t="n">
         <v>40.4</v>
+      </c>
+      <c r="JK80" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -66389,8 +66629,11 @@
       <c r="JI81" s="2" t="n">
         <v>19.3</v>
       </c>
-      <c r="JJ81" t="n">
+      <c r="JJ81" s="2" t="n">
         <v>26.9</v>
+      </c>
+      <c r="JK81" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -67203,8 +67446,11 @@
       <c r="JI82" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="JJ82" t="n">
+      <c r="JJ82" s="2" t="n">
         <v>187.7</v>
+      </c>
+      <c r="JK82" t="n">
+        <v>188.6</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -68017,8 +68263,11 @@
       <c r="JI83" s="2" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="JJ83" t="n">
+      <c r="JJ83" s="2" t="n">
         <v>85.3</v>
+      </c>
+      <c r="JK83" t="n">
+        <v>87.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -68831,8 +69080,11 @@
       <c r="JI84" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="JJ84" t="n">
+      <c r="JJ84" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="JK84" t="n">
+        <v>25.66</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -69645,8 +69897,11 @@
       <c r="JI85" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="JJ85" t="n">
+      <c r="JJ85" s="2" t="n">
         <v>84.7</v>
+      </c>
+      <c r="JK85" t="n">
+        <v>93.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -70459,8 +70714,11 @@
       <c r="JI86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JJ86" t="n">
+      <c r="JJ86" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JK86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -71273,8 +71531,11 @@
       <c r="JI87" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JJ87" t="n">
+      <c r="JJ87" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JK87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -72087,8 +72348,11 @@
       <c r="JI88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JJ88" t="n">
+      <c r="JJ88" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JK88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -72901,8 +73165,11 @@
       <c r="JI89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JJ89" t="n">
+      <c r="JJ89" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JK89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -73715,8 +73982,11 @@
       <c r="JI90" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="JJ90" t="n">
+      <c r="JJ90" s="2" t="n">
         <v>139</v>
+      </c>
+      <c r="JK90" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -74529,8 +74799,11 @@
       <c r="JI91" s="2" t="n">
         <v>181</v>
       </c>
-      <c r="JJ91" t="n">
+      <c r="JJ91" s="2" t="n">
         <v>253</v>
+      </c>
+      <c r="JK91" t="n">
+        <v>247</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -75343,8 +75616,11 @@
       <c r="JI92" s="2" t="n">
         <v>228</v>
       </c>
-      <c r="JJ92" t="n">
+      <c r="JJ92" s="2" t="n">
         <v>292</v>
+      </c>
+      <c r="JK92" t="n">
+        <v>293</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -76157,8 +76433,11 @@
       <c r="JI93" s="2" t="n">
         <v>68.90000000000001</v>
       </c>
-      <c r="JJ93" t="n">
+      <c r="JJ93" s="2" t="n">
         <v>72.3</v>
+      </c>
+      <c r="JK93" t="n">
+        <v>74.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -76971,8 +77250,11 @@
       <c r="JI94" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="JJ94" t="n">
+      <c r="JJ94" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="JK94" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -77785,8 +78067,11 @@
       <c r="JI95" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JJ95" t="n">
+      <c r="JJ95" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JK95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -78599,8 +78884,11 @@
       <c r="JI96" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JJ96" t="n">
+      <c r="JJ96" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JK96" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -79413,8 +79701,11 @@
       <c r="JI97" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JJ97" t="n">
+      <c r="JJ97" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="JK97" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -80227,8 +80518,11 @@
       <c r="JI98" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JJ98" t="n">
+      <c r="JJ98" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="JK98" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -81041,8 +81335,11 @@
       <c r="JI99" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JJ99" t="n">
+      <c r="JJ99" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JK99" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -81855,8 +82152,11 @@
       <c r="JI100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JJ100" t="n">
+      <c r="JJ100" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JK100" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -82669,8 +82969,11 @@
       <c r="JI101" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JJ101" t="n">
+      <c r="JJ101" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JK101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -83483,8 +83786,11 @@
       <c r="JI102" s="2" t="n">
         <v>72.7</v>
       </c>
-      <c r="JJ102" t="n">
+      <c r="JJ102" s="2" t="n">
         <v>78.59999999999999</v>
+      </c>
+      <c r="JK102" t="n">
+        <v>81.8</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Essendon_stats.xlsx
+++ b/AFL_ML/Data/Essendon_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JK102"/>
+  <dimension ref="A1:JL102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="II102" activeCellId="0" sqref="II102"/>
@@ -1272,8 +1272,11 @@
       <c r="JJ1" s="2" t="n">
         <v>10773</v>
       </c>
-      <c r="JK1" t="n">
+      <c r="JK1" s="2" t="n">
         <v>10784</v>
+      </c>
+      <c r="JL1" t="n">
+        <v>10791</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2089,7 +2092,10 @@
       <c r="JJ2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="JK2" t="n">
+      <c r="JK2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JL2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2906,8 +2912,11 @@
       <c r="JJ3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JK3" t="n">
+      <c r="JK3" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3723,7 +3732,10 @@
       <c r="JJ4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JK4" t="n">
+      <c r="JK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4540,7 +4552,10 @@
       <c r="JJ5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JK5" t="n">
+      <c r="JK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5357,8 +5372,11 @@
       <c r="JJ6" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="JK6" t="n">
+      <c r="JK6" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="JL6" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6174,8 +6192,11 @@
       <c r="JJ7" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="JK7" t="n">
+      <c r="JK7" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="JL7" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -6991,8 +7012,11 @@
       <c r="JJ8" s="2" t="n">
         <v>-18</v>
       </c>
-      <c r="JK8" t="n">
+      <c r="JK8" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JL8" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7808,7 +7832,10 @@
       <c r="JJ9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JK9" t="n">
+      <c r="JK9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8625,8 +8652,11 @@
       <c r="JJ10" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JK10" t="n">
+      <c r="JK10" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JL10" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9442,8 +9472,11 @@
       <c r="JJ11" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="JK11" t="n">
+      <c r="JK11" s="2" t="n">
         <v>223</v>
+      </c>
+      <c r="JL11" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -10259,8 +10292,11 @@
       <c r="JJ12" s="2" t="n">
         <v>170</v>
       </c>
-      <c r="JK12" t="n">
+      <c r="JK12" s="2" t="n">
         <v>158</v>
+      </c>
+      <c r="JL12" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11076,8 +11112,11 @@
       <c r="JJ13" s="2" t="n">
         <v>420</v>
       </c>
-      <c r="JK13" t="n">
+      <c r="JK13" s="2" t="n">
         <v>381</v>
+      </c>
+      <c r="JL13" t="n">
+        <v>380</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -11893,8 +11932,11 @@
       <c r="JJ14" s="2" t="n">
         <v>1.47</v>
       </c>
-      <c r="JK14" t="n">
+      <c r="JK14" s="2" t="n">
         <v>1.41</v>
+      </c>
+      <c r="JL14" t="n">
+        <v>1.45</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -12710,8 +12752,11 @@
       <c r="JJ15" s="2" t="n">
         <v>127</v>
       </c>
-      <c r="JK15" t="n">
+      <c r="JK15" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="JL15" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -13527,8 +13572,11 @@
       <c r="JJ16" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="JK16" t="n">
+      <c r="JK16" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JL16" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -14344,8 +14392,11 @@
       <c r="JJ17" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="JK17" t="n">
+      <c r="JK17" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JL17" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -15161,8 +15212,11 @@
       <c r="JJ18" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JK18" t="n">
+      <c r="JK18" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JL18" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -15978,8 +16032,11 @@
       <c r="JJ19" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JK19" t="n">
+      <c r="JK19" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JL19" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -16795,8 +16852,11 @@
       <c r="JJ20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JK20" t="n">
+      <c r="JK20" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JL20" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -17612,8 +17672,11 @@
       <c r="JJ21" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JK21" t="n">
+      <c r="JK21" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JL21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -18429,8 +18492,11 @@
       <c r="JJ22" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JK22" t="n">
+      <c r="JK22" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="JL22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -19246,7 +19312,10 @@
       <c r="JJ23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JK23" t="n">
+      <c r="JK23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JL23" t="n">
         <v>3</v>
       </c>
     </row>
@@ -20063,8 +20132,11 @@
       <c r="JJ24" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JK24" t="n">
+      <c r="JK24" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JL24" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -20880,8 +20952,11 @@
       <c r="JJ25" s="2" t="n">
         <v>57.9</v>
       </c>
-      <c r="JK25" t="n">
+      <c r="JK25" s="2" t="n">
         <v>33.3</v>
+      </c>
+      <c r="JL25" t="n">
+        <v>51.7</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -21697,8 +21772,11 @@
       <c r="JJ26" s="2" t="n">
         <v>38.18</v>
       </c>
-      <c r="JK26" t="n">
+      <c r="JK26" s="2" t="n">
         <v>34.64</v>
+      </c>
+      <c r="JL26" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -22514,8 +22592,11 @@
       <c r="JJ27" s="2" t="n">
         <v>22.11</v>
       </c>
-      <c r="JK27" t="n">
+      <c r="JK27" s="2" t="n">
         <v>11.55</v>
+      </c>
+      <c r="JL27" t="n">
+        <v>13.1</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -23331,8 +23412,11 @@
       <c r="JJ28" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="JK28" t="n">
+      <c r="JK28" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="JL28" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -24148,8 +24232,11 @@
       <c r="JJ29" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="JK29" t="n">
+      <c r="JK29" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JL29" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -24965,8 +25052,11 @@
       <c r="JJ30" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JK30" t="n">
+      <c r="JK30" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JL30" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -25782,8 +25872,11 @@
       <c r="JJ31" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JK31" t="n">
+      <c r="JK31" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="JL31" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -26599,8 +26692,11 @@
       <c r="JJ32" s="2" t="n">
         <v>2.53</v>
       </c>
-      <c r="JK32" t="n">
+      <c r="JK32" s="2" t="n">
         <v>1.85</v>
+      </c>
+      <c r="JL32" t="n">
+        <v>1.97</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -27416,8 +27512,11 @@
       <c r="JJ33" s="2" t="n">
         <v>4.36</v>
       </c>
-      <c r="JK33" t="n">
+      <c r="JK33" s="2" t="n">
         <v>5.55</v>
+      </c>
+      <c r="JL33" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -28233,8 +28332,11 @@
       <c r="JJ34" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="JK34" t="n">
+      <c r="JK34" s="2" t="n">
         <v>49.2</v>
+      </c>
+      <c r="JL34" t="n">
+        <v>45.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -29050,8 +29152,11 @@
       <c r="JJ35" s="2" t="n">
         <v>22.9</v>
       </c>
-      <c r="JK35" t="n">
+      <c r="JK35" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JL35" t="n">
+        <v>26.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -29867,8 +29972,11 @@
       <c r="JJ36" s="2" t="n">
         <v>187.6</v>
       </c>
-      <c r="JK36" t="n">
+      <c r="JK36" s="2" t="n">
         <v>189.3</v>
+      </c>
+      <c r="JL36" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -30684,8 +30792,11 @@
       <c r="JJ37" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="JK37" t="n">
+      <c r="JK37" s="2" t="n">
         <v>87.5</v>
+      </c>
+      <c r="JL37" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -31501,8 +31612,11 @@
       <c r="JJ38" s="2" t="n">
         <v>24.91</v>
       </c>
-      <c r="JK38" t="n">
+      <c r="JK38" s="2" t="n">
         <v>25.24</v>
+      </c>
+      <c r="JL38" t="n">
+        <v>25.66</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -32318,8 +32432,11 @@
       <c r="JJ39" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="JK39" t="n">
+      <c r="JK39" s="2" t="n">
         <v>85.8</v>
+      </c>
+      <c r="JL39" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -33135,8 +33252,11 @@
       <c r="JJ40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JK40" t="n">
+      <c r="JK40" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JL40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -33952,8 +34072,11 @@
       <c r="JJ41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JK41" t="n">
+      <c r="JK41" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JL41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -34769,7 +34892,10 @@
       <c r="JJ42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JK42" t="n">
+      <c r="JK42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JL42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35586,7 +35712,10 @@
       <c r="JJ43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JK43" t="n">
+      <c r="JK43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JL43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -36403,8 +36532,11 @@
       <c r="JJ44" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="JK44" t="n">
+      <c r="JK44" s="2" t="n">
         <v>148</v>
+      </c>
+      <c r="JL44" t="n">
+        <v>157</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -37220,8 +37352,11 @@
       <c r="JJ45" s="2" t="n">
         <v>276</v>
       </c>
-      <c r="JK45" t="n">
+      <c r="JK45" s="2" t="n">
         <v>231</v>
+      </c>
+      <c r="JL45" t="n">
+        <v>214</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -38037,8 +38172,11 @@
       <c r="JJ46" s="2" t="n">
         <v>315</v>
       </c>
-      <c r="JK46" t="n">
+      <c r="JK46" s="2" t="n">
         <v>281</v>
+      </c>
+      <c r="JL46" t="n">
+        <v>279</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -38854,8 +38992,11 @@
       <c r="JJ47" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="JK47" t="n">
+      <c r="JK47" s="2" t="n">
         <v>73.8</v>
+      </c>
+      <c r="JL47" t="n">
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -39671,8 +39812,11 @@
       <c r="JJ48" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="JK48" t="n">
+      <c r="JK48" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JL48" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -40488,8 +40632,11 @@
       <c r="JJ49" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JK49" t="n">
+      <c r="JK49" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JL49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -41305,8 +41452,11 @@
       <c r="JJ50" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JK50" t="n">
+      <c r="JK50" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JL50" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -42122,8 +42272,11 @@
       <c r="JJ51" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="JK51" t="n">
+      <c r="JK51" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="JL51" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -42939,8 +43092,11 @@
       <c r="JJ52" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JK52" t="n">
+      <c r="JK52" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JL52" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -43756,8 +43912,11 @@
       <c r="JJ53" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JK53" t="n">
+      <c r="JK53" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="JL53" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -44573,8 +44732,11 @@
       <c r="JJ54" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JK54" t="n">
+      <c r="JK54" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JL54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -45390,8 +45552,11 @@
       <c r="JJ55" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JK55" t="n">
+      <c r="JK55" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JL55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -46207,8 +46372,11 @@
       <c r="JJ56" s="2" t="n">
         <v>72.7</v>
       </c>
-      <c r="JK56" t="n">
+      <c r="JK56" s="2" t="n">
         <v>90.90000000000001</v>
+      </c>
+      <c r="JL56" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -47024,8 +47192,11 @@
       <c r="JJ57" s="2" t="n">
         <v>242</v>
       </c>
-      <c r="JK57" t="n">
+      <c r="JK57" s="2" t="n">
         <v>235</v>
+      </c>
+      <c r="JL57" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -47841,8 +48012,11 @@
       <c r="JJ58" s="2" t="n">
         <v>162</v>
       </c>
-      <c r="JK58" t="n">
+      <c r="JK58" s="2" t="n">
         <v>158</v>
+      </c>
+      <c r="JL58" t="n">
+        <v>159</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -48658,8 +48832,11 @@
       <c r="JJ59" s="2" t="n">
         <v>404</v>
       </c>
-      <c r="JK59" t="n">
+      <c r="JK59" s="2" t="n">
         <v>393</v>
+      </c>
+      <c r="JL59" t="n">
+        <v>365</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -49475,8 +49652,11 @@
       <c r="JJ60" s="2" t="n">
         <v>1.49</v>
       </c>
-      <c r="JK60" t="n">
+      <c r="JK60" s="2" t="n">
         <v>1.49</v>
+      </c>
+      <c r="JL60" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -50292,8 +50472,11 @@
       <c r="JJ61" s="2" t="n">
         <v>119</v>
       </c>
-      <c r="JK61" t="n">
+      <c r="JK61" s="2" t="n">
         <v>111</v>
+      </c>
+      <c r="JL61" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -51109,8 +51292,11 @@
       <c r="JJ62" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JK62" t="n">
+      <c r="JK62" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="JL62" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -51926,8 +52112,11 @@
       <c r="JJ63" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="JK63" t="n">
+      <c r="JK63" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="JL63" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -52743,8 +52932,11 @@
       <c r="JJ64" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JK64" t="n">
+      <c r="JK64" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JL64" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -53560,8 +53752,11 @@
       <c r="JJ65" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JK65" t="n">
+      <c r="JK65" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JL65" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -54377,7 +54572,10 @@
       <c r="JJ66" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JK66" t="n">
+      <c r="JK66" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JL66" t="n">
         <v>11</v>
       </c>
     </row>
@@ -55194,8 +55392,11 @@
       <c r="JJ67" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JK67" t="n">
+      <c r="JK67" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JL67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -56011,8 +56212,11 @@
       <c r="JJ68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JK68" t="n">
+      <c r="JK68" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JL68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -56828,7 +57032,10 @@
       <c r="JJ69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JK69" t="n">
+      <c r="JK69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -57645,8 +57852,11 @@
       <c r="JJ70" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JK70" t="n">
+      <c r="JK70" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JL70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -58462,8 +58672,11 @@
       <c r="JJ71" s="2" t="n">
         <v>63.6</v>
       </c>
-      <c r="JK71" t="n">
+      <c r="JK71" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JL71" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -59279,8 +59492,11 @@
       <c r="JJ72" s="2" t="n">
         <v>28.86</v>
       </c>
-      <c r="JK72" t="n">
+      <c r="JK72" s="2" t="n">
         <v>35.73</v>
+      </c>
+      <c r="JL72" t="n">
+        <v>33.18</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -60096,8 +60312,11 @@
       <c r="JJ73" s="2" t="n">
         <v>18.36</v>
       </c>
-      <c r="JK73" t="n">
+      <c r="JK73" s="2" t="n">
         <v>19.65</v>
+      </c>
+      <c r="JL73" t="n">
+        <v>16.59</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -60913,8 +61132,11 @@
       <c r="JJ74" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="JK74" t="n">
+      <c r="JK74" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="JL74" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -61730,8 +61952,11 @@
       <c r="JJ75" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="JK75" t="n">
+      <c r="JK75" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="JL75" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -62547,8 +62772,11 @@
       <c r="JJ76" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JK76" t="n">
+      <c r="JK76" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JL76" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -63364,8 +63592,11 @@
       <c r="JJ77" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="JK77" t="n">
+      <c r="JK77" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JL77" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -64181,7 +64412,10 @@
       <c r="JJ78" s="2" t="n">
         <v>2.36</v>
       </c>
-      <c r="JK78" t="n">
+      <c r="JK78" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="JL78" t="n">
         <v>2.5</v>
       </c>
     </row>
@@ -64998,8 +65232,11 @@
       <c r="JJ79" s="2" t="n">
         <v>3.71</v>
       </c>
-      <c r="JK79" t="n">
+      <c r="JK79" s="2" t="n">
         <v>4.55</v>
+      </c>
+      <c r="JL79" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -65815,8 +66052,11 @@
       <c r="JJ80" s="2" t="n">
         <v>40.4</v>
       </c>
-      <c r="JK80" t="n">
+      <c r="JK80" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JL80" t="n">
+        <v>38.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -66632,8 +66872,11 @@
       <c r="JJ81" s="2" t="n">
         <v>26.9</v>
       </c>
-      <c r="JK81" t="n">
+      <c r="JK81" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JL81" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -67449,8 +67692,11 @@
       <c r="JJ82" s="2" t="n">
         <v>187.7</v>
       </c>
-      <c r="JK82" t="n">
+      <c r="JK82" s="2" t="n">
         <v>188.6</v>
+      </c>
+      <c r="JL82" t="n">
+        <v>185.9</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -68266,8 +68512,11 @@
       <c r="JJ83" s="2" t="n">
         <v>85.3</v>
       </c>
-      <c r="JK83" t="n">
+      <c r="JK83" s="2" t="n">
         <v>87.7</v>
+      </c>
+      <c r="JL83" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -69083,7 +69332,10 @@
       <c r="JJ84" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="JK84" t="n">
+      <c r="JK84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="JL84" t="n">
         <v>25.66</v>
       </c>
     </row>
@@ -69900,8 +70152,11 @@
       <c r="JJ85" s="2" t="n">
         <v>84.7</v>
       </c>
-      <c r="JK85" t="n">
+      <c r="JK85" s="2" t="n">
         <v>93.8</v>
+      </c>
+      <c r="JL85" t="n">
+        <v>112.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -70717,8 +70972,11 @@
       <c r="JJ86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JK86" t="n">
+      <c r="JK86" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JL86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -71534,8 +71792,11 @@
       <c r="JJ87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JK87" t="n">
+      <c r="JK87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JL87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -72351,8 +72612,11 @@
       <c r="JJ88" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JK88" t="n">
+      <c r="JK88" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JL88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -73168,8 +73432,11 @@
       <c r="JJ89" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JK89" t="n">
+      <c r="JK89" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JL89" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -73985,8 +74252,11 @@
       <c r="JJ90" s="2" t="n">
         <v>139</v>
       </c>
-      <c r="JK90" t="n">
+      <c r="JK90" s="2" t="n">
         <v>129</v>
+      </c>
+      <c r="JL90" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -74802,8 +75072,11 @@
       <c r="JJ91" s="2" t="n">
         <v>253</v>
       </c>
-      <c r="JK91" t="n">
+      <c r="JK91" s="2" t="n">
         <v>247</v>
+      </c>
+      <c r="JL91" t="n">
+        <v>209</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -75619,8 +75892,11 @@
       <c r="JJ92" s="2" t="n">
         <v>292</v>
       </c>
-      <c r="JK92" t="n">
+      <c r="JK92" s="2" t="n">
         <v>293</v>
+      </c>
+      <c r="JL92" t="n">
+        <v>265</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -76436,8 +76712,11 @@
       <c r="JJ93" s="2" t="n">
         <v>72.3</v>
       </c>
-      <c r="JK93" t="n">
+      <c r="JK93" s="2" t="n">
         <v>74.59999999999999</v>
+      </c>
+      <c r="JL93" t="n">
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -77253,8 +77532,11 @@
       <c r="JJ94" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="JK94" t="n">
+      <c r="JK94" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="JL94" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -78070,8 +78352,11 @@
       <c r="JJ95" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JK95" t="n">
+      <c r="JK95" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JL95" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -78887,8 +79172,11 @@
       <c r="JJ96" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JK96" t="n">
+      <c r="JK96" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JL96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -79704,8 +79992,11 @@
       <c r="JJ97" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="JK97" t="n">
+      <c r="JK97" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="JL97" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -80521,8 +80812,11 @@
       <c r="JJ98" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JK98" t="n">
+      <c r="JK98" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JL98" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -81338,8 +81632,11 @@
       <c r="JJ99" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JK99" t="n">
+      <c r="JK99" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="JL99" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -82155,7 +82452,10 @@
       <c r="JJ100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JK100" t="n">
+      <c r="JK100" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JL100" t="n">
         <v>7</v>
       </c>
     </row>
@@ -82972,8 +83272,11 @@
       <c r="JJ101" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JK101" t="n">
+      <c r="JK101" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JL101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -83789,8 +84092,11 @@
       <c r="JJ102" s="2" t="n">
         <v>78.59999999999999</v>
       </c>
-      <c r="JK102" t="n">
+      <c r="JK102" s="2" t="n">
         <v>81.8</v>
+      </c>
+      <c r="JL102" t="n">
+        <v>54.5</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Essendon_stats.xlsx
+++ b/AFL_ML/Data/Essendon_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JL102"/>
+  <dimension ref="A1:JO102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="II102" activeCellId="0" sqref="II102"/>
@@ -1275,8 +1275,17 @@
       <c r="JK1" s="2" t="n">
         <v>10784</v>
       </c>
-      <c r="JL1" t="n">
+      <c r="JL1" s="2" t="n">
         <v>10791</v>
+      </c>
+      <c r="JM1" s="2" t="n">
+        <v>10804</v>
+      </c>
+      <c r="JN1" s="2" t="n">
+        <v>10804</v>
+      </c>
+      <c r="JO1" t="n">
+        <v>10804</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2095,7 +2104,16 @@
       <c r="JK2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="JL2" t="n">
+      <c r="JL2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JM2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JN2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JO2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2915,8 +2933,17 @@
       <c r="JK3" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JL3" t="n">
+      <c r="JL3" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JM3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JN3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3735,8 +3762,17 @@
       <c r="JK4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JL4" t="n">
+      <c r="JL4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JM4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4555,7 +4591,16 @@
       <c r="JK5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JL5" t="n">
+      <c r="JL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5375,8 +5420,17 @@
       <c r="JK6" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="JL6" t="n">
+      <c r="JL6" s="2" t="n">
         <v>104</v>
+      </c>
+      <c r="JM6" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="JN6" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="JO6" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6195,8 +6249,17 @@
       <c r="JK7" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="JL7" t="n">
+      <c r="JL7" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="JM7" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="JN7" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="JO7" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7015,8 +7078,17 @@
       <c r="JK8" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JL8" t="n">
+      <c r="JL8" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="JM8" s="2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="JN8" s="2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="JO8" t="n">
+        <v>-13</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7835,8 +7907,17 @@
       <c r="JK9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JL9" t="n">
+      <c r="JL9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -8655,8 +8736,17 @@
       <c r="JK10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JL10" t="n">
+      <c r="JL10" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JM10" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JN10" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JO10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9475,8 +9565,17 @@
       <c r="JK11" s="2" t="n">
         <v>223</v>
       </c>
-      <c r="JL11" t="n">
+      <c r="JL11" s="2" t="n">
         <v>225</v>
+      </c>
+      <c r="JM11" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="JN11" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="JO11" t="n">
+        <v>176</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -10295,8 +10394,17 @@
       <c r="JK12" s="2" t="n">
         <v>158</v>
       </c>
-      <c r="JL12" t="n">
+      <c r="JL12" s="2" t="n">
         <v>155</v>
+      </c>
+      <c r="JM12" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="JN12" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="JO12" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11115,8 +11223,17 @@
       <c r="JK13" s="2" t="n">
         <v>381</v>
       </c>
-      <c r="JL13" t="n">
+      <c r="JL13" s="2" t="n">
         <v>380</v>
+      </c>
+      <c r="JM13" s="2" t="n">
+        <v>326</v>
+      </c>
+      <c r="JN13" s="2" t="n">
+        <v>326</v>
+      </c>
+      <c r="JO13" t="n">
+        <v>326</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -11935,8 +12052,17 @@
       <c r="JK14" s="2" t="n">
         <v>1.41</v>
       </c>
-      <c r="JL14" t="n">
+      <c r="JL14" s="2" t="n">
         <v>1.45</v>
+      </c>
+      <c r="JM14" s="2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="JN14" s="2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="JO14" t="n">
+        <v>1.17</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -12755,8 +12881,17 @@
       <c r="JK15" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="JL15" t="n">
+      <c r="JL15" s="2" t="n">
         <v>89</v>
+      </c>
+      <c r="JM15" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="JN15" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="JO15" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -13575,8 +13710,17 @@
       <c r="JK16" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JL16" t="n">
+      <c r="JL16" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="JM16" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JN16" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JO16" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -14395,8 +14539,17 @@
       <c r="JK17" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JL17" t="n">
+      <c r="JL17" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JM17" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JN17" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JO17" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -15215,7 +15368,16 @@
       <c r="JK18" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JL18" t="n">
+      <c r="JL18" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JM18" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JN18" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JO18" t="n">
         <v>19</v>
       </c>
     </row>
@@ -16035,8 +16197,17 @@
       <c r="JK19" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JL19" t="n">
+      <c r="JL19" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="JM19" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JN19" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JO19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -16855,8 +17026,17 @@
       <c r="JK20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JL20" t="n">
+      <c r="JL20" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JM20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JN20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JO20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -17675,8 +17855,17 @@
       <c r="JK21" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JL21" t="n">
+      <c r="JL21" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JM21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JN21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JO21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -18495,8 +18684,17 @@
       <c r="JK22" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JL22" t="n">
+      <c r="JL22" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JM22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JN22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JO22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -19315,8 +19513,17 @@
       <c r="JK23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JL23" t="n">
+      <c r="JL23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JM23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -20135,8 +20342,17 @@
       <c r="JK24" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JL24" t="n">
+      <c r="JL24" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="JM24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JN24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JO24" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -20955,8 +21171,17 @@
       <c r="JK25" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="JL25" t="n">
+      <c r="JL25" s="2" t="n">
         <v>51.7</v>
+      </c>
+      <c r="JM25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JN25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JO25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -21775,8 +22000,17 @@
       <c r="JK26" s="2" t="n">
         <v>34.64</v>
       </c>
-      <c r="JL26" t="n">
+      <c r="JL26" s="2" t="n">
         <v>25.33</v>
+      </c>
+      <c r="JM26" s="2" t="n">
+        <v>29.64</v>
+      </c>
+      <c r="JN26" s="2" t="n">
+        <v>29.64</v>
+      </c>
+      <c r="JO26" t="n">
+        <v>29.64</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -22595,8 +22829,17 @@
       <c r="JK27" s="2" t="n">
         <v>11.55</v>
       </c>
-      <c r="JL27" t="n">
+      <c r="JL27" s="2" t="n">
         <v>13.1</v>
+      </c>
+      <c r="JM27" s="2" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="JN27" s="2" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="JO27" t="n">
+        <v>14.82</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -23415,8 +23658,17 @@
       <c r="JK28" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="JL28" t="n">
+      <c r="JL28" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JM28" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JN28" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JO28" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -24235,8 +24487,17 @@
       <c r="JK29" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JL29" t="n">
+      <c r="JL29" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="JM29" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JN29" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JO29" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -25055,8 +25316,17 @@
       <c r="JK30" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JL30" t="n">
+      <c r="JL30" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JM30" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JN30" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JO30" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -25875,8 +26145,17 @@
       <c r="JK31" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="JL31" t="n">
+      <c r="JL31" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="JM31" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JN31" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JO31" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -26695,8 +26974,17 @@
       <c r="JK32" s="2" t="n">
         <v>1.85</v>
       </c>
-      <c r="JL32" t="n">
+      <c r="JL32" s="2" t="n">
         <v>1.97</v>
+      </c>
+      <c r="JM32" s="2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="JN32" s="2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="JO32" t="n">
+        <v>2.05</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -27515,8 +27803,17 @@
       <c r="JK33" s="2" t="n">
         <v>5.55</v>
       </c>
-      <c r="JL33" t="n">
+      <c r="JL33" s="2" t="n">
         <v>3.8</v>
+      </c>
+      <c r="JM33" s="2" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="JN33" s="2" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="JO33" t="n">
+        <v>4.09</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -28335,8 +28632,17 @@
       <c r="JK34" s="2" t="n">
         <v>49.2</v>
       </c>
-      <c r="JL34" t="n">
+      <c r="JL34" s="2" t="n">
         <v>45.6</v>
+      </c>
+      <c r="JM34" s="2" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="JN34" s="2" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="JO34" t="n">
+        <v>46.7</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -29155,8 +29461,17 @@
       <c r="JK35" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JL35" t="n">
+      <c r="JL35" s="2" t="n">
         <v>26.3</v>
+      </c>
+      <c r="JM35" s="2" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="JN35" s="2" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="JO35" t="n">
+        <v>24.4</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -29975,8 +30290,17 @@
       <c r="JK36" s="2" t="n">
         <v>189.3</v>
       </c>
-      <c r="JL36" t="n">
+      <c r="JL36" s="2" t="n">
         <v>188.3</v>
+      </c>
+      <c r="JM36" s="2" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="JN36" s="2" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="JO36" t="n">
+        <v>188.5</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -30795,8 +31119,17 @@
       <c r="JK37" s="2" t="n">
         <v>87.5</v>
       </c>
-      <c r="JL37" t="n">
+      <c r="JL37" s="2" t="n">
         <v>86.7</v>
+      </c>
+      <c r="JM37" s="2" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="JN37" s="2" t="n">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="JO37" t="n">
+        <v>86.90000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -31615,8 +31948,17 @@
       <c r="JK38" s="2" t="n">
         <v>25.24</v>
       </c>
-      <c r="JL38" t="n">
+      <c r="JL38" s="2" t="n">
         <v>25.66</v>
+      </c>
+      <c r="JM38" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="JN38" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="JO38" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -32435,8 +32777,17 @@
       <c r="JK39" s="2" t="n">
         <v>85.8</v>
       </c>
-      <c r="JL39" t="n">
+      <c r="JL39" s="2" t="n">
         <v>89</v>
+      </c>
+      <c r="JM39" s="2" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="JN39" s="2" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="JO39" t="n">
+        <v>81.09999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -33255,8 +33606,17 @@
       <c r="JK40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JL40" t="n">
+      <c r="JL40" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JM40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JN40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JO40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -34075,7 +34435,16 @@
       <c r="JK41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JL41" t="n">
+      <c r="JL41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JM41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JN41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JO41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -34895,7 +35264,16 @@
       <c r="JK42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JL42" t="n">
+      <c r="JL42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JN42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JO42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35715,8 +36093,17 @@
       <c r="JK43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JL43" t="n">
+      <c r="JL43" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JM43" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JN43" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JO43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -36535,8 +36922,17 @@
       <c r="JK44" s="2" t="n">
         <v>148</v>
       </c>
-      <c r="JL44" t="n">
+      <c r="JL44" s="2" t="n">
         <v>157</v>
+      </c>
+      <c r="JM44" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="JN44" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="JO44" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -37355,8 +37751,17 @@
       <c r="JK45" s="2" t="n">
         <v>231</v>
       </c>
-      <c r="JL45" t="n">
+      <c r="JL45" s="2" t="n">
         <v>214</v>
+      </c>
+      <c r="JM45" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="JN45" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="JO45" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -38175,8 +38580,17 @@
       <c r="JK46" s="2" t="n">
         <v>281</v>
       </c>
-      <c r="JL46" t="n">
+      <c r="JL46" s="2" t="n">
         <v>279</v>
+      </c>
+      <c r="JM46" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="JN46" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="JO46" t="n">
+        <v>246</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -38995,8 +39409,17 @@
       <c r="JK47" s="2" t="n">
         <v>73.8</v>
       </c>
-      <c r="JL47" t="n">
+      <c r="JL47" s="2" t="n">
         <v>73.40000000000001</v>
+      </c>
+      <c r="JM47" s="2" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="JN47" s="2" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="JO47" t="n">
+        <v>75.5</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -39815,8 +40238,17 @@
       <c r="JK48" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JL48" t="n">
+      <c r="JL48" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="JM48" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JN48" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JO48" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -40635,8 +41067,17 @@
       <c r="JK49" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JL49" t="n">
+      <c r="JL49" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JM49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JN49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JO49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -41455,8 +41896,17 @@
       <c r="JK50" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JL50" t="n">
+      <c r="JL50" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JM50" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JN50" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JO50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -42275,8 +42725,17 @@
       <c r="JK51" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="JL51" t="n">
+      <c r="JL51" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JM51" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JN51" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JO51" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -43095,8 +43554,17 @@
       <c r="JK52" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JL52" t="n">
+      <c r="JL52" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JM52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JN52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JO52" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -43915,8 +44383,17 @@
       <c r="JK53" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="JL53" t="n">
+      <c r="JL53" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="JM53" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JN53" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JO53" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -44735,8 +45212,17 @@
       <c r="JK54" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JL54" t="n">
+      <c r="JL54" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JM54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JN54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JO54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -45555,8 +46041,17 @@
       <c r="JK55" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JL55" t="n">
+      <c r="JL55" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JM55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JN55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JO55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -46375,8 +46870,17 @@
       <c r="JK56" s="2" t="n">
         <v>90.90000000000001</v>
       </c>
-      <c r="JL56" t="n">
+      <c r="JL56" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="JM56" s="2" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="JN56" s="2" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="JO56" t="n">
+        <v>72.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -47195,8 +47699,17 @@
       <c r="JK57" s="2" t="n">
         <v>235</v>
       </c>
-      <c r="JL57" t="n">
+      <c r="JL57" s="2" t="n">
         <v>206</v>
+      </c>
+      <c r="JM57" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="JN57" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="JO57" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -48015,8 +48528,17 @@
       <c r="JK58" s="2" t="n">
         <v>158</v>
       </c>
-      <c r="JL58" t="n">
+      <c r="JL58" s="2" t="n">
         <v>159</v>
+      </c>
+      <c r="JM58" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="JN58" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="JO58" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -48835,8 +49357,17 @@
       <c r="JK59" s="2" t="n">
         <v>393</v>
       </c>
-      <c r="JL59" t="n">
+      <c r="JL59" s="2" t="n">
         <v>365</v>
+      </c>
+      <c r="JM59" s="2" t="n">
+        <v>393</v>
+      </c>
+      <c r="JN59" s="2" t="n">
+        <v>393</v>
+      </c>
+      <c r="JO59" t="n">
+        <v>393</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -49655,8 +50186,17 @@
       <c r="JK60" s="2" t="n">
         <v>1.49</v>
       </c>
-      <c r="JL60" t="n">
+      <c r="JL60" s="2" t="n">
         <v>1.3</v>
+      </c>
+      <c r="JM60" s="2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="JN60" s="2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="JO60" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -50475,8 +51015,17 @@
       <c r="JK61" s="2" t="n">
         <v>111</v>
       </c>
-      <c r="JL61" t="n">
+      <c r="JL61" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="JM61" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="JN61" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="JO61" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -51295,8 +51844,17 @@
       <c r="JK62" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="JL62" t="n">
+      <c r="JL62" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JM62" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JN62" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JO62" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -52115,8 +52673,17 @@
       <c r="JK63" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="JL63" t="n">
+      <c r="JL63" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="JM63" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="JN63" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="JO63" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -52935,8 +53502,17 @@
       <c r="JK64" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JL64" t="n">
+      <c r="JL64" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="JM64" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JN64" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JO64" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -53755,7 +54331,16 @@
       <c r="JK65" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JL65" t="n">
+      <c r="JL65" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JM65" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JN65" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JO65" t="n">
         <v>19</v>
       </c>
     </row>
@@ -54575,8 +55160,17 @@
       <c r="JK66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JL66" t="n">
+      <c r="JL66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JM66" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JN66" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JO66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -55395,8 +55989,17 @@
       <c r="JK67" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JL67" t="n">
+      <c r="JL67" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JM67" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JN67" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JO67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -56215,8 +56818,17 @@
       <c r="JK68" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JL68" t="n">
+      <c r="JL68" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JM68" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JN68" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JO68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -57035,8 +57647,17 @@
       <c r="JK69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JL69" t="n">
+      <c r="JL69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JM69" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JN69" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JO69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -57855,8 +58476,17 @@
       <c r="JK70" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JL70" t="n">
+      <c r="JL70" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JM70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JN70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JO70" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -58675,8 +59305,17 @@
       <c r="JK71" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JL71" t="n">
+      <c r="JL71" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JM71" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JN71" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JO71" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -59495,8 +60134,17 @@
       <c r="JK72" s="2" t="n">
         <v>35.73</v>
       </c>
-      <c r="JL72" t="n">
+      <c r="JL72" s="2" t="n">
         <v>33.18</v>
+      </c>
+      <c r="JM72" s="2" t="n">
+        <v>30.23</v>
+      </c>
+      <c r="JN72" s="2" t="n">
+        <v>30.23</v>
+      </c>
+      <c r="JO72" t="n">
+        <v>30.23</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -60315,8 +60963,17 @@
       <c r="JK73" s="2" t="n">
         <v>19.65</v>
       </c>
-      <c r="JL73" t="n">
+      <c r="JL73" s="2" t="n">
         <v>16.59</v>
+      </c>
+      <c r="JM73" s="2" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="JN73" s="2" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="JO73" t="n">
+        <v>15.72</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -61135,8 +61792,17 @@
       <c r="JK74" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="JL74" t="n">
+      <c r="JL74" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JM74" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JN74" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JO74" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -61955,8 +62621,17 @@
       <c r="JK75" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="JL75" t="n">
+      <c r="JL75" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="JM75" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JN75" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JO75" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -62775,8 +63450,17 @@
       <c r="JK76" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JL76" t="n">
+      <c r="JL76" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JM76" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JN76" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JO76" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -63595,8 +64279,17 @@
       <c r="JK77" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JL77" t="n">
+      <c r="JL77" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JM77" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="JN77" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="JO77" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -64415,8 +65108,17 @@
       <c r="JK78" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="JL78" t="n">
+      <c r="JL78" s="2" t="n">
         <v>2.5</v>
+      </c>
+      <c r="JM78" s="2" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="JN78" s="2" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="JO78" t="n">
+        <v>2.56</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -65235,8 +65937,17 @@
       <c r="JK79" s="2" t="n">
         <v>4.55</v>
       </c>
-      <c r="JL79" t="n">
+      <c r="JL79" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JM79" s="2" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="JN79" s="2" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="JO79" t="n">
+        <v>4.92</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -66055,8 +66766,17 @@
       <c r="JK80" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JL80" t="n">
+      <c r="JL80" s="2" t="n">
         <v>38.2</v>
+      </c>
+      <c r="JM80" s="2" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="JN80" s="2" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="JO80" t="n">
+        <v>32.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -66875,8 +67595,17 @@
       <c r="JK81" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JL81" t="n">
+      <c r="JL81" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JM81" s="2" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="JN81" s="2" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="JO81" t="n">
+        <v>20.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -67695,8 +68424,17 @@
       <c r="JK82" s="2" t="n">
         <v>188.6</v>
       </c>
-      <c r="JL82" t="n">
+      <c r="JL82" s="2" t="n">
         <v>185.9</v>
+      </c>
+      <c r="JM82" s="2" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="JN82" s="2" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="JO82" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -68515,8 +69253,17 @@
       <c r="JK83" s="2" t="n">
         <v>87.7</v>
       </c>
-      <c r="JL83" t="n">
+      <c r="JL83" s="2" t="n">
         <v>86.3</v>
+      </c>
+      <c r="JM83" s="2" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="JN83" s="2" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="JO83" t="n">
+        <v>86.5</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -69335,8 +70082,17 @@
       <c r="JK84" s="2" t="n">
         <v>25.66</v>
       </c>
-      <c r="JL84" t="n">
+      <c r="JL84" s="2" t="n">
         <v>25.66</v>
+      </c>
+      <c r="JM84" s="2" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="JN84" s="2" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="JO84" t="n">
+        <v>26.33</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -70155,8 +70911,17 @@
       <c r="JK85" s="2" t="n">
         <v>93.8</v>
       </c>
-      <c r="JL85" t="n">
+      <c r="JL85" s="2" t="n">
         <v>112.2</v>
+      </c>
+      <c r="JM85" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="JN85" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="JO85" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -70975,8 +71740,17 @@
       <c r="JK86" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JL86" t="n">
+      <c r="JL86" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JM86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JN86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JO86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -71795,8 +72569,17 @@
       <c r="JK87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JL87" t="n">
+      <c r="JL87" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JM87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JN87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JO87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -72615,8 +73398,17 @@
       <c r="JK88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JL88" t="n">
+      <c r="JL88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JM88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JN88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JO88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -73435,8 +74227,17 @@
       <c r="JK89" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JL89" t="n">
+      <c r="JL89" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JM89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JN89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JO89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -74255,8 +75056,17 @@
       <c r="JK90" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="JL90" t="n">
+      <c r="JL90" s="2" t="n">
         <v>152</v>
+      </c>
+      <c r="JM90" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="JN90" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="JO90" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -75075,8 +75885,17 @@
       <c r="JK91" s="2" t="n">
         <v>247</v>
       </c>
-      <c r="JL91" t="n">
+      <c r="JL91" s="2" t="n">
         <v>209</v>
+      </c>
+      <c r="JM91" s="2" t="n">
+        <v>257</v>
+      </c>
+      <c r="JN91" s="2" t="n">
+        <v>257</v>
+      </c>
+      <c r="JO91" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -75895,8 +76714,17 @@
       <c r="JK92" s="2" t="n">
         <v>293</v>
       </c>
-      <c r="JL92" t="n">
+      <c r="JL92" s="2" t="n">
         <v>265</v>
+      </c>
+      <c r="JM92" s="2" t="n">
+        <v>309</v>
+      </c>
+      <c r="JN92" s="2" t="n">
+        <v>309</v>
+      </c>
+      <c r="JO92" t="n">
+        <v>309</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -76715,8 +77543,17 @@
       <c r="JK93" s="2" t="n">
         <v>74.59999999999999</v>
       </c>
-      <c r="JL93" t="n">
+      <c r="JL93" s="2" t="n">
         <v>72.59999999999999</v>
+      </c>
+      <c r="JM93" s="2" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="JN93" s="2" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="JO93" t="n">
+        <v>78.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -77535,8 +78372,17 @@
       <c r="JK94" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="JL94" t="n">
+      <c r="JL94" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="JM94" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JN94" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JO94" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -78355,8 +79201,17 @@
       <c r="JK95" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JL95" t="n">
+      <c r="JL95" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JM95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JN95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JO95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -79175,8 +80030,17 @@
       <c r="JK96" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JL96" t="n">
+      <c r="JL96" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JM96" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JN96" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JO96" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -79995,8 +80859,17 @@
       <c r="JK97" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="JL97" t="n">
+      <c r="JL97" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JM97" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JN97" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JO97" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -80815,8 +81688,17 @@
       <c r="JK98" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JL98" t="n">
+      <c r="JL98" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JM98" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JN98" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="JO98" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -81635,8 +82517,17 @@
       <c r="JK99" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="JL99" t="n">
+      <c r="JL99" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JM99" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JN99" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JO99" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -82455,8 +83346,17 @@
       <c r="JK100" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JL100" t="n">
+      <c r="JL100" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JM100" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JN100" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JO100" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -83275,8 +84175,17 @@
       <c r="JK101" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JL101" t="n">
+      <c r="JL101" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JM101" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JN101" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JO101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -84095,8 +85004,17 @@
       <c r="JK102" s="2" t="n">
         <v>81.8</v>
       </c>
-      <c r="JL102" t="n">
+      <c r="JL102" s="2" t="n">
         <v>54.5</v>
+      </c>
+      <c r="JM102" s="2" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="JN102" s="2" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="JO102" t="n">
+        <v>76.90000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Essendon_stats.xlsx
+++ b/AFL_ML/Data/Essendon_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JV102"/>
+  <dimension ref="A1:JW102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="II102" activeCellId="0" sqref="II102"/>
@@ -1305,8 +1305,11 @@
       <c r="JU1" s="2" t="n">
         <v>10804</v>
       </c>
-      <c r="JV1" t="n">
+      <c r="JV1" s="2" t="n">
         <v>10804</v>
+      </c>
+      <c r="JW1" t="n">
+        <v>10811</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2155,7 +2158,10 @@
       <c r="JU2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="JV2" t="n">
+      <c r="JV2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JW2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3005,8 +3011,11 @@
       <c r="JU3" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JV3" t="n">
+      <c r="JV3" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3855,8 +3864,11 @@
       <c r="JU4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JV4" t="n">
+      <c r="JV4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4705,8 +4717,11 @@
       <c r="JU5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JV5" t="n">
+      <c r="JV5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JW5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5555,8 +5570,11 @@
       <c r="JU6" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="JV6" t="n">
+      <c r="JV6" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="JW6" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6405,8 +6423,11 @@
       <c r="JU7" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="JV7" t="n">
+      <c r="JV7" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="JW7" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7255,8 +7276,11 @@
       <c r="JU8" s="2" t="n">
         <v>-13</v>
       </c>
-      <c r="JV8" t="n">
+      <c r="JV8" s="2" t="n">
         <v>-13</v>
+      </c>
+      <c r="JW8" t="n">
+        <v>-28</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8105,7 +8129,10 @@
       <c r="JU9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JV9" t="n">
+      <c r="JV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8955,8 +8982,11 @@
       <c r="JU10" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JV10" t="n">
+      <c r="JV10" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JW10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9805,8 +9835,11 @@
       <c r="JU11" s="2" t="n">
         <v>176</v>
       </c>
-      <c r="JV11" t="n">
+      <c r="JV11" s="2" t="n">
         <v>176</v>
+      </c>
+      <c r="JW11" t="n">
+        <v>196</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -10655,8 +10688,11 @@
       <c r="JU12" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="JV12" t="n">
+      <c r="JV12" s="2" t="n">
         <v>150</v>
+      </c>
+      <c r="JW12" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11505,8 +11541,11 @@
       <c r="JU13" s="2" t="n">
         <v>326</v>
       </c>
-      <c r="JV13" t="n">
+      <c r="JV13" s="2" t="n">
         <v>326</v>
+      </c>
+      <c r="JW13" t="n">
+        <v>362</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12355,8 +12394,11 @@
       <c r="JU14" s="2" t="n">
         <v>1.17</v>
       </c>
-      <c r="JV14" t="n">
+      <c r="JV14" s="2" t="n">
         <v>1.17</v>
+      </c>
+      <c r="JW14" t="n">
+        <v>1.18</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13205,8 +13247,11 @@
       <c r="JU15" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="JV15" t="n">
+      <c r="JV15" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="JW15" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14055,8 +14100,11 @@
       <c r="JU16" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="JV16" t="n">
+      <c r="JV16" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="JW16" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -14905,8 +14953,11 @@
       <c r="JU17" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JV17" t="n">
+      <c r="JV17" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JW17" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -15755,8 +15806,11 @@
       <c r="JU18" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JV18" t="n">
+      <c r="JV18" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="JW18" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -16605,8 +16659,11 @@
       <c r="JU19" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JV19" t="n">
+      <c r="JV19" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JW19" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -17455,8 +17512,11 @@
       <c r="JU20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JV20" t="n">
+      <c r="JV20" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JW20" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -18305,8 +18365,11 @@
       <c r="JU21" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JV21" t="n">
+      <c r="JV21" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JW21" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -19155,8 +19218,11 @@
       <c r="JU22" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JV22" t="n">
+      <c r="JV22" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JW22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -20005,8 +20071,11 @@
       <c r="JU23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JV23" t="n">
+      <c r="JV23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JW23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -20855,8 +20924,11 @@
       <c r="JU24" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JV24" t="n">
+      <c r="JV24" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JW24" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -21705,8 +21777,11 @@
       <c r="JU25" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JV25" t="n">
+      <c r="JV25" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JW25" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -22555,8 +22630,11 @@
       <c r="JU26" s="2" t="n">
         <v>29.64</v>
       </c>
-      <c r="JV26" t="n">
+      <c r="JV26" s="2" t="n">
         <v>29.64</v>
+      </c>
+      <c r="JW26" t="n">
+        <v>22.62</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -23405,8 +23483,11 @@
       <c r="JU27" s="2" t="n">
         <v>14.82</v>
       </c>
-      <c r="JV27" t="n">
+      <c r="JV27" s="2" t="n">
         <v>14.82</v>
+      </c>
+      <c r="JW27" t="n">
+        <v>15.08</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -24255,8 +24336,11 @@
       <c r="JU28" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JV28" t="n">
+      <c r="JV28" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JW28" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -25105,8 +25189,11 @@
       <c r="JU29" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JV29" t="n">
+      <c r="JV29" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JW29" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -25955,8 +26042,11 @@
       <c r="JU30" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JV30" t="n">
+      <c r="JV30" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JW30" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -26805,8 +26895,11 @@
       <c r="JU31" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JV31" t="n">
+      <c r="JV31" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="JW31" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -27655,8 +27748,11 @@
       <c r="JU32" s="2" t="n">
         <v>2.05</v>
       </c>
-      <c r="JV32" t="n">
+      <c r="JV32" s="2" t="n">
         <v>2.05</v>
+      </c>
+      <c r="JW32" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -28505,8 +28601,11 @@
       <c r="JU33" s="2" t="n">
         <v>4.09</v>
       </c>
-      <c r="JV33" t="n">
+      <c r="JV33" s="2" t="n">
         <v>4.09</v>
+      </c>
+      <c r="JW33" t="n">
+        <v>2.94</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -29355,8 +29454,11 @@
       <c r="JU34" s="2" t="n">
         <v>46.7</v>
       </c>
-      <c r="JV34" t="n">
+      <c r="JV34" s="2" t="n">
         <v>46.7</v>
+      </c>
+      <c r="JW34" t="n">
+        <v>46.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -30205,8 +30307,11 @@
       <c r="JU35" s="2" t="n">
         <v>24.4</v>
       </c>
-      <c r="JV35" t="n">
+      <c r="JV35" s="2" t="n">
         <v>24.4</v>
+      </c>
+      <c r="JW35" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -31055,8 +31160,11 @@
       <c r="JU36" s="2" t="n">
         <v>188.5</v>
       </c>
-      <c r="JV36" t="n">
+      <c r="JV36" s="2" t="n">
         <v>188.5</v>
+      </c>
+      <c r="JW36" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -31905,8 +32013,11 @@
       <c r="JU37" s="2" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="JV37" t="n">
+      <c r="JV37" s="2" t="n">
         <v>86.90000000000001</v>
+      </c>
+      <c r="JW37" t="n">
+        <v>86.2</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -32755,8 +32866,11 @@
       <c r="JU38" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="JV38" t="n">
+      <c r="JV38" s="2" t="n">
         <v>25.8</v>
+      </c>
+      <c r="JW38" t="n">
+        <v>25.49</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -33605,8 +33719,11 @@
       <c r="JU39" s="2" t="n">
         <v>81.09999999999999</v>
       </c>
-      <c r="JV39" t="n">
+      <c r="JV39" s="2" t="n">
         <v>81.09999999999999</v>
+      </c>
+      <c r="JW39" t="n">
+        <v>84.90000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -34455,8 +34572,11 @@
       <c r="JU40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JV40" t="n">
+      <c r="JV40" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JW40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -35305,8 +35425,11 @@
       <c r="JU41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JV41" t="n">
+      <c r="JV41" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JW41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -36155,8 +36278,11 @@
       <c r="JU42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JV42" t="n">
+      <c r="JV42" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JW42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -37005,7 +37131,10 @@
       <c r="JU43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JV43" t="n">
+      <c r="JV43" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JW43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -37855,8 +37984,11 @@
       <c r="JU44" s="2" t="n">
         <v>121</v>
       </c>
-      <c r="JV44" t="n">
+      <c r="JV44" s="2" t="n">
         <v>121</v>
+      </c>
+      <c r="JW44" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -38705,8 +38837,11 @@
       <c r="JU45" s="2" t="n">
         <v>194</v>
       </c>
-      <c r="JV45" t="n">
+      <c r="JV45" s="2" t="n">
         <v>194</v>
+      </c>
+      <c r="JW45" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -39555,8 +39690,11 @@
       <c r="JU46" s="2" t="n">
         <v>246</v>
       </c>
-      <c r="JV46" t="n">
+      <c r="JV46" s="2" t="n">
         <v>246</v>
+      </c>
+      <c r="JW46" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -40405,8 +40543,11 @@
       <c r="JU47" s="2" t="n">
         <v>75.5</v>
       </c>
-      <c r="JV47" t="n">
+      <c r="JV47" s="2" t="n">
         <v>75.5</v>
+      </c>
+      <c r="JW47" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -41255,8 +41396,11 @@
       <c r="JU48" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JV48" t="n">
+      <c r="JV48" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JW48" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -42105,8 +42249,11 @@
       <c r="JU49" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JV49" t="n">
+      <c r="JV49" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JW49" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -42955,8 +43102,11 @@
       <c r="JU50" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JV50" t="n">
+      <c r="JV50" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JW50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -43805,8 +43955,11 @@
       <c r="JU51" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JV51" t="n">
+      <c r="JV51" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JW51" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -44655,8 +44808,11 @@
       <c r="JU52" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JV52" t="n">
+      <c r="JV52" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JW52" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -45505,8 +45661,11 @@
       <c r="JU53" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JV53" t="n">
+      <c r="JV53" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JW53" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -46355,7 +46514,10 @@
       <c r="JU54" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JV54" t="n">
+      <c r="JV54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JW54" t="n">
         <v>5</v>
       </c>
     </row>
@@ -47205,8 +47367,11 @@
       <c r="JU55" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JV55" t="n">
+      <c r="JV55" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JW55" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -48055,8 +48220,11 @@
       <c r="JU56" s="2" t="n">
         <v>72.7</v>
       </c>
-      <c r="JV56" t="n">
+      <c r="JV56" s="2" t="n">
         <v>72.7</v>
+      </c>
+      <c r="JW56" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -48905,8 +49073,11 @@
       <c r="JU57" s="2" t="n">
         <v>225</v>
       </c>
-      <c r="JV57" t="n">
+      <c r="JV57" s="2" t="n">
         <v>225</v>
+      </c>
+      <c r="JW57" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -49755,8 +49926,11 @@
       <c r="JU58" s="2" t="n">
         <v>168</v>
       </c>
-      <c r="JV58" t="n">
+      <c r="JV58" s="2" t="n">
         <v>168</v>
+      </c>
+      <c r="JW58" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -50605,8 +50779,11 @@
       <c r="JU59" s="2" t="n">
         <v>393</v>
       </c>
-      <c r="JV59" t="n">
+      <c r="JV59" s="2" t="n">
         <v>393</v>
+      </c>
+      <c r="JW59" t="n">
+        <v>346</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -51455,8 +51632,11 @@
       <c r="JU60" s="2" t="n">
         <v>1.34</v>
       </c>
-      <c r="JV60" t="n">
+      <c r="JV60" s="2" t="n">
         <v>1.34</v>
+      </c>
+      <c r="JW60" t="n">
+        <v>1.66</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -52305,8 +52485,11 @@
       <c r="JU61" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="JV61" t="n">
+      <c r="JV61" s="2" t="n">
         <v>110</v>
+      </c>
+      <c r="JW61" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -53155,8 +53338,11 @@
       <c r="JU62" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JV62" t="n">
+      <c r="JV62" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="JW62" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -54005,8 +54191,11 @@
       <c r="JU63" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="JV63" t="n">
+      <c r="JV63" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="JW63" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -54855,8 +55044,11 @@
       <c r="JU64" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JV64" t="n">
+      <c r="JV64" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JW64" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -55705,8 +55897,11 @@
       <c r="JU65" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JV65" t="n">
+      <c r="JV65" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="JW65" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -56555,8 +56750,11 @@
       <c r="JU66" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JV66" t="n">
+      <c r="JV66" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JW66" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -57405,8 +57603,11 @@
       <c r="JU67" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JV67" t="n">
+      <c r="JV67" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JW67" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -58255,7 +58456,10 @@
       <c r="JU68" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JV68" t="n">
+      <c r="JV68" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JW68" t="n">
         <v>8</v>
       </c>
     </row>
@@ -59105,7 +59309,10 @@
       <c r="JU69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JV69" t="n">
+      <c r="JV69" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JW69" t="n">
         <v>4</v>
       </c>
     </row>
@@ -59955,8 +60162,11 @@
       <c r="JU70" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="JV70" t="n">
+      <c r="JV70" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="JW70" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -60805,8 +61015,11 @@
       <c r="JU71" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="JV71" t="n">
+      <c r="JV71" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="JW71" t="n">
+        <v>62.5</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -61655,8 +61868,11 @@
       <c r="JU72" s="2" t="n">
         <v>30.23</v>
       </c>
-      <c r="JV72" t="n">
+      <c r="JV72" s="2" t="n">
         <v>30.23</v>
+      </c>
+      <c r="JW72" t="n">
+        <v>17.3</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -62505,8 +62721,11 @@
       <c r="JU73" s="2" t="n">
         <v>15.72</v>
       </c>
-      <c r="JV73" t="n">
+      <c r="JV73" s="2" t="n">
         <v>15.72</v>
+      </c>
+      <c r="JW73" t="n">
+        <v>10.81</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -63355,8 +63574,11 @@
       <c r="JU74" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JV74" t="n">
+      <c r="JV74" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JW74" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -64205,8 +64427,11 @@
       <c r="JU75" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="JV75" t="n">
+      <c r="JV75" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="JW75" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -65055,8 +65280,11 @@
       <c r="JU76" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="JV76" t="n">
+      <c r="JV76" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="JW76" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -65905,7 +66133,10 @@
       <c r="JU77" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="JV77" t="n">
+      <c r="JV77" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="JW77" t="n">
         <v>64</v>
       </c>
     </row>
@@ -66755,8 +66986,11 @@
       <c r="JU78" s="2" t="n">
         <v>2.56</v>
       </c>
-      <c r="JV78" t="n">
+      <c r="JV78" s="2" t="n">
         <v>2.56</v>
+      </c>
+      <c r="JW78" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -67605,8 +67839,11 @@
       <c r="JU79" s="2" t="n">
         <v>4.92</v>
       </c>
-      <c r="JV79" t="n">
+      <c r="JV79" s="2" t="n">
         <v>4.92</v>
+      </c>
+      <c r="JW79" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -68455,8 +68692,11 @@
       <c r="JU80" s="2" t="n">
         <v>32.8</v>
       </c>
-      <c r="JV80" t="n">
+      <c r="JV80" s="2" t="n">
         <v>32.8</v>
+      </c>
+      <c r="JW80" t="n">
+        <v>43.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -69305,8 +69545,11 @@
       <c r="JU81" s="2" t="n">
         <v>20.3</v>
       </c>
-      <c r="JV81" t="n">
+      <c r="JV81" s="2" t="n">
         <v>20.3</v>
+      </c>
+      <c r="JW81" t="n">
+        <v>31.2</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -70155,8 +70398,11 @@
       <c r="JU82" s="2" t="n">
         <v>187.7</v>
       </c>
-      <c r="JV82" t="n">
+      <c r="JV82" s="2" t="n">
         <v>187.7</v>
+      </c>
+      <c r="JW82" t="n">
+        <v>189.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -71005,8 +71251,11 @@
       <c r="JU83" s="2" t="n">
         <v>86.5</v>
       </c>
-      <c r="JV83" t="n">
+      <c r="JV83" s="2" t="n">
         <v>86.5</v>
+      </c>
+      <c r="JW83" t="n">
+        <v>88.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -71855,8 +72104,11 @@
       <c r="JU84" s="2" t="n">
         <v>26.33</v>
       </c>
-      <c r="JV84" t="n">
+      <c r="JV84" s="2" t="n">
         <v>26.33</v>
+      </c>
+      <c r="JW84" t="n">
+        <v>27.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -72705,8 +72957,11 @@
       <c r="JU85" s="2" t="n">
         <v>106</v>
       </c>
-      <c r="JV85" t="n">
+      <c r="JV85" s="2" t="n">
         <v>106</v>
+      </c>
+      <c r="JW85" t="n">
+        <v>128.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -73555,8 +73810,11 @@
       <c r="JU86" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JV86" t="n">
+      <c r="JV86" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JW86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -74405,8 +74663,11 @@
       <c r="JU87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JV87" t="n">
+      <c r="JV87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JW87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -75255,8 +75516,11 @@
       <c r="JU88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JV88" t="n">
+      <c r="JV88" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JW88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -76105,8 +76369,11 @@
       <c r="JU89" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JV89" t="n">
+      <c r="JV89" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JW89" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -76955,8 +77222,11 @@
       <c r="JU90" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="JV90" t="n">
+      <c r="JV90" s="2" t="n">
         <v>142</v>
+      </c>
+      <c r="JW90" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -77805,8 +78075,11 @@
       <c r="JU91" s="2" t="n">
         <v>257</v>
       </c>
-      <c r="JV91" t="n">
+      <c r="JV91" s="2" t="n">
         <v>257</v>
+      </c>
+      <c r="JW91" t="n">
+        <v>202</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -78655,8 +78928,11 @@
       <c r="JU92" s="2" t="n">
         <v>309</v>
       </c>
-      <c r="JV92" t="n">
+      <c r="JV92" s="2" t="n">
         <v>309</v>
+      </c>
+      <c r="JW92" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -79505,8 +79781,11 @@
       <c r="JU93" s="2" t="n">
         <v>78.59999999999999</v>
       </c>
-      <c r="JV93" t="n">
+      <c r="JV93" s="2" t="n">
         <v>78.59999999999999</v>
+      </c>
+      <c r="JW93" t="n">
+        <v>72.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -80355,8 +80634,11 @@
       <c r="JU94" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="JV94" t="n">
+      <c r="JV94" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="JW94" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -81205,8 +81487,11 @@
       <c r="JU95" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JV95" t="n">
+      <c r="JV95" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JW95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -82055,8 +82340,11 @@
       <c r="JU96" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JV96" t="n">
+      <c r="JV96" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JW96" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -82905,8 +83193,11 @@
       <c r="JU97" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JV97" t="n">
+      <c r="JV97" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JW97" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -83755,8 +84046,11 @@
       <c r="JU98" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="JV98" t="n">
+      <c r="JV98" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="JW98" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -84605,8 +84899,11 @@
       <c r="JU99" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JV99" t="n">
+      <c r="JV99" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JW99" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -85455,8 +85752,11 @@
       <c r="JU100" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JV100" t="n">
+      <c r="JV100" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JW100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -86305,8 +86605,11 @@
       <c r="JU101" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JV101" t="n">
+      <c r="JV101" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JW101" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -87155,8 +87458,11 @@
       <c r="JU102" s="2" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="JV102" t="n">
+      <c r="JV102" s="2" t="n">
         <v>76.90000000000001</v>
+      </c>
+      <c r="JW102" t="n">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Essendon_stats.xlsx
+++ b/AFL_ML/Data/Essendon_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KD102"/>
+  <dimension ref="A1:KE102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JQ85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JY94" activeCellId="0" sqref="JY94"/>
@@ -1330,8 +1330,11 @@
       <c r="KC1" s="2" t="n">
         <v>10846</v>
       </c>
-      <c r="KD1" t="n">
+      <c r="KD1" s="2" t="n">
         <v>10856</v>
+      </c>
+      <c r="KE1" t="n">
+        <v>10863</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2204,7 +2207,10 @@
       <c r="KC2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KD2" t="n">
+      <c r="KD2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KE2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3078,8 +3084,11 @@
       <c r="KC3" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KD3" t="n">
+      <c r="KD3" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3952,8 +3961,11 @@
       <c r="KC4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KD4" t="n">
+      <c r="KD4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4826,8 +4838,11 @@
       <c r="KC5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KD5" t="n">
+      <c r="KD5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KE5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5700,8 +5715,11 @@
       <c r="KC6" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="KD6" t="n">
+      <c r="KD6" s="2" t="n">
         <v>105</v>
+      </c>
+      <c r="KE6" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6574,8 +6592,11 @@
       <c r="KC7" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KD7" t="n">
+      <c r="KD7" s="2" t="n">
         <v>99</v>
+      </c>
+      <c r="KE7" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7448,8 +7469,11 @@
       <c r="KC8" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KD8" t="n">
+      <c r="KD8" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KE8" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8322,7 +8346,10 @@
       <c r="KC9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KD9" t="n">
+      <c r="KD9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KE9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9196,8 +9223,11 @@
       <c r="KC10" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KD10" t="n">
+      <c r="KD10" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KE10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10070,8 +10100,11 @@
       <c r="KC11" s="2" t="n">
         <v>238</v>
       </c>
-      <c r="KD11" t="n">
+      <c r="KD11" s="2" t="n">
         <v>229</v>
+      </c>
+      <c r="KE11" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -10944,8 +10977,11 @@
       <c r="KC12" s="2" t="n">
         <v>152</v>
       </c>
-      <c r="KD12" t="n">
+      <c r="KD12" s="2" t="n">
         <v>136</v>
+      </c>
+      <c r="KE12" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11818,8 +11854,11 @@
       <c r="KC13" s="2" t="n">
         <v>390</v>
       </c>
-      <c r="KD13" t="n">
+      <c r="KD13" s="2" t="n">
         <v>365</v>
+      </c>
+      <c r="KE13" t="n">
+        <v>368</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12692,8 +12731,11 @@
       <c r="KC14" s="2" t="n">
         <v>1.57</v>
       </c>
-      <c r="KD14" t="n">
+      <c r="KD14" s="2" t="n">
         <v>1.68</v>
+      </c>
+      <c r="KE14" t="n">
+        <v>1.47</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13566,8 +13608,11 @@
       <c r="KC15" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="KD15" t="n">
+      <c r="KD15" s="2" t="n">
         <v>118</v>
+      </c>
+      <c r="KE15" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14440,8 +14485,11 @@
       <c r="KC16" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KD16" t="n">
+      <c r="KD16" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="KE16" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15314,8 +15362,11 @@
       <c r="KC17" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KD17" t="n">
+      <c r="KD17" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KE17" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16188,8 +16239,11 @@
       <c r="KC18" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KD18" t="n">
+      <c r="KD18" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KE18" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17062,8 +17116,11 @@
       <c r="KC19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KD19" t="n">
+      <c r="KD19" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KE19" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -17936,8 +17993,11 @@
       <c r="KC20" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KD20" t="n">
+      <c r="KD20" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KE20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -18810,8 +18870,11 @@
       <c r="KC21" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KD21" t="n">
+      <c r="KD21" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KE21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -19684,7 +19747,10 @@
       <c r="KC22" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KD22" t="n">
+      <c r="KD22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE22" t="n">
         <v>7</v>
       </c>
     </row>
@@ -20558,8 +20624,11 @@
       <c r="KC23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KD23" t="n">
+      <c r="KD23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KE23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -21432,8 +21501,11 @@
       <c r="KC24" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KD24" t="n">
+      <c r="KD24" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KE24" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -22306,8 +22378,11 @@
       <c r="KC25" s="2" t="n">
         <v>53.8</v>
       </c>
-      <c r="KD25" t="n">
+      <c r="KD25" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KE25" t="n">
+        <v>61.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -23180,8 +23255,11 @@
       <c r="KC26" s="2" t="n">
         <v>27.86</v>
       </c>
-      <c r="KD26" t="n">
+      <c r="KD26" s="2" t="n">
         <v>22.81</v>
+      </c>
+      <c r="KE26" t="n">
+        <v>28.31</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24054,8 +24132,11 @@
       <c r="KC27" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KD27" t="n">
+      <c r="KD27" s="2" t="n">
         <v>14.6</v>
+      </c>
+      <c r="KE27" t="n">
+        <v>17.52</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -24928,8 +25009,11 @@
       <c r="KC28" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KD28" t="n">
+      <c r="KD28" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KE28" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -25802,8 +25886,11 @@
       <c r="KC29" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KD29" t="n">
+      <c r="KD29" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KE29" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -26676,8 +26763,11 @@
       <c r="KC30" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KD30" t="n">
+      <c r="KD30" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KE30" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -27550,8 +27640,11 @@
       <c r="KC31" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KD31" t="n">
+      <c r="KD31" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KE31" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -28424,8 +28517,11 @@
       <c r="KC32" s="2" t="n">
         <v>1.77</v>
       </c>
-      <c r="KD32" t="n">
+      <c r="KD32" s="2" t="n">
         <v>2.36</v>
+      </c>
+      <c r="KE32" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -29298,8 +29394,11 @@
       <c r="KC33" s="2" t="n">
         <v>3.29</v>
       </c>
-      <c r="KD33" t="n">
+      <c r="KD33" s="2" t="n">
         <v>3.69</v>
+      </c>
+      <c r="KE33" t="n">
+        <v>3.15</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -30172,8 +30271,11 @@
       <c r="KC34" s="2" t="n">
         <v>52.2</v>
       </c>
-      <c r="KD34" t="n">
+      <c r="KD34" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KE34" t="n">
+        <v>48.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -31046,8 +31148,11 @@
       <c r="KC35" s="2" t="n">
         <v>30.4</v>
       </c>
-      <c r="KD35" t="n">
+      <c r="KD35" s="2" t="n">
         <v>27.1</v>
+      </c>
+      <c r="KE35" t="n">
+        <v>31.7</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -31920,8 +32025,11 @@
       <c r="KC36" s="2" t="n">
         <v>187.2</v>
       </c>
-      <c r="KD36" t="n">
+      <c r="KD36" s="2" t="n">
         <v>187.6</v>
+      </c>
+      <c r="KE36" t="n">
+        <v>188.5</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -32794,8 +32902,11 @@
       <c r="KC37" s="2" t="n">
         <v>86.09999999999999</v>
       </c>
-      <c r="KD37" t="n">
+      <c r="KD37" s="2" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="KE37" t="n">
+        <v>87.2</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -33668,8 +33779,11 @@
       <c r="KC38" s="2" t="n">
         <v>24.91</v>
       </c>
-      <c r="KD38" t="n">
+      <c r="KD38" s="2" t="n">
         <v>25.33</v>
+      </c>
+      <c r="KE38" t="n">
+        <v>25.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -34542,8 +34656,11 @@
       <c r="KC39" s="2" t="n">
         <v>79.5</v>
       </c>
-      <c r="KD39" t="n">
+      <c r="KD39" s="2" t="n">
         <v>86.59999999999999</v>
+      </c>
+      <c r="KE39" t="n">
+        <v>83.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -35416,7 +35533,10 @@
       <c r="KC40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KD40" t="n">
+      <c r="KD40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE40" t="n">
         <v>7</v>
       </c>
     </row>
@@ -36290,8 +36410,11 @@
       <c r="KC41" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KD41" t="n">
+      <c r="KD41" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KE41" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -37164,8 +37287,11 @@
       <c r="KC42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KD42" t="n">
+      <c r="KD42" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KE42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -38038,8 +38164,11 @@
       <c r="KC43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KD43" t="n">
+      <c r="KD43" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KE43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -38912,8 +39041,11 @@
       <c r="KC44" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="KD44" t="n">
+      <c r="KD44" s="2" t="n">
         <v>129</v>
+      </c>
+      <c r="KE44" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -39786,8 +39918,11 @@
       <c r="KC45" s="2" t="n">
         <v>261</v>
       </c>
-      <c r="KD45" t="n">
+      <c r="KD45" s="2" t="n">
         <v>229</v>
+      </c>
+      <c r="KE45" t="n">
+        <v>245</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -40660,8 +40795,11 @@
       <c r="KC46" s="2" t="n">
         <v>301</v>
       </c>
-      <c r="KD46" t="n">
+      <c r="KD46" s="2" t="n">
         <v>272</v>
+      </c>
+      <c r="KE46" t="n">
+        <v>296</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -41534,8 +41672,11 @@
       <c r="KC47" s="2" t="n">
         <v>77.2</v>
       </c>
-      <c r="KD47" t="n">
+      <c r="KD47" s="2" t="n">
         <v>74.5</v>
+      </c>
+      <c r="KE47" t="n">
+        <v>80.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -42408,8 +42549,11 @@
       <c r="KC48" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KD48" t="n">
+      <c r="KD48" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KE48" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -43282,8 +43426,11 @@
       <c r="KC49" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KD49" t="n">
+      <c r="KD49" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KE49" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -44156,8 +44303,11 @@
       <c r="KC50" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KD50" t="n">
+      <c r="KD50" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KE50" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -45030,8 +45180,11 @@
       <c r="KC51" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KD51" t="n">
+      <c r="KD51" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KE51" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -45904,8 +46057,11 @@
       <c r="KC52" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KD52" t="n">
+      <c r="KD52" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KE52" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -46778,8 +46934,11 @@
       <c r="KC53" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KD53" t="n">
+      <c r="KD53" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KE53" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -47652,8 +47811,11 @@
       <c r="KC54" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KD54" t="n">
+      <c r="KD54" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KE54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -48526,8 +48688,11 @@
       <c r="KC55" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KD55" t="n">
+      <c r="KD55" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KE55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -49400,8 +49565,11 @@
       <c r="KC56" s="2" t="n">
         <v>57.1</v>
       </c>
-      <c r="KD56" t="n">
+      <c r="KD56" s="2" t="n">
         <v>81.2</v>
+      </c>
+      <c r="KE56" t="n">
+        <v>61.5</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -50274,8 +50442,11 @@
       <c r="KC57" s="2" t="n">
         <v>205</v>
       </c>
-      <c r="KD57" t="n">
+      <c r="KD57" s="2" t="n">
         <v>205</v>
+      </c>
+      <c r="KE57" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -51148,8 +51319,11 @@
       <c r="KC58" s="2" t="n">
         <v>162</v>
       </c>
-      <c r="KD58" t="n">
+      <c r="KD58" s="2" t="n">
         <v>147</v>
+      </c>
+      <c r="KE58" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -52022,8 +52196,11 @@
       <c r="KC59" s="2" t="n">
         <v>367</v>
       </c>
-      <c r="KD59" t="n">
+      <c r="KD59" s="2" t="n">
         <v>352</v>
+      </c>
+      <c r="KE59" t="n">
+        <v>388</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -52896,8 +53073,11 @@
       <c r="KC60" s="2" t="n">
         <v>1.27</v>
       </c>
-      <c r="KD60" t="n">
+      <c r="KD60" s="2" t="n">
         <v>1.39</v>
+      </c>
+      <c r="KE60" t="n">
+        <v>1.07</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -53770,8 +53950,11 @@
       <c r="KC61" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="KD61" t="n">
+      <c r="KD61" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="KE61" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -54644,8 +54827,11 @@
       <c r="KC62" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KD62" t="n">
+      <c r="KD62" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="KE62" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -55518,8 +55704,11 @@
       <c r="KC63" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KD63" t="n">
+      <c r="KD63" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KE63" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -56392,8 +56581,11 @@
       <c r="KC64" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KD64" t="n">
+      <c r="KD64" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KE64" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -57266,8 +57458,11 @@
       <c r="KC65" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KD65" t="n">
+      <c r="KD65" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KE65" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -58140,8 +58335,11 @@
       <c r="KC66" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KD66" t="n">
+      <c r="KD66" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KE66" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -59014,8 +59212,11 @@
       <c r="KC67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KD67" t="n">
+      <c r="KD67" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KE67" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -59888,8 +60089,11 @@
       <c r="KC68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KD68" t="n">
+      <c r="KD68" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KE68" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -60762,8 +60966,11 @@
       <c r="KC69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KD69" t="n">
+      <c r="KD69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KE69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -61636,8 +61843,11 @@
       <c r="KC70" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KD70" t="n">
+      <c r="KD70" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KE70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -62510,8 +62720,11 @@
       <c r="KC71" s="2" t="n">
         <v>37.5</v>
       </c>
-      <c r="KD71" t="n">
+      <c r="KD71" s="2" t="n">
         <v>62.5</v>
+      </c>
+      <c r="KE71" t="n">
+        <v>27.3</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -63384,8 +63597,11 @@
       <c r="KC72" s="2" t="n">
         <v>61.17</v>
       </c>
-      <c r="KD72" t="n">
+      <c r="KD72" s="2" t="n">
         <v>23.47</v>
+      </c>
+      <c r="KE72" t="n">
+        <v>64.67</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -64258,8 +64474,11 @@
       <c r="KC73" s="2" t="n">
         <v>22.94</v>
       </c>
-      <c r="KD73" t="n">
+      <c r="KD73" s="2" t="n">
         <v>14.67</v>
+      </c>
+      <c r="KE73" t="n">
+        <v>17.64</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -65132,8 +65351,11 @@
       <c r="KC74" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KD74" t="n">
+      <c r="KD74" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KE74" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -66006,8 +66228,11 @@
       <c r="KC75" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KD75" t="n">
+      <c r="KD75" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KE75" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -66880,8 +67105,11 @@
       <c r="KC76" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KD76" t="n">
+      <c r="KD76" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KE76" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -67754,8 +67982,11 @@
       <c r="KC77" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KD77" t="n">
+      <c r="KD77" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KE77" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -68628,8 +68859,11 @@
       <c r="KC78" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KD78" t="n">
+      <c r="KD78" s="2" t="n">
         <v>2.08</v>
+      </c>
+      <c r="KE78" t="n">
+        <v>2.55</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -69502,8 +69736,11 @@
       <c r="KC79" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KD79" t="n">
+      <c r="KD79" s="2" t="n">
         <v>3.33</v>
+      </c>
+      <c r="KE79" t="n">
+        <v>9.33</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -70376,8 +70613,11 @@
       <c r="KC80" s="2" t="n">
         <v>27.1</v>
       </c>
-      <c r="KD80" t="n">
+      <c r="KD80" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KE80" t="n">
+        <v>32.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -71250,8 +71490,11 @@
       <c r="KC81" s="2" t="n">
         <v>12.5</v>
       </c>
-      <c r="KD81" t="n">
+      <c r="KD81" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="KE81" t="n">
+        <v>10.7</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -72124,8 +72367,11 @@
       <c r="KC82" s="2" t="n">
         <v>189.2</v>
       </c>
-      <c r="KD82" t="n">
+      <c r="KD82" s="2" t="n">
         <v>188.3</v>
+      </c>
+      <c r="KE82" t="n">
+        <v>188.8</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -72998,8 +73244,11 @@
       <c r="KC83" s="2" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="KD83" t="n">
+      <c r="KD83" s="2" t="n">
         <v>84.8</v>
+      </c>
+      <c r="KE83" t="n">
+        <v>88.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -73872,8 +74121,11 @@
       <c r="KC84" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="KD84" t="n">
+      <c r="KD84" s="2" t="n">
         <v>25.24</v>
+      </c>
+      <c r="KE84" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -74746,8 +74998,11 @@
       <c r="KC85" s="2" t="n">
         <v>87.3</v>
       </c>
-      <c r="KD85" t="n">
+      <c r="KD85" s="2" t="n">
         <v>95.59999999999999</v>
+      </c>
+      <c r="KE85" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -75620,8 +75875,11 @@
       <c r="KC86" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KD86" t="n">
+      <c r="KD86" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KE86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -76494,7 +76752,10 @@
       <c r="KC87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KD87" t="n">
+      <c r="KD87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KE87" t="n">
         <v>6</v>
       </c>
     </row>
@@ -77368,8 +77629,11 @@
       <c r="KC88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KD88" t="n">
+      <c r="KD88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KE88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -78242,8 +78506,11 @@
       <c r="KC89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KD89" t="n">
+      <c r="KD89" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KE89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -79116,8 +79383,11 @@
       <c r="KC90" s="2" t="n">
         <v>104</v>
       </c>
-      <c r="KD90" t="n">
+      <c r="KD90" s="2" t="n">
         <v>140</v>
+      </c>
+      <c r="KE90" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -79990,8 +80260,11 @@
       <c r="KC91" s="2" t="n">
         <v>254</v>
       </c>
-      <c r="KD91" t="n">
+      <c r="KD91" s="2" t="n">
         <v>208</v>
+      </c>
+      <c r="KE91" t="n">
+        <v>260</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -80864,8 +81137,11 @@
       <c r="KC92" s="2" t="n">
         <v>280</v>
       </c>
-      <c r="KD92" t="n">
+      <c r="KD92" s="2" t="n">
         <v>273</v>
+      </c>
+      <c r="KE92" t="n">
+        <v>289</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -81738,8 +82014,11 @@
       <c r="KC93" s="2" t="n">
         <v>76.3</v>
       </c>
-      <c r="KD93" t="n">
+      <c r="KD93" s="2" t="n">
         <v>77.59999999999999</v>
+      </c>
+      <c r="KE93" t="n">
+        <v>74.5</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -82612,8 +82891,11 @@
       <c r="KC94" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KD94" t="n">
+      <c r="KD94" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KE94" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -83486,8 +83768,11 @@
       <c r="KC95" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KD95" t="n">
+      <c r="KD95" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KE95" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -84360,8 +84645,11 @@
       <c r="KC96" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KD96" t="n">
+      <c r="KD96" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KE96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -85234,8 +85522,11 @@
       <c r="KC97" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KD97" t="n">
+      <c r="KD97" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KE97" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -86108,8 +86399,11 @@
       <c r="KC98" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KD98" t="n">
+      <c r="KD98" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KE98" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -86982,8 +87276,11 @@
       <c r="KC99" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KD99" t="n">
+      <c r="KD99" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KE99" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -87856,8 +88153,11 @@
       <c r="KC100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KD100" t="n">
+      <c r="KD100" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KE100" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -88730,8 +89030,11 @@
       <c r="KC101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KD101" t="n">
+      <c r="KD101" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KE101" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -89604,8 +89907,11 @@
       <c r="KC102" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="KD102" t="n">
+      <c r="KD102" s="2" t="n">
         <v>73.3</v>
+      </c>
+      <c r="KE102" t="n">
+        <v>66.7</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Essendon_stats.xlsx
+++ b/AFL_ML/Data/Essendon_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KF102"/>
+  <dimension ref="A1:KG102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JQ85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JY94" activeCellId="0" sqref="JY94"/>
@@ -1336,8 +1336,11 @@
       <c r="KE1" s="2" t="n">
         <v>10863</v>
       </c>
-      <c r="KF1" t="n">
+      <c r="KF1" s="2" t="n">
         <v>10874</v>
+      </c>
+      <c r="KG1" t="n">
+        <v>10878</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2216,7 +2219,10 @@
       <c r="KE2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KF2" t="n">
+      <c r="KF2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KG2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3096,8 +3102,11 @@
       <c r="KE3" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KF3" t="n">
+      <c r="KF3" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3976,8 +3985,11 @@
       <c r="KE4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KF4" t="n">
+      <c r="KF4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4856,8 +4868,11 @@
       <c r="KE5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KF5" t="n">
+      <c r="KF5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KG5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5736,8 +5751,11 @@
       <c r="KE6" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="KF6" t="n">
+      <c r="KF6" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="KG6" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6616,8 +6634,11 @@
       <c r="KE7" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KF7" t="n">
+      <c r="KF7" s="2" t="n">
         <v>93</v>
+      </c>
+      <c r="KG7" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7496,8 +7517,11 @@
       <c r="KE8" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KF8" t="n">
+      <c r="KF8" s="2" t="n">
         <v>-32</v>
+      </c>
+      <c r="KG8" t="n">
+        <v>-4</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8376,7 +8400,10 @@
       <c r="KE9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KF9" t="n">
+      <c r="KF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9256,8 +9283,11 @@
       <c r="KE10" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KF10" t="n">
+      <c r="KF10" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KG10" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10136,8 +10166,11 @@
       <c r="KE11" s="2" t="n">
         <v>219</v>
       </c>
-      <c r="KF11" t="n">
+      <c r="KF11" s="2" t="n">
         <v>208</v>
+      </c>
+      <c r="KG11" t="n">
+        <v>209</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11016,8 +11049,11 @@
       <c r="KE12" s="2" t="n">
         <v>149</v>
       </c>
-      <c r="KF12" t="n">
+      <c r="KF12" s="2" t="n">
         <v>154</v>
+      </c>
+      <c r="KG12" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11896,8 +11932,11 @@
       <c r="KE13" s="2" t="n">
         <v>368</v>
       </c>
-      <c r="KF13" t="n">
+      <c r="KF13" s="2" t="n">
         <v>362</v>
+      </c>
+      <c r="KG13" t="n">
+        <v>351</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12776,8 +12815,11 @@
       <c r="KE14" s="2" t="n">
         <v>1.47</v>
       </c>
-      <c r="KF14" t="n">
+      <c r="KF14" s="2" t="n">
         <v>1.35</v>
+      </c>
+      <c r="KG14" t="n">
+        <v>1.47</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13656,8 +13698,11 @@
       <c r="KE15" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="KF15" t="n">
+      <c r="KF15" s="2" t="n">
         <v>102</v>
+      </c>
+      <c r="KG15" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14536,8 +14581,11 @@
       <c r="KE16" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KF16" t="n">
+      <c r="KF16" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KG16" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15416,8 +15464,11 @@
       <c r="KE17" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KF17" t="n">
+      <c r="KF17" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KG17" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16296,8 +16347,11 @@
       <c r="KE18" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KF18" t="n">
+      <c r="KF18" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KG18" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17176,8 +17230,11 @@
       <c r="KE19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KF19" t="n">
+      <c r="KF19" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KG19" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18056,8 +18113,11 @@
       <c r="KE20" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KF20" t="n">
+      <c r="KF20" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KG20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -18936,8 +18996,11 @@
       <c r="KE21" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KF21" t="n">
+      <c r="KF21" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KG21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -19816,8 +19879,11 @@
       <c r="KE22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KF22" t="n">
+      <c r="KF22" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KG22" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -20696,8 +20762,11 @@
       <c r="KE23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KF23" t="n">
+      <c r="KF23" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KG23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -21576,8 +21645,11 @@
       <c r="KE24" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KF24" t="n">
+      <c r="KF24" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KG24" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -22456,8 +22528,11 @@
       <c r="KE25" s="2" t="n">
         <v>61.9</v>
       </c>
-      <c r="KF25" t="n">
+      <c r="KF25" s="2" t="n">
         <v>56.2</v>
+      </c>
+      <c r="KG25" t="n">
+        <v>41.7</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -23336,8 +23411,11 @@
       <c r="KE26" s="2" t="n">
         <v>28.31</v>
       </c>
-      <c r="KF26" t="n">
+      <c r="KF26" s="2" t="n">
         <v>40.22</v>
+      </c>
+      <c r="KG26" t="n">
+        <v>35.1</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24216,8 +24294,11 @@
       <c r="KE27" s="2" t="n">
         <v>17.52</v>
       </c>
-      <c r="KF27" t="n">
+      <c r="KF27" s="2" t="n">
         <v>22.62</v>
+      </c>
+      <c r="KG27" t="n">
+        <v>14.62</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25096,8 +25177,11 @@
       <c r="KE28" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KF28" t="n">
+      <c r="KF28" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KG28" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -25976,8 +26060,11 @@
       <c r="KE29" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KF29" t="n">
+      <c r="KF29" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KG29" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -26856,8 +26943,11 @@
       <c r="KE30" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KF30" t="n">
+      <c r="KF30" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KG30" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -27736,8 +27826,11 @@
       <c r="KE31" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KF31" t="n">
+      <c r="KF31" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KG31" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -28616,8 +28709,11 @@
       <c r="KE32" s="2" t="n">
         <v>1.95</v>
       </c>
-      <c r="KF32" t="n">
+      <c r="KF32" s="2" t="n">
         <v>2.62</v>
+      </c>
+      <c r="KG32" t="n">
+        <v>2.08</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -29496,8 +29592,11 @@
       <c r="KE33" s="2" t="n">
         <v>3.15</v>
       </c>
-      <c r="KF33" t="n">
+      <c r="KF33" s="2" t="n">
         <v>4.67</v>
+      </c>
+      <c r="KG33" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -30376,8 +30475,11 @@
       <c r="KE34" s="2" t="n">
         <v>48.8</v>
       </c>
-      <c r="KF34" t="n">
+      <c r="KF34" s="2" t="n">
         <v>38.1</v>
+      </c>
+      <c r="KG34" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -31256,8 +31358,11 @@
       <c r="KE35" s="2" t="n">
         <v>31.7</v>
       </c>
-      <c r="KF35" t="n">
+      <c r="KF35" s="2" t="n">
         <v>21.4</v>
+      </c>
+      <c r="KG35" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -32136,8 +32241,11 @@
       <c r="KE36" s="2" t="n">
         <v>188.5</v>
       </c>
-      <c r="KF36" t="n">
+      <c r="KF36" s="2" t="n">
         <v>189</v>
+      </c>
+      <c r="KG36" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -33016,8 +33124,11 @@
       <c r="KE37" s="2" t="n">
         <v>87.2</v>
       </c>
-      <c r="KF37" t="n">
+      <c r="KF37" s="2" t="n">
         <v>87.7</v>
+      </c>
+      <c r="KG37" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -33896,8 +34007,11 @@
       <c r="KE38" s="2" t="n">
         <v>25.24</v>
       </c>
-      <c r="KF38" t="n">
+      <c r="KF38" s="2" t="n">
         <v>25.33</v>
+      </c>
+      <c r="KG38" t="n">
+        <v>25.74</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -34776,8 +34890,11 @@
       <c r="KE39" s="2" t="n">
         <v>83.3</v>
       </c>
-      <c r="KF39" t="n">
+      <c r="KF39" s="2" t="n">
         <v>90.40000000000001</v>
+      </c>
+      <c r="KG39" t="n">
+        <v>100.1</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -35656,8 +35773,11 @@
       <c r="KE40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KF40" t="n">
+      <c r="KF40" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KG40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -36536,7 +36656,10 @@
       <c r="KE41" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KF41" t="n">
+      <c r="KF41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KG41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -37416,7 +37539,10 @@
       <c r="KE42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KF42" t="n">
+      <c r="KF42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KG42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -38296,8 +38422,11 @@
       <c r="KE43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KF43" t="n">
+      <c r="KF43" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KG43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -39176,8 +39305,11 @@
       <c r="KE44" s="2" t="n">
         <v>112</v>
       </c>
-      <c r="KF44" t="n">
+      <c r="KF44" s="2" t="n">
         <v>125</v>
+      </c>
+      <c r="KG44" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -40056,8 +40188,11 @@
       <c r="KE45" s="2" t="n">
         <v>245</v>
       </c>
-      <c r="KF45" t="n">
+      <c r="KF45" s="2" t="n">
         <v>227</v>
+      </c>
+      <c r="KG45" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -40936,8 +41071,11 @@
       <c r="KE46" s="2" t="n">
         <v>296</v>
       </c>
-      <c r="KF46" t="n">
+      <c r="KF46" s="2" t="n">
         <v>266</v>
+      </c>
+      <c r="KG46" t="n">
+        <v>251</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -41816,8 +41954,11 @@
       <c r="KE47" s="2" t="n">
         <v>80.40000000000001</v>
       </c>
-      <c r="KF47" t="n">
+      <c r="KF47" s="2" t="n">
         <v>73.5</v>
+      </c>
+      <c r="KG47" t="n">
+        <v>71.5</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -42696,8 +42837,11 @@
       <c r="KE48" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KF48" t="n">
+      <c r="KF48" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KG48" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -43576,8 +43720,11 @@
       <c r="KE49" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KF49" t="n">
+      <c r="KF49" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KG49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -44456,8 +44603,11 @@
       <c r="KE50" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KF50" t="n">
+      <c r="KF50" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KG50" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -45336,8 +45486,11 @@
       <c r="KE51" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KF51" t="n">
+      <c r="KF51" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KG51" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -46216,8 +46369,11 @@
       <c r="KE52" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KF52" t="n">
+      <c r="KF52" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KG52" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -47096,8 +47252,11 @@
       <c r="KE53" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KF53" t="n">
+      <c r="KF53" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KG53" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -47976,8 +48135,11 @@
       <c r="KE54" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KF54" t="n">
+      <c r="KF54" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KG54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -48856,8 +49018,11 @@
       <c r="KE55" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KF55" t="n">
+      <c r="KF55" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KG55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -49736,8 +49901,11 @@
       <c r="KE56" s="2" t="n">
         <v>61.5</v>
       </c>
-      <c r="KF56" t="n">
+      <c r="KF56" s="2" t="n">
         <v>88.90000000000001</v>
+      </c>
+      <c r="KG56" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -50616,8 +50784,11 @@
       <c r="KE57" s="2" t="n">
         <v>201</v>
       </c>
-      <c r="KF57" t="n">
+      <c r="KF57" s="2" t="n">
         <v>226</v>
+      </c>
+      <c r="KG57" t="n">
+        <v>195</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -51496,8 +51667,11 @@
       <c r="KE58" s="2" t="n">
         <v>187</v>
       </c>
-      <c r="KF58" t="n">
+      <c r="KF58" s="2" t="n">
         <v>136</v>
+      </c>
+      <c r="KG58" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -52376,8 +52550,11 @@
       <c r="KE59" s="2" t="n">
         <v>388</v>
       </c>
-      <c r="KF59" t="n">
+      <c r="KF59" s="2" t="n">
         <v>362</v>
+      </c>
+      <c r="KG59" t="n">
+        <v>313</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -53256,8 +53433,11 @@
       <c r="KE60" s="2" t="n">
         <v>1.07</v>
       </c>
-      <c r="KF60" t="n">
+      <c r="KF60" s="2" t="n">
         <v>1.66</v>
+      </c>
+      <c r="KG60" t="n">
+        <v>1.65</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -54136,8 +54316,11 @@
       <c r="KE61" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="KF61" t="n">
+      <c r="KF61" s="2" t="n">
         <v>113</v>
+      </c>
+      <c r="KG61" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -55016,8 +55199,11 @@
       <c r="KE62" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KF62" t="n">
+      <c r="KF62" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KG62" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -55896,8 +56082,11 @@
       <c r="KE63" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KF63" t="n">
+      <c r="KF63" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KG63" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -56776,8 +56965,11 @@
       <c r="KE64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KF64" t="n">
+      <c r="KF64" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KG64" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -57656,8 +57848,11 @@
       <c r="KE65" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KF65" t="n">
+      <c r="KF65" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KG65" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -58536,8 +58731,11 @@
       <c r="KE66" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KF66" t="n">
+      <c r="KF66" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KG66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -59416,8 +59614,11 @@
       <c r="KE67" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KF67" t="n">
+      <c r="KF67" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KG67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -60296,8 +60497,11 @@
       <c r="KE68" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KF68" t="n">
+      <c r="KF68" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KG68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -61176,8 +61380,11 @@
       <c r="KE69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KF69" t="n">
+      <c r="KF69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KG69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -62056,7 +62263,10 @@
       <c r="KE70" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KF70" t="n">
+      <c r="KF70" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KG70" t="n">
         <v>23</v>
       </c>
     </row>
@@ -62936,8 +63146,11 @@
       <c r="KE71" s="2" t="n">
         <v>27.3</v>
       </c>
-      <c r="KF71" t="n">
+      <c r="KF71" s="2" t="n">
         <v>60.9</v>
+      </c>
+      <c r="KG71" t="n">
+        <v>47.8</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -63816,8 +64029,11 @@
       <c r="KE72" s="2" t="n">
         <v>64.67</v>
       </c>
-      <c r="KF72" t="n">
+      <c r="KF72" s="2" t="n">
         <v>25.86</v>
+      </c>
+      <c r="KG72" t="n">
+        <v>28.45</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -64696,8 +64912,11 @@
       <c r="KE73" s="2" t="n">
         <v>17.64</v>
       </c>
-      <c r="KF73" t="n">
+      <c r="KF73" s="2" t="n">
         <v>15.74</v>
+      </c>
+      <c r="KG73" t="n">
+        <v>13.61</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -65576,8 +65795,11 @@
       <c r="KE74" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KF74" t="n">
+      <c r="KF74" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KG74" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -66456,8 +66678,11 @@
       <c r="KE75" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KF75" t="n">
+      <c r="KF75" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KG75" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -67336,8 +67561,11 @@
       <c r="KE76" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KF76" t="n">
+      <c r="KF76" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KG76" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -68216,8 +68444,11 @@
       <c r="KE77" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KF77" t="n">
+      <c r="KF77" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KG77" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -69096,8 +69327,11 @@
       <c r="KE78" s="2" t="n">
         <v>2.55</v>
       </c>
-      <c r="KF78" t="n">
+      <c r="KF78" s="2" t="n">
         <v>2.26</v>
+      </c>
+      <c r="KG78" t="n">
+        <v>2.39</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -69976,8 +70210,11 @@
       <c r="KE79" s="2" t="n">
         <v>9.33</v>
       </c>
-      <c r="KF79" t="n">
+      <c r="KF79" s="2" t="n">
         <v>3.71</v>
+      </c>
+      <c r="KG79" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -70856,8 +71093,11 @@
       <c r="KE80" s="2" t="n">
         <v>32.1</v>
       </c>
-      <c r="KF80" t="n">
+      <c r="KF80" s="2" t="n">
         <v>40.4</v>
+      </c>
+      <c r="KG80" t="n">
+        <v>34.5</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -71736,8 +71976,11 @@
       <c r="KE81" s="2" t="n">
         <v>10.7</v>
       </c>
-      <c r="KF81" t="n">
+      <c r="KF81" s="2" t="n">
         <v>26.9</v>
+      </c>
+      <c r="KG81" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -72616,8 +72859,11 @@
       <c r="KE82" s="2" t="n">
         <v>188.8</v>
       </c>
-      <c r="KF82" t="n">
+      <c r="KF82" s="2" t="n">
         <v>188.3</v>
+      </c>
+      <c r="KG82" t="n">
+        <v>188.1</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -73496,8 +73742,11 @@
       <c r="KE83" s="2" t="n">
         <v>88.3</v>
       </c>
-      <c r="KF83" t="n">
+      <c r="KF83" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="KG83" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -74376,8 +74625,11 @@
       <c r="KE84" s="2" t="n">
         <v>25.91</v>
       </c>
-      <c r="KF84" t="n">
+      <c r="KF84" s="2" t="n">
         <v>24.41</v>
+      </c>
+      <c r="KG84" t="n">
+        <v>25.58</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -75256,8 +75508,11 @@
       <c r="KE85" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="KF85" t="n">
+      <c r="KF85" s="2" t="n">
         <v>78.5</v>
+      </c>
+      <c r="KG85" t="n">
+        <v>102.4</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -76136,8 +76391,11 @@
       <c r="KE86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KF86" t="n">
+      <c r="KF86" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KG86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -77016,8 +77274,11 @@
       <c r="KE87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KF87" t="n">
+      <c r="KF87" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KG87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -77896,8 +78157,11 @@
       <c r="KE88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KF88" t="n">
+      <c r="KF88" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KG88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -78776,8 +79040,11 @@
       <c r="KE89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KF89" t="n">
+      <c r="KF89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KG89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -79656,8 +79923,11 @@
       <c r="KE90" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="KF90" t="n">
+      <c r="KF90" s="2" t="n">
         <v>128</v>
+      </c>
+      <c r="KG90" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -80536,8 +80806,11 @@
       <c r="KE91" s="2" t="n">
         <v>260</v>
       </c>
-      <c r="KF91" t="n">
+      <c r="KF91" s="2" t="n">
         <v>232</v>
+      </c>
+      <c r="KG91" t="n">
+        <v>173</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -81416,8 +81689,11 @@
       <c r="KE92" s="2" t="n">
         <v>289</v>
       </c>
-      <c r="KF92" t="n">
+      <c r="KF92" s="2" t="n">
         <v>278</v>
+      </c>
+      <c r="KG92" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -82296,8 +82572,11 @@
       <c r="KE93" s="2" t="n">
         <v>74.5</v>
       </c>
-      <c r="KF93" t="n">
+      <c r="KF93" s="2" t="n">
         <v>76.8</v>
+      </c>
+      <c r="KG93" t="n">
+        <v>71.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -83176,8 +83455,11 @@
       <c r="KE94" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KF94" t="n">
+      <c r="KF94" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KG94" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -84056,8 +84338,11 @@
       <c r="KE95" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KF95" t="n">
+      <c r="KF95" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KG95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -84936,8 +85221,11 @@
       <c r="KE96" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KF96" t="n">
+      <c r="KF96" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KG96" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -85816,8 +86104,11 @@
       <c r="KE97" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KF97" t="n">
+      <c r="KF97" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KG97" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -86696,8 +86987,11 @@
       <c r="KE98" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KF98" t="n">
+      <c r="KF98" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KG98" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -87576,8 +87870,11 @@
       <c r="KE99" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KF99" t="n">
+      <c r="KF99" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KG99" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -88456,8 +88753,11 @@
       <c r="KE100" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KF100" t="n">
+      <c r="KF100" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KG100" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -89336,8 +89636,11 @@
       <c r="KE101" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KF101" t="n">
+      <c r="KF101" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KG101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -90216,8 +90519,11 @@
       <c r="KE102" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="KF102" t="n">
+      <c r="KF102" s="2" t="n">
         <v>57.1</v>
+      </c>
+      <c r="KG102" t="n">
+        <v>54.5</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Essendon_stats.xlsx
+++ b/AFL_ML/Data/Essendon_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KH102"/>
+  <dimension ref="A1:KI102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JQ85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JY94" activeCellId="0" sqref="JY94"/>
@@ -1342,8 +1342,11 @@
       <c r="KG1" s="2" t="n">
         <v>10878</v>
       </c>
-      <c r="KH1" t="n">
+      <c r="KH1" s="2" t="n">
         <v>10887</v>
+      </c>
+      <c r="KI1" t="n">
+        <v>10897</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2228,7 +2231,10 @@
       <c r="KG2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KH2" t="n">
+      <c r="KH2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KI2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3114,8 +3120,11 @@
       <c r="KG3" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KH3" t="n">
+      <c r="KH3" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4000,8 +4009,11 @@
       <c r="KG4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KH4" t="n">
+      <c r="KH4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4886,7 +4898,10 @@
       <c r="KG5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KH5" t="n">
+      <c r="KH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5772,8 +5787,11 @@
       <c r="KG6" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="KH6" t="n">
+      <c r="KH6" s="2" t="n">
         <v>115</v>
+      </c>
+      <c r="KI6" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6658,8 +6676,11 @@
       <c r="KG7" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="KH7" t="n">
+      <c r="KH7" s="2" t="n">
         <v>97</v>
+      </c>
+      <c r="KI7" t="n">
+        <v>122</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7544,8 +7565,11 @@
       <c r="KG8" s="2" t="n">
         <v>-4</v>
       </c>
-      <c r="KH8" t="n">
+      <c r="KH8" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KI8" t="n">
+        <v>-77</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8430,8 +8454,11 @@
       <c r="KG9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KH9" t="n">
+      <c r="KH9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KI9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9316,8 +9343,11 @@
       <c r="KG10" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KH10" t="n">
+      <c r="KH10" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KI10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10202,8 +10232,11 @@
       <c r="KG11" s="2" t="n">
         <v>209</v>
       </c>
-      <c r="KH11" t="n">
+      <c r="KH11" s="2" t="n">
         <v>228</v>
+      </c>
+      <c r="KI11" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11088,8 +11121,11 @@
       <c r="KG12" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="KH12" t="n">
+      <c r="KH12" s="2" t="n">
         <v>197</v>
+      </c>
+      <c r="KI12" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11974,8 +12010,11 @@
       <c r="KG13" s="2" t="n">
         <v>351</v>
       </c>
-      <c r="KH13" t="n">
+      <c r="KH13" s="2" t="n">
         <v>425</v>
+      </c>
+      <c r="KI13" t="n">
+        <v>358</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12860,8 +12899,11 @@
       <c r="KG14" s="2" t="n">
         <v>1.47</v>
       </c>
-      <c r="KH14" t="n">
+      <c r="KH14" s="2" t="n">
         <v>1.16</v>
+      </c>
+      <c r="KI14" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13746,8 +13788,11 @@
       <c r="KG15" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="KH15" t="n">
+      <c r="KH15" s="2" t="n">
         <v>107</v>
+      </c>
+      <c r="KI15" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14632,8 +14677,11 @@
       <c r="KG16" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="KH16" t="n">
+      <c r="KH16" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KI16" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15518,8 +15566,11 @@
       <c r="KG17" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KH17" t="n">
+      <c r="KH17" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KI17" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16404,8 +16455,11 @@
       <c r="KG18" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KH18" t="n">
+      <c r="KH18" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KI18" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17290,8 +17344,11 @@
       <c r="KG19" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KH19" t="n">
+      <c r="KH19" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KI19" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18176,8 +18233,11 @@
       <c r="KG20" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KH20" t="n">
+      <c r="KH20" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KI20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19062,8 +19122,11 @@
       <c r="KG21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KH21" t="n">
+      <c r="KH21" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KI21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -19948,8 +20011,11 @@
       <c r="KG22" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KH22" t="n">
+      <c r="KH22" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KI22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -20834,8 +20900,11 @@
       <c r="KG23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KH23" t="n">
+      <c r="KH23" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KI23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -21720,8 +21789,11 @@
       <c r="KG24" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KH24" t="n">
+      <c r="KH24" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="KI24" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -22606,8 +22678,11 @@
       <c r="KG25" s="2" t="n">
         <v>41.7</v>
       </c>
-      <c r="KH25" t="n">
+      <c r="KH25" s="2" t="n">
         <v>56.7</v>
+      </c>
+      <c r="KI25" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -23492,8 +23567,11 @@
       <c r="KG26" s="2" t="n">
         <v>35.1</v>
       </c>
-      <c r="KH26" t="n">
+      <c r="KH26" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KI26" t="n">
+        <v>51.14</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24378,8 +24456,11 @@
       <c r="KG27" s="2" t="n">
         <v>14.62</v>
       </c>
-      <c r="KH27" t="n">
+      <c r="KH27" s="2" t="n">
         <v>14.17</v>
+      </c>
+      <c r="KI27" t="n">
+        <v>35.8</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25264,8 +25345,11 @@
       <c r="KG28" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KH28" t="n">
+      <c r="KH28" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KI28" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26150,8 +26234,11 @@
       <c r="KG29" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KH29" t="n">
+      <c r="KH29" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KI29" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27036,8 +27123,11 @@
       <c r="KG30" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KH30" t="n">
+      <c r="KH30" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KI30" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -27922,8 +28012,11 @@
       <c r="KG31" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KH31" t="n">
+      <c r="KH31" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="KI31" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -28808,8 +28901,11 @@
       <c r="KG32" s="2" t="n">
         <v>2.08</v>
       </c>
-      <c r="KH32" t="n">
+      <c r="KH32" s="2" t="n">
         <v>1.93</v>
+      </c>
+      <c r="KI32" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -29694,8 +29790,11 @@
       <c r="KG33" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KH33" t="n">
+      <c r="KH33" s="2" t="n">
         <v>3.41</v>
+      </c>
+      <c r="KI33" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -30580,8 +30679,11 @@
       <c r="KG34" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KH34" t="n">
+      <c r="KH34" s="2" t="n">
         <v>41.4</v>
+      </c>
+      <c r="KI34" t="n">
+        <v>28.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -31466,8 +31568,11 @@
       <c r="KG35" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KH35" t="n">
+      <c r="KH35" s="2" t="n">
         <v>29.3</v>
+      </c>
+      <c r="KI35" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -32352,7 +32457,10 @@
       <c r="KG36" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="KH36" t="n">
+      <c r="KH36" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="KI36" t="n">
         <v>188</v>
       </c>
     </row>
@@ -33238,8 +33346,11 @@
       <c r="KG37" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="KH37" t="n">
+      <c r="KH37" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="KI37" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -34124,8 +34235,11 @@
       <c r="KG38" s="2" t="n">
         <v>25.74</v>
       </c>
-      <c r="KH38" t="n">
+      <c r="KH38" s="2" t="n">
         <v>25.74</v>
+      </c>
+      <c r="KI38" t="n">
+        <v>25.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35010,8 +35124,11 @@
       <c r="KG39" s="2" t="n">
         <v>100.1</v>
       </c>
-      <c r="KH39" t="n">
+      <c r="KH39" s="2" t="n">
         <v>101.1</v>
+      </c>
+      <c r="KI39" t="n">
+        <v>93.2</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -35896,8 +36013,11 @@
       <c r="KG40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KH40" t="n">
+      <c r="KH40" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KI40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -36782,7 +36902,10 @@
       <c r="KG41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KH41" t="n">
+      <c r="KH41" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KI41" t="n">
         <v>8</v>
       </c>
     </row>
@@ -37668,7 +37791,10 @@
       <c r="KG42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KH42" t="n">
+      <c r="KH42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KI42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -38554,8 +38680,11 @@
       <c r="KG43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KH43" t="n">
+      <c r="KH43" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KI43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -39440,8 +39569,11 @@
       <c r="KG44" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="KH44" t="n">
+      <c r="KH44" s="2" t="n">
         <v>154</v>
+      </c>
+      <c r="KI44" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -40326,8 +40458,11 @@
       <c r="KG45" s="2" t="n">
         <v>204</v>
       </c>
-      <c r="KH45" t="n">
+      <c r="KH45" s="2" t="n">
         <v>269</v>
+      </c>
+      <c r="KI45" t="n">
+        <v>199</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -41212,8 +41347,11 @@
       <c r="KG46" s="2" t="n">
         <v>251</v>
       </c>
-      <c r="KH46" t="n">
+      <c r="KH46" s="2" t="n">
         <v>314</v>
+      </c>
+      <c r="KI46" t="n">
+        <v>244</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -42098,8 +42236,11 @@
       <c r="KG47" s="2" t="n">
         <v>71.5</v>
       </c>
-      <c r="KH47" t="n">
+      <c r="KH47" s="2" t="n">
         <v>73.90000000000001</v>
+      </c>
+      <c r="KI47" t="n">
+        <v>68.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -42984,8 +43125,11 @@
       <c r="KG48" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KH48" t="n">
+      <c r="KH48" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KI48" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -43870,8 +44014,11 @@
       <c r="KG49" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KH49" t="n">
+      <c r="KH49" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KI49" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -44756,8 +44903,11 @@
       <c r="KG50" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KH50" t="n">
+      <c r="KH50" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KI50" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -45642,8 +45792,11 @@
       <c r="KG51" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KH51" t="n">
+      <c r="KH51" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KI51" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -46528,8 +46681,11 @@
       <c r="KG52" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KH52" t="n">
+      <c r="KH52" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KI52" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -47414,8 +47570,11 @@
       <c r="KG53" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KH53" t="n">
+      <c r="KH53" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="KI53" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -48300,8 +48459,11 @@
       <c r="KG54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KH54" t="n">
+      <c r="KH54" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KI54" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -49186,8 +49348,11 @@
       <c r="KG55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KH55" t="n">
+      <c r="KH55" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KI55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -50072,8 +50237,11 @@
       <c r="KG56" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="KH56" t="n">
+      <c r="KH56" s="2" t="n">
         <v>64.7</v>
+      </c>
+      <c r="KI56" t="n">
+        <v>85.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -50958,8 +51126,11 @@
       <c r="KG57" s="2" t="n">
         <v>195</v>
       </c>
-      <c r="KH57" t="n">
+      <c r="KH57" s="2" t="n">
         <v>211</v>
+      </c>
+      <c r="KI57" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -51844,8 +52015,11 @@
       <c r="KG58" s="2" t="n">
         <v>118</v>
       </c>
-      <c r="KH58" t="n">
+      <c r="KH58" s="2" t="n">
         <v>115</v>
+      </c>
+      <c r="KI58" t="n">
+        <v>159</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -52730,8 +52904,11 @@
       <c r="KG59" s="2" t="n">
         <v>313</v>
       </c>
-      <c r="KH59" t="n">
+      <c r="KH59" s="2" t="n">
         <v>326</v>
+      </c>
+      <c r="KI59" t="n">
+        <v>389</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -53616,8 +53793,11 @@
       <c r="KG60" s="2" t="n">
         <v>1.65</v>
       </c>
-      <c r="KH60" t="n">
+      <c r="KH60" s="2" t="n">
         <v>1.83</v>
+      </c>
+      <c r="KI60" t="n">
+        <v>1.45</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -54502,8 +54682,11 @@
       <c r="KG61" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="KH61" t="n">
+      <c r="KH61" s="2" t="n">
         <v>84</v>
+      </c>
+      <c r="KI61" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -55388,8 +55571,11 @@
       <c r="KG62" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KH62" t="n">
+      <c r="KH62" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="KI62" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -56274,8 +56460,11 @@
       <c r="KG63" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KH63" t="n">
+      <c r="KH63" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KI63" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -57160,8 +57349,11 @@
       <c r="KG64" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KH64" t="n">
+      <c r="KH64" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KI64" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -58046,8 +58238,11 @@
       <c r="KG65" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KH65" t="n">
+      <c r="KH65" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KI65" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -58932,8 +59127,11 @@
       <c r="KG66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KH66" t="n">
+      <c r="KH66" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KI66" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -59818,7 +60016,10 @@
       <c r="KG67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KH67" t="n">
+      <c r="KH67" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KI67" t="n">
         <v>12</v>
       </c>
     </row>
@@ -60704,8 +60905,11 @@
       <c r="KG68" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KH68" t="n">
+      <c r="KH68" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KI68" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -61590,8 +61794,11 @@
       <c r="KG69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KH69" t="n">
+      <c r="KH69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KI69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -62476,8 +62683,11 @@
       <c r="KG70" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KH70" t="n">
+      <c r="KH70" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KI70" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -63362,8 +63572,11 @@
       <c r="KG71" s="2" t="n">
         <v>47.8</v>
       </c>
-      <c r="KH71" t="n">
+      <c r="KH71" s="2" t="n">
         <v>68.2</v>
+      </c>
+      <c r="KI71" t="n">
+        <v>56.2</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -64248,8 +64461,11 @@
       <c r="KG72" s="2" t="n">
         <v>28.45</v>
       </c>
-      <c r="KH72" t="n">
+      <c r="KH72" s="2" t="n">
         <v>21.73</v>
+      </c>
+      <c r="KI72" t="n">
+        <v>21.61</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -65134,8 +65350,11 @@
       <c r="KG73" s="2" t="n">
         <v>13.61</v>
       </c>
-      <c r="KH73" t="n">
+      <c r="KH73" s="2" t="n">
         <v>14.82</v>
+      </c>
+      <c r="KI73" t="n">
+        <v>12.16</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -66020,8 +66239,11 @@
       <c r="KG74" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KH74" t="n">
+      <c r="KH74" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KI74" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -66906,8 +67128,11 @@
       <c r="KG75" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KH75" t="n">
+      <c r="KH75" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KI75" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -67792,8 +68017,11 @@
       <c r="KG76" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KH76" t="n">
+      <c r="KH76" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KI76" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -68678,8 +68906,11 @@
       <c r="KG77" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KH77" t="n">
+      <c r="KH77" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KI77" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -69564,8 +69795,11 @@
       <c r="KG78" s="2" t="n">
         <v>2.39</v>
       </c>
-      <c r="KH78" t="n">
+      <c r="KH78" s="2" t="n">
         <v>2.41</v>
+      </c>
+      <c r="KI78" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -70450,8 +70684,11 @@
       <c r="KG79" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KH79" t="n">
+      <c r="KH79" s="2" t="n">
         <v>3.53</v>
+      </c>
+      <c r="KI79" t="n">
+        <v>3.56</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -71336,8 +71573,11 @@
       <c r="KG80" s="2" t="n">
         <v>34.5</v>
       </c>
-      <c r="KH80" t="n">
+      <c r="KH80" s="2" t="n">
         <v>37.7</v>
+      </c>
+      <c r="KI80" t="n">
+        <v>45.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -72222,8 +72462,11 @@
       <c r="KG81" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KH81" t="n">
+      <c r="KH81" s="2" t="n">
         <v>28.3</v>
+      </c>
+      <c r="KI81" t="n">
+        <v>28.1</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -73108,8 +73351,11 @@
       <c r="KG82" s="2" t="n">
         <v>188.1</v>
       </c>
-      <c r="KH82" t="n">
+      <c r="KH82" s="2" t="n">
         <v>186.9</v>
+      </c>
+      <c r="KI82" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -73994,8 +74240,11 @@
       <c r="KG83" s="2" t="n">
         <v>86.3</v>
       </c>
-      <c r="KH83" t="n">
+      <c r="KH83" s="2" t="n">
         <v>86.90000000000001</v>
+      </c>
+      <c r="KI83" t="n">
+        <v>88.5</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -74880,8 +75129,11 @@
       <c r="KG84" s="2" t="n">
         <v>25.58</v>
       </c>
-      <c r="KH84" t="n">
+      <c r="KH84" s="2" t="n">
         <v>24.74</v>
+      </c>
+      <c r="KI84" t="n">
+        <v>27.49</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -75766,8 +76018,11 @@
       <c r="KG85" s="2" t="n">
         <v>102.4</v>
       </c>
-      <c r="KH85" t="n">
+      <c r="KH85" s="2" t="n">
         <v>88.59999999999999</v>
+      </c>
+      <c r="KI85" t="n">
+        <v>140.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -76652,8 +76907,11 @@
       <c r="KG86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KH86" t="n">
+      <c r="KH86" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KI86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -77538,8 +77796,11 @@
       <c r="KG87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KH87" t="n">
+      <c r="KH87" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KI87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -78424,8 +78685,11 @@
       <c r="KG88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KH88" t="n">
+      <c r="KH88" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KI88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -79310,8 +79574,11 @@
       <c r="KG89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KH89" t="n">
+      <c r="KH89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KI89" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -80196,8 +80463,11 @@
       <c r="KG90" s="2" t="n">
         <v>123</v>
       </c>
-      <c r="KH90" t="n">
+      <c r="KH90" s="2" t="n">
         <v>138</v>
+      </c>
+      <c r="KI90" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -81082,8 +81352,11 @@
       <c r="KG91" s="2" t="n">
         <v>173</v>
       </c>
-      <c r="KH91" t="n">
+      <c r="KH91" s="2" t="n">
         <v>179</v>
+      </c>
+      <c r="KI91" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -81968,8 +82241,11 @@
       <c r="KG92" s="2" t="n">
         <v>225</v>
       </c>
-      <c r="KH92" t="n">
+      <c r="KH92" s="2" t="n">
         <v>242</v>
+      </c>
+      <c r="KI92" t="n">
+        <v>276</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -82854,8 +83130,11 @@
       <c r="KG93" s="2" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="KH93" t="n">
+      <c r="KH93" s="2" t="n">
         <v>74.2</v>
+      </c>
+      <c r="KI93" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -83740,8 +84019,11 @@
       <c r="KG94" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KH94" t="n">
+      <c r="KH94" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KI94" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -84626,8 +84908,11 @@
       <c r="KG95" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KH95" t="n">
+      <c r="KH95" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KI95" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -85512,8 +85797,11 @@
       <c r="KG96" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KH96" t="n">
+      <c r="KH96" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KI96" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -86398,8 +86686,11 @@
       <c r="KG97" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KH97" t="n">
+      <c r="KH97" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KI97" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -87284,8 +87575,11 @@
       <c r="KG98" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KH98" t="n">
+      <c r="KH98" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KI98" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -88170,8 +88464,11 @@
       <c r="KG99" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KH99" t="n">
+      <c r="KH99" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KI99" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -89056,8 +89353,11 @@
       <c r="KG100" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KH100" t="n">
+      <c r="KH100" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KI100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -89942,7 +90242,10 @@
       <c r="KG101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KH101" t="n">
+      <c r="KH101" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KI101" t="n">
         <v>12</v>
       </c>
     </row>
@@ -90828,8 +91131,11 @@
       <c r="KG102" s="2" t="n">
         <v>54.5</v>
       </c>
-      <c r="KH102" t="n">
+      <c r="KH102" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="KI102" t="n">
+        <v>66.7</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Essendon_stats.xlsx
+++ b/AFL_ML/Data/Essendon_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KI102"/>
+  <dimension ref="A1:KJ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JQ85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JY94" activeCellId="0" sqref="JY94"/>
@@ -1345,8 +1345,11 @@
       <c r="KH1" s="2" t="n">
         <v>10887</v>
       </c>
-      <c r="KI1" t="n">
+      <c r="KI1" s="2" t="n">
         <v>10897</v>
+      </c>
+      <c r="KJ1" t="n">
+        <v>10906</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2234,7 +2237,10 @@
       <c r="KH2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KI2" t="n">
+      <c r="KI2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KJ2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3123,8 +3129,11 @@
       <c r="KH3" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KI3" t="n">
+      <c r="KI3" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4012,8 +4021,11 @@
       <c r="KH4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KI4" t="n">
+      <c r="KI4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4901,8 +4913,11 @@
       <c r="KH5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KI5" t="n">
+      <c r="KI5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KJ5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5790,8 +5805,11 @@
       <c r="KH6" s="2" t="n">
         <v>115</v>
       </c>
-      <c r="KI6" t="n">
+      <c r="KI6" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KJ6" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6679,8 +6697,11 @@
       <c r="KH7" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="KI7" t="n">
+      <c r="KI7" s="2" t="n">
         <v>122</v>
+      </c>
+      <c r="KJ7" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7568,8 +7589,11 @@
       <c r="KH8" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KI8" t="n">
+      <c r="KI8" s="2" t="n">
         <v>-77</v>
+      </c>
+      <c r="KJ8" t="n">
+        <v>-41</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8457,7 +8481,10 @@
       <c r="KH9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KI9" t="n">
+      <c r="KI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9346,8 +9373,11 @@
       <c r="KH10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KI10" t="n">
+      <c r="KI10" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KJ10" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10235,8 +10265,11 @@
       <c r="KH11" s="2" t="n">
         <v>228</v>
       </c>
-      <c r="KI11" t="n">
+      <c r="KI11" s="2" t="n">
         <v>215</v>
+      </c>
+      <c r="KJ11" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11124,8 +11157,11 @@
       <c r="KH12" s="2" t="n">
         <v>197</v>
       </c>
-      <c r="KI12" t="n">
+      <c r="KI12" s="2" t="n">
         <v>143</v>
+      </c>
+      <c r="KJ12" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12013,8 +12049,11 @@
       <c r="KH13" s="2" t="n">
         <v>425</v>
       </c>
-      <c r="KI13" t="n">
+      <c r="KI13" s="2" t="n">
         <v>358</v>
+      </c>
+      <c r="KJ13" t="n">
+        <v>369</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12902,8 +12941,11 @@
       <c r="KH14" s="2" t="n">
         <v>1.16</v>
       </c>
-      <c r="KI14" t="n">
+      <c r="KI14" s="2" t="n">
         <v>1.5</v>
+      </c>
+      <c r="KJ14" t="n">
+        <v>1.91</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13791,8 +13833,11 @@
       <c r="KH15" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="KI15" t="n">
+      <c r="KI15" s="2" t="n">
         <v>82</v>
+      </c>
+      <c r="KJ15" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14680,8 +14725,11 @@
       <c r="KH16" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KI16" t="n">
+      <c r="KI16" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KJ16" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15569,8 +15617,11 @@
       <c r="KH17" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="KI17" t="n">
+      <c r="KI17" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KJ17" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16458,8 +16509,11 @@
       <c r="KH18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KI18" t="n">
+      <c r="KI18" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KJ18" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17347,8 +17401,11 @@
       <c r="KH19" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KI19" t="n">
+      <c r="KI19" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KJ19" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18236,7 +18293,10 @@
       <c r="KH20" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KI20" t="n">
+      <c r="KI20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KJ20" t="n">
         <v>7</v>
       </c>
     </row>
@@ -19125,8 +19185,11 @@
       <c r="KH21" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KI21" t="n">
+      <c r="KI21" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KJ21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20014,8 +20077,11 @@
       <c r="KH22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KI22" t="n">
+      <c r="KI22" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KJ22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -20903,8 +20969,11 @@
       <c r="KH23" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KI23" t="n">
+      <c r="KI23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KJ23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -21792,8 +21861,11 @@
       <c r="KH24" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KI24" t="n">
+      <c r="KI24" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KJ24" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -22681,8 +22753,11 @@
       <c r="KH25" s="2" t="n">
         <v>56.7</v>
       </c>
-      <c r="KI25" t="n">
+      <c r="KI25" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="KJ25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -23570,8 +23645,11 @@
       <c r="KH26" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KI26" t="n">
+      <c r="KI26" s="2" t="n">
         <v>51.14</v>
+      </c>
+      <c r="KJ26" t="n">
+        <v>52.71</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24459,8 +24537,11 @@
       <c r="KH27" s="2" t="n">
         <v>14.17</v>
       </c>
-      <c r="KI27" t="n">
+      <c r="KI27" s="2" t="n">
         <v>35.8</v>
+      </c>
+      <c r="KJ27" t="n">
+        <v>26.36</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25348,8 +25429,11 @@
       <c r="KH28" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KI28" t="n">
+      <c r="KI28" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KJ28" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26237,8 +26321,11 @@
       <c r="KH29" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KI29" t="n">
+      <c r="KI29" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="KJ29" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27126,8 +27213,11 @@
       <c r="KH30" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KI30" t="n">
+      <c r="KI30" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KJ30" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28015,8 +28105,11 @@
       <c r="KH31" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KI31" t="n">
+      <c r="KI31" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="KJ31" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -28904,8 +28997,11 @@
       <c r="KH32" s="2" t="n">
         <v>1.93</v>
       </c>
-      <c r="KI32" t="n">
+      <c r="KI32" s="2" t="n">
         <v>2.8</v>
+      </c>
+      <c r="KJ32" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -29793,8 +29889,11 @@
       <c r="KH33" s="2" t="n">
         <v>3.41</v>
       </c>
-      <c r="KI33" t="n">
+      <c r="KI33" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KJ33" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -30682,8 +30781,11 @@
       <c r="KH34" s="2" t="n">
         <v>41.4</v>
       </c>
-      <c r="KI34" t="n">
+      <c r="KI34" s="2" t="n">
         <v>28.6</v>
+      </c>
+      <c r="KJ34" t="n">
+        <v>26.5</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -31571,8 +31673,11 @@
       <c r="KH35" s="2" t="n">
         <v>29.3</v>
       </c>
-      <c r="KI35" t="n">
+      <c r="KI35" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KJ35" t="n">
+        <v>14.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -32460,8 +32565,11 @@
       <c r="KH36" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="KI36" t="n">
+      <c r="KI36" s="2" t="n">
         <v>188</v>
+      </c>
+      <c r="KJ36" t="n">
+        <v>189.1</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -33349,8 +33457,11 @@
       <c r="KH37" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="KI37" t="n">
+      <c r="KI37" s="2" t="n">
         <v>86.7</v>
+      </c>
+      <c r="KJ37" t="n">
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -34238,8 +34349,11 @@
       <c r="KH38" s="2" t="n">
         <v>25.74</v>
       </c>
-      <c r="KI38" t="n">
+      <c r="KI38" s="2" t="n">
         <v>25.24</v>
+      </c>
+      <c r="KJ38" t="n">
+        <v>25.58</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35127,8 +35241,11 @@
       <c r="KH39" s="2" t="n">
         <v>101.1</v>
       </c>
-      <c r="KI39" t="n">
+      <c r="KI39" s="2" t="n">
         <v>93.2</v>
+      </c>
+      <c r="KJ39" t="n">
+        <v>94.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36016,7 +36133,10 @@
       <c r="KH40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KI40" t="n">
+      <c r="KI40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KJ40" t="n">
         <v>6</v>
       </c>
     </row>
@@ -36905,7 +37025,10 @@
       <c r="KH41" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KI41" t="n">
+      <c r="KI41" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KJ41" t="n">
         <v>8</v>
       </c>
     </row>
@@ -37794,7 +37917,10 @@
       <c r="KH42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KI42" t="n">
+      <c r="KI42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KJ42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -38683,7 +38809,10 @@
       <c r="KH43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KI43" t="n">
+      <c r="KI43" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KJ43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -39572,8 +39701,11 @@
       <c r="KH44" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="KI44" t="n">
+      <c r="KI44" s="2" t="n">
         <v>128</v>
+      </c>
+      <c r="KJ44" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -40461,8 +40593,11 @@
       <c r="KH45" s="2" t="n">
         <v>269</v>
       </c>
-      <c r="KI45" t="n">
+      <c r="KI45" s="2" t="n">
         <v>199</v>
+      </c>
+      <c r="KJ45" t="n">
+        <v>255</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -41350,8 +41485,11 @@
       <c r="KH46" s="2" t="n">
         <v>314</v>
       </c>
-      <c r="KI46" t="n">
+      <c r="KI46" s="2" t="n">
         <v>244</v>
+      </c>
+      <c r="KJ46" t="n">
+        <v>298</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -42239,8 +42377,11 @@
       <c r="KH47" s="2" t="n">
         <v>73.90000000000001</v>
       </c>
-      <c r="KI47" t="n">
+      <c r="KI47" s="2" t="n">
         <v>68.2</v>
+      </c>
+      <c r="KJ47" t="n">
+        <v>80.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -43128,8 +43269,11 @@
       <c r="KH48" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KI48" t="n">
+      <c r="KI48" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="KJ48" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -44017,8 +44161,11 @@
       <c r="KH49" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KI49" t="n">
+      <c r="KI49" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KJ49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -44906,8 +45053,11 @@
       <c r="KH50" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KI50" t="n">
+      <c r="KI50" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KJ50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -45795,8 +45945,11 @@
       <c r="KH51" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KI51" t="n">
+      <c r="KI51" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KJ51" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -46684,8 +46837,11 @@
       <c r="KH52" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KI52" t="n">
+      <c r="KI52" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KJ52" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -47573,8 +47729,11 @@
       <c r="KH53" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="KI53" t="n">
+      <c r="KI53" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KJ53" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -48462,7 +48621,10 @@
       <c r="KH54" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KI54" t="n">
+      <c r="KI54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KJ54" t="n">
         <v>8</v>
       </c>
     </row>
@@ -49351,8 +49513,11 @@
       <c r="KH55" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KI55" t="n">
+      <c r="KI55" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KJ55" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -50240,8 +50405,11 @@
       <c r="KH56" s="2" t="n">
         <v>64.7</v>
       </c>
-      <c r="KI56" t="n">
+      <c r="KI56" s="2" t="n">
         <v>85.7</v>
+      </c>
+      <c r="KJ56" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -51129,8 +51297,11 @@
       <c r="KH57" s="2" t="n">
         <v>211</v>
       </c>
-      <c r="KI57" t="n">
+      <c r="KI57" s="2" t="n">
         <v>230</v>
+      </c>
+      <c r="KJ57" t="n">
+        <v>228</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -52018,8 +52189,11 @@
       <c r="KH58" s="2" t="n">
         <v>115</v>
       </c>
-      <c r="KI58" t="n">
+      <c r="KI58" s="2" t="n">
         <v>159</v>
+      </c>
+      <c r="KJ58" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -52907,8 +53081,11 @@
       <c r="KH59" s="2" t="n">
         <v>326</v>
       </c>
-      <c r="KI59" t="n">
+      <c r="KI59" s="2" t="n">
         <v>389</v>
+      </c>
+      <c r="KJ59" t="n">
+        <v>372</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -53796,8 +53973,11 @@
       <c r="KH60" s="2" t="n">
         <v>1.83</v>
       </c>
-      <c r="KI60" t="n">
+      <c r="KI60" s="2" t="n">
         <v>1.45</v>
+      </c>
+      <c r="KJ60" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -54685,8 +54865,11 @@
       <c r="KH61" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="KI61" t="n">
+      <c r="KI61" s="2" t="n">
         <v>107</v>
+      </c>
+      <c r="KJ61" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -55574,8 +55757,11 @@
       <c r="KH62" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="KI62" t="n">
+      <c r="KI62" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KJ62" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -56463,8 +56649,11 @@
       <c r="KH63" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KI63" t="n">
+      <c r="KI63" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KJ63" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -57352,8 +57541,11 @@
       <c r="KH64" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KI64" t="n">
+      <c r="KI64" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KJ64" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -58241,8 +58433,11 @@
       <c r="KH65" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KI65" t="n">
+      <c r="KI65" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KJ65" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -59130,8 +59325,11 @@
       <c r="KH66" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KI66" t="n">
+      <c r="KI66" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KJ66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -60019,8 +60217,11 @@
       <c r="KH67" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KI67" t="n">
+      <c r="KI67" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KJ67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -60908,8 +61109,11 @@
       <c r="KH68" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KI68" t="n">
+      <c r="KI68" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KJ68" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -61797,7 +62001,10 @@
       <c r="KH69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KI69" t="n">
+      <c r="KI69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KJ69" t="n">
         <v>3</v>
       </c>
     </row>
@@ -62686,8 +62893,11 @@
       <c r="KH70" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KI70" t="n">
+      <c r="KI70" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KJ70" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -63575,8 +63785,11 @@
       <c r="KH71" s="2" t="n">
         <v>68.2</v>
       </c>
-      <c r="KI71" t="n">
+      <c r="KI71" s="2" t="n">
         <v>56.2</v>
+      </c>
+      <c r="KJ71" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -64464,8 +64677,11 @@
       <c r="KH72" s="2" t="n">
         <v>21.73</v>
       </c>
-      <c r="KI72" t="n">
+      <c r="KI72" s="2" t="n">
         <v>21.61</v>
+      </c>
+      <c r="KJ72" t="n">
+        <v>28.62</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -65353,8 +65569,11 @@
       <c r="KH73" s="2" t="n">
         <v>14.82</v>
       </c>
-      <c r="KI73" t="n">
+      <c r="KI73" s="2" t="n">
         <v>12.16</v>
+      </c>
+      <c r="KJ73" t="n">
+        <v>14.88</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -66242,8 +66461,11 @@
       <c r="KH74" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KI74" t="n">
+      <c r="KI74" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KJ74" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -67131,8 +67353,11 @@
       <c r="KH75" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KI75" t="n">
+      <c r="KI75" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KJ75" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -68020,8 +68245,11 @@
       <c r="KH76" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KI76" t="n">
+      <c r="KI76" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KJ76" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -68909,8 +69137,11 @@
       <c r="KH77" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KI77" t="n">
+      <c r="KI77" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KJ77" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -69798,8 +70029,11 @@
       <c r="KH78" s="2" t="n">
         <v>2.41</v>
       </c>
-      <c r="KI78" t="n">
+      <c r="KI78" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KJ78" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -70687,8 +70921,11 @@
       <c r="KH79" s="2" t="n">
         <v>3.53</v>
       </c>
-      <c r="KI79" t="n">
+      <c r="KI79" s="2" t="n">
         <v>3.56</v>
+      </c>
+      <c r="KJ79" t="n">
+        <v>3.77</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -71576,8 +71813,11 @@
       <c r="KH80" s="2" t="n">
         <v>37.7</v>
       </c>
-      <c r="KI80" t="n">
+      <c r="KI80" s="2" t="n">
         <v>45.3</v>
+      </c>
+      <c r="KJ80" t="n">
+        <v>44.9</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -72465,8 +72705,11 @@
       <c r="KH81" s="2" t="n">
         <v>28.3</v>
       </c>
-      <c r="KI81" t="n">
+      <c r="KI81" s="2" t="n">
         <v>28.1</v>
+      </c>
+      <c r="KJ81" t="n">
+        <v>26.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -73354,8 +73597,11 @@
       <c r="KH82" s="2" t="n">
         <v>186.9</v>
       </c>
-      <c r="KI82" t="n">
+      <c r="KI82" s="2" t="n">
         <v>189</v>
+      </c>
+      <c r="KJ82" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -74243,8 +74489,11 @@
       <c r="KH83" s="2" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="KI83" t="n">
+      <c r="KI83" s="2" t="n">
         <v>88.5</v>
+      </c>
+      <c r="KJ83" t="n">
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -75132,8 +75381,11 @@
       <c r="KH84" s="2" t="n">
         <v>24.74</v>
       </c>
-      <c r="KI84" t="n">
+      <c r="KI84" s="2" t="n">
         <v>27.49</v>
+      </c>
+      <c r="KJ84" t="n">
+        <v>26.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -76021,8 +76273,11 @@
       <c r="KH85" s="2" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="KI85" t="n">
+      <c r="KI85" s="2" t="n">
         <v>140.8</v>
+      </c>
+      <c r="KJ85" t="n">
+        <v>108.3</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -76910,8 +77165,11 @@
       <c r="KH86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KI86" t="n">
+      <c r="KI86" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KJ86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -77799,8 +78057,11 @@
       <c r="KH87" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KI87" t="n">
+      <c r="KI87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KJ87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -78688,8 +78949,11 @@
       <c r="KH88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KI88" t="n">
+      <c r="KI88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KJ88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -79577,8 +79841,11 @@
       <c r="KH89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KI89" t="n">
+      <c r="KI89" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KJ89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -80466,8 +80733,11 @@
       <c r="KH90" s="2" t="n">
         <v>138</v>
       </c>
-      <c r="KI90" t="n">
+      <c r="KI90" s="2" t="n">
         <v>156</v>
+      </c>
+      <c r="KJ90" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -81355,8 +81625,11 @@
       <c r="KH91" s="2" t="n">
         <v>179</v>
       </c>
-      <c r="KI91" t="n">
+      <c r="KI91" s="2" t="n">
         <v>232</v>
+      </c>
+      <c r="KJ91" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -82244,8 +82517,11 @@
       <c r="KH92" s="2" t="n">
         <v>242</v>
       </c>
-      <c r="KI92" t="n">
+      <c r="KI92" s="2" t="n">
         <v>276</v>
+      </c>
+      <c r="KJ92" t="n">
+        <v>273</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -83133,8 +83409,11 @@
       <c r="KH93" s="2" t="n">
         <v>74.2</v>
       </c>
-      <c r="KI93" t="n">
+      <c r="KI93" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="KJ93" t="n">
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -84022,8 +84301,11 @@
       <c r="KH94" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KI94" t="n">
+      <c r="KI94" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KJ94" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -84911,8 +85193,11 @@
       <c r="KH95" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KI95" t="n">
+      <c r="KI95" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KJ95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -85800,8 +86085,11 @@
       <c r="KH96" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KI96" t="n">
+      <c r="KI96" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KJ96" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -86689,8 +86977,11 @@
       <c r="KH97" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KI97" t="n">
+      <c r="KI97" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KJ97" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -87578,8 +87869,11 @@
       <c r="KH98" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KI98" t="n">
+      <c r="KI98" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KJ98" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -88467,8 +88761,11 @@
       <c r="KH99" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KI99" t="n">
+      <c r="KI99" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KJ99" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -89356,8 +89653,11 @@
       <c r="KH100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KI100" t="n">
+      <c r="KI100" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KJ100" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -90245,8 +90545,11 @@
       <c r="KH101" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KI101" t="n">
+      <c r="KI101" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KJ101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -91134,8 +91437,11 @@
       <c r="KH102" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="KI102" t="n">
+      <c r="KI102" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="KJ102" t="n">
+        <v>61.5</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Essendon_stats.xlsx
+++ b/AFL_ML/Data/Essendon_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KJ102"/>
+  <dimension ref="A1:KK102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JQ85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JY94" activeCellId="0" sqref="JY94"/>
@@ -1348,8 +1348,11 @@
       <c r="KI1" s="2" t="n">
         <v>10897</v>
       </c>
-      <c r="KJ1" t="n">
+      <c r="KJ1" s="2" t="n">
         <v>10906</v>
+      </c>
+      <c r="KK1" t="n">
+        <v>10914</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2240,7 +2243,10 @@
       <c r="KI2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KJ2" t="n">
+      <c r="KJ2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KK2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3132,8 +3138,11 @@
       <c r="KI3" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KJ3" t="n">
+      <c r="KJ3" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4024,7 +4033,10 @@
       <c r="KI4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KJ4" t="n">
+      <c r="KJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4916,7 +4928,10 @@
       <c r="KI5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KJ5" t="n">
+      <c r="KJ5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KK5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5808,8 +5823,11 @@
       <c r="KI6" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KJ6" t="n">
+      <c r="KJ6" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KK6" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6700,8 +6718,11 @@
       <c r="KI7" s="2" t="n">
         <v>122</v>
       </c>
-      <c r="KJ7" t="n">
+      <c r="KJ7" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="KK7" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7592,8 +7613,11 @@
       <c r="KI8" s="2" t="n">
         <v>-77</v>
       </c>
-      <c r="KJ8" t="n">
+      <c r="KJ8" s="2" t="n">
         <v>-41</v>
+      </c>
+      <c r="KK8" t="n">
+        <v>-2</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8484,7 +8508,10 @@
       <c r="KI9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KJ9" t="n">
+      <c r="KJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9376,8 +9403,11 @@
       <c r="KI10" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KJ10" t="n">
+      <c r="KJ10" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KK10" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10268,8 +10298,11 @@
       <c r="KI11" s="2" t="n">
         <v>215</v>
       </c>
-      <c r="KJ11" t="n">
+      <c r="KJ11" s="2" t="n">
         <v>242</v>
+      </c>
+      <c r="KK11" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11160,8 +11193,11 @@
       <c r="KI12" s="2" t="n">
         <v>143</v>
       </c>
-      <c r="KJ12" t="n">
+      <c r="KJ12" s="2" t="n">
         <v>127</v>
+      </c>
+      <c r="KK12" t="n">
+        <v>164</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12052,7 +12088,10 @@
       <c r="KI13" s="2" t="n">
         <v>358</v>
       </c>
-      <c r="KJ13" t="n">
+      <c r="KJ13" s="2" t="n">
+        <v>369</v>
+      </c>
+      <c r="KK13" t="n">
         <v>369</v>
       </c>
     </row>
@@ -12944,8 +12983,11 @@
       <c r="KI14" s="2" t="n">
         <v>1.5</v>
       </c>
-      <c r="KJ14" t="n">
+      <c r="KJ14" s="2" t="n">
         <v>1.91</v>
+      </c>
+      <c r="KK14" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13836,8 +13878,11 @@
       <c r="KI15" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="KJ15" t="n">
+      <c r="KJ15" s="2" t="n">
         <v>136</v>
+      </c>
+      <c r="KK15" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14728,8 +14773,11 @@
       <c r="KI16" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KJ16" t="n">
+      <c r="KJ16" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="KK16" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15620,8 +15668,11 @@
       <c r="KI17" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KJ17" t="n">
+      <c r="KJ17" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KK17" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16512,8 +16563,11 @@
       <c r="KI18" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KJ18" t="n">
+      <c r="KJ18" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KK18" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17404,8 +17458,11 @@
       <c r="KI19" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KJ19" t="n">
+      <c r="KJ19" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KK19" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18296,8 +18353,11 @@
       <c r="KI20" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KJ20" t="n">
+      <c r="KJ20" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KK20" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19188,8 +19248,11 @@
       <c r="KI21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KJ21" t="n">
+      <c r="KJ21" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KK21" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20080,7 +20143,10 @@
       <c r="KI22" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KJ22" t="n">
+      <c r="KJ22" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KK22" t="n">
         <v>6</v>
       </c>
     </row>
@@ -20972,8 +21038,11 @@
       <c r="KI23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KJ23" t="n">
+      <c r="KJ23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KK23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -21864,8 +21933,11 @@
       <c r="KI24" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KJ24" t="n">
+      <c r="KJ24" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KK24" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -22756,8 +22828,11 @@
       <c r="KI25" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="KJ25" t="n">
+      <c r="KJ25" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KK25" t="n">
+        <v>62.5</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -23648,8 +23723,11 @@
       <c r="KI26" s="2" t="n">
         <v>51.14</v>
       </c>
-      <c r="KJ26" t="n">
+      <c r="KJ26" s="2" t="n">
         <v>52.71</v>
+      </c>
+      <c r="KK26" t="n">
+        <v>24.6</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24540,8 +24618,11 @@
       <c r="KI27" s="2" t="n">
         <v>35.8</v>
       </c>
-      <c r="KJ27" t="n">
+      <c r="KJ27" s="2" t="n">
         <v>26.36</v>
+      </c>
+      <c r="KK27" t="n">
+        <v>15.38</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25432,8 +25513,11 @@
       <c r="KI28" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KJ28" t="n">
+      <c r="KJ28" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="KK28" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26324,8 +26408,11 @@
       <c r="KI29" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KJ29" t="n">
+      <c r="KJ29" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KK29" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27216,8 +27303,11 @@
       <c r="KI30" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KJ30" t="n">
+      <c r="KJ30" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KK30" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28108,8 +28198,11 @@
       <c r="KI31" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KJ31" t="n">
+      <c r="KJ31" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KK31" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29000,8 +29093,11 @@
       <c r="KI32" s="2" t="n">
         <v>2.8</v>
       </c>
-      <c r="KJ32" t="n">
+      <c r="KJ32" s="2" t="n">
         <v>3.5</v>
+      </c>
+      <c r="KK32" t="n">
+        <v>2.88</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -29892,8 +29988,11 @@
       <c r="KI33" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KJ33" t="n">
+      <c r="KJ33" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KK33" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -30784,8 +30883,11 @@
       <c r="KI34" s="2" t="n">
         <v>28.6</v>
       </c>
-      <c r="KJ34" t="n">
+      <c r="KJ34" s="2" t="n">
         <v>26.5</v>
+      </c>
+      <c r="KK34" t="n">
+        <v>30.4</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -31676,8 +31778,11 @@
       <c r="KI35" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KJ35" t="n">
+      <c r="KJ35" s="2" t="n">
         <v>14.3</v>
+      </c>
+      <c r="KK35" t="n">
+        <v>21.7</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -32568,8 +32673,11 @@
       <c r="KI36" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="KJ36" t="n">
+      <c r="KJ36" s="2" t="n">
         <v>189.1</v>
+      </c>
+      <c r="KK36" t="n">
+        <v>187.9</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -33460,8 +33568,11 @@
       <c r="KI37" s="2" t="n">
         <v>86.7</v>
       </c>
-      <c r="KJ37" t="n">
+      <c r="KJ37" s="2" t="n">
         <v>87.40000000000001</v>
+      </c>
+      <c r="KK37" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -34352,8 +34463,11 @@
       <c r="KI38" s="2" t="n">
         <v>25.24</v>
       </c>
-      <c r="KJ38" t="n">
+      <c r="KJ38" s="2" t="n">
         <v>25.58</v>
+      </c>
+      <c r="KK38" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35244,8 +35358,11 @@
       <c r="KI39" s="2" t="n">
         <v>93.2</v>
       </c>
-      <c r="KJ39" t="n">
+      <c r="KJ39" s="2" t="n">
         <v>94.7</v>
+      </c>
+      <c r="KK39" t="n">
+        <v>84.90000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36136,8 +36253,11 @@
       <c r="KI40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KJ40" t="n">
+      <c r="KJ40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KK40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -37028,8 +37148,11 @@
       <c r="KI41" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KJ41" t="n">
+      <c r="KJ41" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KK41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -37920,7 +38043,10 @@
       <c r="KI42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KJ42" t="n">
+      <c r="KJ42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KK42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -38812,8 +38938,11 @@
       <c r="KI43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KJ43" t="n">
+      <c r="KJ43" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KK43" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -39704,8 +39833,11 @@
       <c r="KI44" s="2" t="n">
         <v>128</v>
       </c>
-      <c r="KJ44" t="n">
+      <c r="KJ44" s="2" t="n">
         <v>114</v>
+      </c>
+      <c r="KK44" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -40596,8 +40728,11 @@
       <c r="KI45" s="2" t="n">
         <v>199</v>
       </c>
-      <c r="KJ45" t="n">
+      <c r="KJ45" s="2" t="n">
         <v>255</v>
+      </c>
+      <c r="KK45" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -41488,8 +41623,11 @@
       <c r="KI46" s="2" t="n">
         <v>244</v>
       </c>
-      <c r="KJ46" t="n">
+      <c r="KJ46" s="2" t="n">
         <v>298</v>
+      </c>
+      <c r="KK46" t="n">
+        <v>269</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -42380,8 +42518,11 @@
       <c r="KI47" s="2" t="n">
         <v>68.2</v>
       </c>
-      <c r="KJ47" t="n">
+      <c r="KJ47" s="2" t="n">
         <v>80.8</v>
+      </c>
+      <c r="KK47" t="n">
+        <v>72.90000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -43272,8 +43413,11 @@
       <c r="KI48" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KJ48" t="n">
+      <c r="KJ48" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KK48" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -44164,7 +44308,10 @@
       <c r="KI49" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KJ49" t="n">
+      <c r="KJ49" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KK49" t="n">
         <v>9</v>
       </c>
     </row>
@@ -45056,8 +45203,11 @@
       <c r="KI50" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KJ50" t="n">
+      <c r="KJ50" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KK50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -45948,8 +46098,11 @@
       <c r="KI51" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KJ51" t="n">
+      <c r="KJ51" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="KK51" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -46840,8 +46993,11 @@
       <c r="KI52" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KJ52" t="n">
+      <c r="KJ52" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KK52" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -47732,8 +47888,11 @@
       <c r="KI53" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KJ53" t="n">
+      <c r="KJ53" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KK53" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -48624,8 +48783,11 @@
       <c r="KI54" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KJ54" t="n">
+      <c r="KJ54" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KK54" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -49516,8 +49678,11 @@
       <c r="KI55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KJ55" t="n">
+      <c r="KJ55" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KK55" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -50408,8 +50573,11 @@
       <c r="KI56" s="2" t="n">
         <v>85.7</v>
       </c>
-      <c r="KJ56" t="n">
+      <c r="KJ56" s="2" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="KK56" t="n">
+        <v>73.3</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -51300,8 +51468,11 @@
       <c r="KI57" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="KJ57" t="n">
+      <c r="KJ57" s="2" t="n">
         <v>228</v>
+      </c>
+      <c r="KK57" t="n">
+        <v>222</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -52192,8 +52363,11 @@
       <c r="KI58" s="2" t="n">
         <v>159</v>
       </c>
-      <c r="KJ58" t="n">
+      <c r="KJ58" s="2" t="n">
         <v>144</v>
+      </c>
+      <c r="KK58" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -53084,8 +53258,11 @@
       <c r="KI59" s="2" t="n">
         <v>389</v>
       </c>
-      <c r="KJ59" t="n">
+      <c r="KJ59" s="2" t="n">
         <v>372</v>
+      </c>
+      <c r="KK59" t="n">
+        <v>392</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -53976,8 +54153,11 @@
       <c r="KI60" s="2" t="n">
         <v>1.45</v>
       </c>
-      <c r="KJ60" t="n">
+      <c r="KJ60" s="2" t="n">
         <v>1.58</v>
+      </c>
+      <c r="KK60" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -54868,8 +55048,11 @@
       <c r="KI61" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="KJ61" t="n">
+      <c r="KJ61" s="2" t="n">
         <v>91</v>
+      </c>
+      <c r="KK61" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -55760,8 +55943,11 @@
       <c r="KI62" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KJ62" t="n">
+      <c r="KJ62" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KK62" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -56652,8 +56838,11 @@
       <c r="KI63" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KJ63" t="n">
+      <c r="KJ63" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KK63" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -57544,8 +57733,11 @@
       <c r="KI64" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KJ64" t="n">
+      <c r="KJ64" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KK64" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -58436,8 +58628,11 @@
       <c r="KI65" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KJ65" t="n">
+      <c r="KJ65" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KK65" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -59328,8 +59523,11 @@
       <c r="KI66" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KJ66" t="n">
+      <c r="KJ66" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KK66" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -60220,8 +60418,11 @@
       <c r="KI67" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KJ67" t="n">
+      <c r="KJ67" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KK67" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -61112,7 +61313,10 @@
       <c r="KI68" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KJ68" t="n">
+      <c r="KJ68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KK68" t="n">
         <v>9</v>
       </c>
     </row>
@@ -62004,8 +62208,11 @@
       <c r="KI69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KJ69" t="n">
+      <c r="KJ69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KK69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -62896,8 +63103,11 @@
       <c r="KI70" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KJ70" t="n">
+      <c r="KJ70" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KK70" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -63788,8 +63998,11 @@
       <c r="KI71" s="2" t="n">
         <v>56.2</v>
       </c>
-      <c r="KJ71" t="n">
+      <c r="KJ71" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KK71" t="n">
+        <v>57.7</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -64680,8 +64893,11 @@
       <c r="KI72" s="2" t="n">
         <v>21.61</v>
       </c>
-      <c r="KJ72" t="n">
+      <c r="KJ72" s="2" t="n">
         <v>28.62</v>
+      </c>
+      <c r="KK72" t="n">
+        <v>26.13</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -65572,8 +65788,11 @@
       <c r="KI73" s="2" t="n">
         <v>12.16</v>
       </c>
-      <c r="KJ73" t="n">
+      <c r="KJ73" s="2" t="n">
         <v>14.88</v>
+      </c>
+      <c r="KK73" t="n">
+        <v>15.08</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -66464,8 +66683,11 @@
       <c r="KI74" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KJ74" t="n">
+      <c r="KJ74" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KK74" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -67356,7 +67578,10 @@
       <c r="KI75" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KJ75" t="n">
+      <c r="KJ75" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KK75" t="n">
         <v>47</v>
       </c>
     </row>
@@ -68248,8 +68473,11 @@
       <c r="KI76" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KJ76" t="n">
+      <c r="KJ76" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KK76" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -69140,8 +69368,11 @@
       <c r="KI77" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KJ77" t="n">
+      <c r="KJ77" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KK77" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -70032,8 +70263,11 @@
       <c r="KI78" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KJ78" t="n">
+      <c r="KJ78" s="2" t="n">
         <v>1.96</v>
+      </c>
+      <c r="KK78" t="n">
+        <v>1.81</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -70924,8 +71158,11 @@
       <c r="KI79" s="2" t="n">
         <v>3.56</v>
       </c>
-      <c r="KJ79" t="n">
+      <c r="KJ79" s="2" t="n">
         <v>3.77</v>
+      </c>
+      <c r="KK79" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -71816,8 +72053,11 @@
       <c r="KI80" s="2" t="n">
         <v>45.3</v>
       </c>
-      <c r="KJ80" t="n">
+      <c r="KJ80" s="2" t="n">
         <v>44.9</v>
+      </c>
+      <c r="KK80" t="n">
+        <v>51.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -72708,8 +72948,11 @@
       <c r="KI81" s="2" t="n">
         <v>28.1</v>
       </c>
-      <c r="KJ81" t="n">
+      <c r="KJ81" s="2" t="n">
         <v>26.5</v>
+      </c>
+      <c r="KK81" t="n">
+        <v>31.9</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -73600,8 +73843,11 @@
       <c r="KI82" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="KJ82" t="n">
+      <c r="KJ82" s="2" t="n">
         <v>188.3</v>
+      </c>
+      <c r="KK82" t="n">
+        <v>186.6</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -74492,8 +74738,11 @@
       <c r="KI83" s="2" t="n">
         <v>88.5</v>
       </c>
-      <c r="KJ83" t="n">
+      <c r="KJ83" s="2" t="n">
         <v>86.59999999999999</v>
+      </c>
+      <c r="KK83" t="n">
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -75384,8 +75633,11 @@
       <c r="KI84" s="2" t="n">
         <v>27.49</v>
       </c>
-      <c r="KJ84" t="n">
+      <c r="KJ84" s="2" t="n">
         <v>26.24</v>
+      </c>
+      <c r="KK84" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -76276,8 +76528,11 @@
       <c r="KI85" s="2" t="n">
         <v>140.8</v>
       </c>
-      <c r="KJ85" t="n">
+      <c r="KJ85" s="2" t="n">
         <v>108.3</v>
+      </c>
+      <c r="KK85" t="n">
+        <v>124.4</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -77168,8 +77423,11 @@
       <c r="KI86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KJ86" t="n">
+      <c r="KJ86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KK86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -78060,8 +78318,11 @@
       <c r="KI87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KJ87" t="n">
+      <c r="KJ87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KK87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -78952,8 +79213,11 @@
       <c r="KI88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KJ88" t="n">
+      <c r="KJ88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KK88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -79844,8 +80108,11 @@
       <c r="KI89" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KJ89" t="n">
+      <c r="KJ89" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KK89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -80736,8 +81003,11 @@
       <c r="KI90" s="2" t="n">
         <v>156</v>
       </c>
-      <c r="KJ90" t="n">
+      <c r="KJ90" s="2" t="n">
         <v>144</v>
+      </c>
+      <c r="KK90" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -81628,8 +81898,11 @@
       <c r="KI91" s="2" t="n">
         <v>232</v>
       </c>
-      <c r="KJ91" t="n">
+      <c r="KJ91" s="2" t="n">
         <v>230</v>
+      </c>
+      <c r="KK91" t="n">
+        <v>258</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -82520,8 +82793,11 @@
       <c r="KI92" s="2" t="n">
         <v>276</v>
       </c>
-      <c r="KJ92" t="n">
+      <c r="KJ92" s="2" t="n">
         <v>273</v>
+      </c>
+      <c r="KK92" t="n">
+        <v>311</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -83412,8 +83688,11 @@
       <c r="KI93" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="KJ93" t="n">
+      <c r="KJ93" s="2" t="n">
         <v>73.40000000000001</v>
+      </c>
+      <c r="KK93" t="n">
+        <v>79.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -84304,7 +84583,10 @@
       <c r="KI94" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KJ94" t="n">
+      <c r="KJ94" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KK94" t="n">
         <v>47</v>
       </c>
     </row>
@@ -85196,8 +85478,11 @@
       <c r="KI95" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KJ95" t="n">
+      <c r="KJ95" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KK95" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -86088,8 +86373,11 @@
       <c r="KI96" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KJ96" t="n">
+      <c r="KJ96" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KK96" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -86980,8 +87268,11 @@
       <c r="KI97" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KJ97" t="n">
+      <c r="KJ97" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KK97" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -87872,8 +88163,11 @@
       <c r="KI98" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KJ98" t="n">
+      <c r="KJ98" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KK98" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -88764,8 +89058,11 @@
       <c r="KI99" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KJ99" t="n">
+      <c r="KJ99" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KK99" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -89656,8 +89953,11 @@
       <c r="KI100" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KJ100" t="n">
+      <c r="KJ100" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KK100" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -90548,8 +90848,11 @@
       <c r="KI101" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KJ101" t="n">
+      <c r="KJ101" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KK101" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -91440,8 +91743,11 @@
       <c r="KI102" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="KJ102" t="n">
+      <c r="KJ102" s="2" t="n">
         <v>61.5</v>
+      </c>
+      <c r="KK102" t="n">
+        <v>86.7</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Essendon_stats.xlsx
+++ b/AFL_ML/Data/Essendon_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KK102"/>
+  <dimension ref="A1:KL102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JQ85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JY94" activeCellId="0" sqref="JY94"/>
@@ -1351,8 +1351,11 @@
       <c r="KJ1" s="2" t="n">
         <v>10906</v>
       </c>
-      <c r="KK1" t="n">
+      <c r="KK1" s="2" t="n">
         <v>10914</v>
+      </c>
+      <c r="KL1" t="n">
+        <v>10922</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2246,7 +2249,10 @@
       <c r="KJ2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KK2" t="n">
+      <c r="KK2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KL2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3141,8 +3147,11 @@
       <c r="KJ3" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KK3" t="n">
+      <c r="KK3" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4036,7 +4045,10 @@
       <c r="KJ4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KK4" t="n">
+      <c r="KK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4931,8 +4943,11 @@
       <c r="KJ5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KK5" t="n">
+      <c r="KK5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KL5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5826,8 +5841,11 @@
       <c r="KJ6" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KK6" t="n">
+      <c r="KK6" s="2" t="n">
         <v>99</v>
+      </c>
+      <c r="KL6" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6721,8 +6739,11 @@
       <c r="KJ7" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="KK7" t="n">
+      <c r="KK7" s="2" t="n">
         <v>101</v>
+      </c>
+      <c r="KL7" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7616,8 +7637,11 @@
       <c r="KJ8" s="2" t="n">
         <v>-41</v>
       </c>
-      <c r="KK8" t="n">
+      <c r="KK8" s="2" t="n">
         <v>-2</v>
+      </c>
+      <c r="KL8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8511,8 +8535,11 @@
       <c r="KJ9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KK9" t="n">
+      <c r="KK9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KL9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9406,8 +9433,11 @@
       <c r="KJ10" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KK10" t="n">
+      <c r="KK10" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KL10" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10301,8 +10331,11 @@
       <c r="KJ11" s="2" t="n">
         <v>242</v>
       </c>
-      <c r="KK11" t="n">
+      <c r="KK11" s="2" t="n">
         <v>205</v>
+      </c>
+      <c r="KL11" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11196,8 +11229,11 @@
       <c r="KJ12" s="2" t="n">
         <v>127</v>
       </c>
-      <c r="KK12" t="n">
+      <c r="KK12" s="2" t="n">
         <v>164</v>
+      </c>
+      <c r="KL12" t="n">
+        <v>161</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12091,8 +12127,11 @@
       <c r="KJ13" s="2" t="n">
         <v>369</v>
       </c>
-      <c r="KK13" t="n">
+      <c r="KK13" s="2" t="n">
         <v>369</v>
+      </c>
+      <c r="KL13" t="n">
+        <v>371</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12986,8 +13025,11 @@
       <c r="KJ14" s="2" t="n">
         <v>1.91</v>
       </c>
-      <c r="KK14" t="n">
+      <c r="KK14" s="2" t="n">
         <v>1.25</v>
+      </c>
+      <c r="KL14" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13881,8 +13923,11 @@
       <c r="KJ15" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="KK15" t="n">
+      <c r="KK15" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="KL15" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14776,8 +14821,11 @@
       <c r="KJ16" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="KK16" t="n">
+      <c r="KK16" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KL16" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15671,7 +15719,10 @@
       <c r="KJ17" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KK17" t="n">
+      <c r="KK17" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="KL17" t="n">
         <v>52</v>
       </c>
     </row>
@@ -16566,8 +16617,11 @@
       <c r="KJ18" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KK18" t="n">
+      <c r="KK18" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KL18" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17461,8 +17515,11 @@
       <c r="KJ19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KK19" t="n">
+      <c r="KK19" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KL19" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18356,8 +18413,11 @@
       <c r="KJ20" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KK20" t="n">
+      <c r="KK20" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KL20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19251,8 +19311,11 @@
       <c r="KJ21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KK21" t="n">
+      <c r="KK21" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KL21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20146,8 +20209,11 @@
       <c r="KJ22" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KK22" t="n">
+      <c r="KK22" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KL22" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21041,8 +21107,11 @@
       <c r="KJ23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KK23" t="n">
+      <c r="KK23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KL23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -21936,8 +22005,11 @@
       <c r="KJ24" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KK24" t="n">
+      <c r="KK24" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KL24" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -22831,8 +22903,11 @@
       <c r="KJ25" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KK25" t="n">
+      <c r="KK25" s="2" t="n">
         <v>62.5</v>
+      </c>
+      <c r="KL25" t="n">
+        <v>43.5</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -23726,8 +23801,11 @@
       <c r="KJ26" s="2" t="n">
         <v>52.71</v>
       </c>
-      <c r="KK26" t="n">
+      <c r="KK26" s="2" t="n">
         <v>24.6</v>
+      </c>
+      <c r="KL26" t="n">
+        <v>37.1</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24621,8 +24699,11 @@
       <c r="KJ27" s="2" t="n">
         <v>26.36</v>
       </c>
-      <c r="KK27" t="n">
+      <c r="KK27" s="2" t="n">
         <v>15.38</v>
+      </c>
+      <c r="KL27" t="n">
+        <v>16.13</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25516,8 +25597,11 @@
       <c r="KJ28" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KK28" t="n">
+      <c r="KK28" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KL28" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26411,8 +26495,11 @@
       <c r="KJ29" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KK29" t="n">
+      <c r="KK29" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KL29" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27306,8 +27393,11 @@
       <c r="KJ30" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KK30" t="n">
+      <c r="KK30" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KL30" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28201,8 +28291,11 @@
       <c r="KJ31" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KK31" t="n">
+      <c r="KK31" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="KL31" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29096,8 +29189,11 @@
       <c r="KJ32" s="2" t="n">
         <v>3.5</v>
       </c>
-      <c r="KK32" t="n">
+      <c r="KK32" s="2" t="n">
         <v>2.88</v>
+      </c>
+      <c r="KL32" t="n">
+        <v>2.39</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -29991,8 +30087,11 @@
       <c r="KJ33" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KK33" t="n">
+      <c r="KK33" s="2" t="n">
         <v>4.6</v>
+      </c>
+      <c r="KL33" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -30886,8 +30985,11 @@
       <c r="KJ34" s="2" t="n">
         <v>26.5</v>
       </c>
-      <c r="KK34" t="n">
+      <c r="KK34" s="2" t="n">
         <v>30.4</v>
+      </c>
+      <c r="KL34" t="n">
+        <v>41.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -31781,8 +31883,11 @@
       <c r="KJ35" s="2" t="n">
         <v>14.3</v>
       </c>
-      <c r="KK35" t="n">
+      <c r="KK35" s="2" t="n">
         <v>21.7</v>
+      </c>
+      <c r="KL35" t="n">
+        <v>18.2</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -32676,8 +32781,11 @@
       <c r="KJ36" s="2" t="n">
         <v>189.1</v>
       </c>
-      <c r="KK36" t="n">
+      <c r="KK36" s="2" t="n">
         <v>187.9</v>
+      </c>
+      <c r="KL36" t="n">
+        <v>188.4</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -33571,7 +33679,10 @@
       <c r="KJ37" s="2" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="KK37" t="n">
+      <c r="KK37" s="2" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="KL37" t="n">
         <v>86.3</v>
       </c>
     </row>
@@ -34466,8 +34577,11 @@
       <c r="KJ38" s="2" t="n">
         <v>25.58</v>
       </c>
-      <c r="KK38" t="n">
+      <c r="KK38" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KL38" t="n">
+        <v>24.74</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35361,8 +35475,11 @@
       <c r="KJ39" s="2" t="n">
         <v>94.7</v>
       </c>
-      <c r="KK39" t="n">
+      <c r="KK39" s="2" t="n">
         <v>84.90000000000001</v>
+      </c>
+      <c r="KL39" t="n">
+        <v>83.2</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36256,8 +36373,11 @@
       <c r="KJ40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KK40" t="n">
+      <c r="KK40" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KL40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -37151,8 +37271,11 @@
       <c r="KJ41" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KK41" t="n">
+      <c r="KK41" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KL41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -38046,8 +38169,11 @@
       <c r="KJ42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KK42" t="n">
+      <c r="KK42" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KL42" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -38941,7 +39067,10 @@
       <c r="KJ43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KK43" t="n">
+      <c r="KK43" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KL43" t="n">
         <v>2</v>
       </c>
     </row>
@@ -39836,8 +39965,11 @@
       <c r="KJ44" s="2" t="n">
         <v>114</v>
       </c>
-      <c r="KK44" t="n">
+      <c r="KK44" s="2" t="n">
         <v>151</v>
+      </c>
+      <c r="KL44" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -40731,8 +40863,11 @@
       <c r="KJ45" s="2" t="n">
         <v>255</v>
       </c>
-      <c r="KK45" t="n">
+      <c r="KK45" s="2" t="n">
         <v>218</v>
+      </c>
+      <c r="KL45" t="n">
+        <v>234</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -41626,8 +41761,11 @@
       <c r="KJ46" s="2" t="n">
         <v>298</v>
       </c>
-      <c r="KK46" t="n">
+      <c r="KK46" s="2" t="n">
         <v>269</v>
+      </c>
+      <c r="KL46" t="n">
+        <v>272</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -42521,8 +42659,11 @@
       <c r="KJ47" s="2" t="n">
         <v>80.8</v>
       </c>
-      <c r="KK47" t="n">
+      <c r="KK47" s="2" t="n">
         <v>72.90000000000001</v>
+      </c>
+      <c r="KL47" t="n">
+        <v>73.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -43416,8 +43557,11 @@
       <c r="KJ48" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KK48" t="n">
+      <c r="KK48" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KL48" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -44311,8 +44455,11 @@
       <c r="KJ49" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KK49" t="n">
+      <c r="KK49" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KL49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -45206,8 +45353,11 @@
       <c r="KJ50" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KK50" t="n">
+      <c r="KK50" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KL50" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -46101,8 +46251,11 @@
       <c r="KJ51" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KK51" t="n">
+      <c r="KK51" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KL51" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -46996,8 +47149,11 @@
       <c r="KJ52" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KK52" t="n">
+      <c r="KK52" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KL52" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -47891,8 +48047,11 @@
       <c r="KJ53" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KK53" t="n">
+      <c r="KK53" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="KL53" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -48786,8 +48945,11 @@
       <c r="KJ54" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KK54" t="n">
+      <c r="KK54" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KL54" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -49681,8 +49843,11 @@
       <c r="KJ55" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KK55" t="n">
+      <c r="KK55" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KL55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -50576,8 +50741,11 @@
       <c r="KJ56" s="2" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="KK56" t="n">
+      <c r="KK56" s="2" t="n">
         <v>73.3</v>
+      </c>
+      <c r="KL56" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -51471,8 +51639,11 @@
       <c r="KJ57" s="2" t="n">
         <v>228</v>
       </c>
-      <c r="KK57" t="n">
+      <c r="KK57" s="2" t="n">
         <v>222</v>
+      </c>
+      <c r="KL57" t="n">
+        <v>211</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -52366,8 +52537,11 @@
       <c r="KJ58" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="KK58" t="n">
+      <c r="KK58" s="2" t="n">
         <v>170</v>
+      </c>
+      <c r="KL58" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -53261,8 +53435,11 @@
       <c r="KJ59" s="2" t="n">
         <v>372</v>
       </c>
-      <c r="KK59" t="n">
+      <c r="KK59" s="2" t="n">
         <v>392</v>
+      </c>
+      <c r="KL59" t="n">
+        <v>352</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -54156,8 +54333,11 @@
       <c r="KJ60" s="2" t="n">
         <v>1.58</v>
       </c>
-      <c r="KK60" t="n">
+      <c r="KK60" s="2" t="n">
         <v>1.31</v>
+      </c>
+      <c r="KL60" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -55051,8 +55231,11 @@
       <c r="KJ61" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="KK61" t="n">
+      <c r="KK61" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="KL61" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -55946,8 +56129,11 @@
       <c r="KJ62" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KK62" t="n">
+      <c r="KK62" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KL62" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -56841,8 +57027,11 @@
       <c r="KJ63" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KK63" t="n">
+      <c r="KK63" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KL63" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -57736,8 +57925,11 @@
       <c r="KJ64" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KK64" t="n">
+      <c r="KK64" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KL64" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -58631,8 +58823,11 @@
       <c r="KJ65" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KK65" t="n">
+      <c r="KK65" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KL65" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -59526,8 +59721,11 @@
       <c r="KJ66" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KK66" t="n">
+      <c r="KK66" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KL66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -60421,8 +60619,11 @@
       <c r="KJ67" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KK67" t="n">
+      <c r="KK67" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KL67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -61316,8 +61517,11 @@
       <c r="KJ68" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KK68" t="n">
+      <c r="KK68" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KL68" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -62211,7 +62415,10 @@
       <c r="KJ69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KK69" t="n">
+      <c r="KK69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KL69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -63106,8 +63313,11 @@
       <c r="KJ70" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KK70" t="n">
+      <c r="KK70" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="KL70" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -64001,8 +64211,11 @@
       <c r="KJ71" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KK71" t="n">
+      <c r="KK71" s="2" t="n">
         <v>57.7</v>
+      </c>
+      <c r="KL71" t="n">
+        <v>64.7</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -64896,8 +65109,11 @@
       <c r="KJ72" s="2" t="n">
         <v>28.62</v>
       </c>
-      <c r="KK72" t="n">
+      <c r="KK72" s="2" t="n">
         <v>26.13</v>
+      </c>
+      <c r="KL72" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -65791,8 +66007,11 @@
       <c r="KJ73" s="2" t="n">
         <v>14.88</v>
       </c>
-      <c r="KK73" t="n">
+      <c r="KK73" s="2" t="n">
         <v>15.08</v>
+      </c>
+      <c r="KL73" t="n">
+        <v>20.71</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -66686,7 +66905,10 @@
       <c r="KJ74" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KK74" t="n">
+      <c r="KK74" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="KL74" t="n">
         <v>29</v>
       </c>
     </row>
@@ -67581,8 +67803,11 @@
       <c r="KJ75" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KK75" t="n">
+      <c r="KK75" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KL75" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -68476,8 +68701,11 @@
       <c r="KJ76" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KK76" t="n">
+      <c r="KK76" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KL76" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -69371,8 +69599,11 @@
       <c r="KJ77" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KK77" t="n">
+      <c r="KK77" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KL77" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -70266,8 +70497,11 @@
       <c r="KJ78" s="2" t="n">
         <v>1.96</v>
       </c>
-      <c r="KK78" t="n">
+      <c r="KK78" s="2" t="n">
         <v>1.81</v>
+      </c>
+      <c r="KL78" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -71161,8 +71395,11 @@
       <c r="KJ79" s="2" t="n">
         <v>3.77</v>
       </c>
-      <c r="KK79" t="n">
+      <c r="KK79" s="2" t="n">
         <v>3.13</v>
+      </c>
+      <c r="KL79" t="n">
+        <v>4.64</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -72056,8 +72293,11 @@
       <c r="KJ80" s="2" t="n">
         <v>44.9</v>
       </c>
-      <c r="KK80" t="n">
+      <c r="KK80" s="2" t="n">
         <v>51.1</v>
+      </c>
+      <c r="KL80" t="n">
+        <v>29.4</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -72951,8 +73191,11 @@
       <c r="KJ81" s="2" t="n">
         <v>26.5</v>
       </c>
-      <c r="KK81" t="n">
+      <c r="KK81" s="2" t="n">
         <v>31.9</v>
+      </c>
+      <c r="KL81" t="n">
+        <v>21.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -73846,8 +74089,11 @@
       <c r="KJ82" s="2" t="n">
         <v>188.3</v>
       </c>
-      <c r="KK82" t="n">
+      <c r="KK82" s="2" t="n">
         <v>186.6</v>
+      </c>
+      <c r="KL82" t="n">
+        <v>189.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -74741,8 +74987,11 @@
       <c r="KJ83" s="2" t="n">
         <v>86.59999999999999</v>
       </c>
-      <c r="KK83" t="n">
+      <c r="KK83" s="2" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="KL83" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -75636,8 +75885,11 @@
       <c r="KJ84" s="2" t="n">
         <v>26.24</v>
       </c>
-      <c r="KK84" t="n">
+      <c r="KK84" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="KL84" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -76531,8 +76783,11 @@
       <c r="KJ85" s="2" t="n">
         <v>108.3</v>
       </c>
-      <c r="KK85" t="n">
+      <c r="KK85" s="2" t="n">
         <v>124.4</v>
+      </c>
+      <c r="KL85" t="n">
+        <v>93.09999999999999</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -77426,8 +77681,11 @@
       <c r="KJ86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KK86" t="n">
+      <c r="KK86" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KL86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -78321,8 +78579,11 @@
       <c r="KJ87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KK87" t="n">
+      <c r="KK87" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KL87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -79216,7 +79477,10 @@
       <c r="KJ88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KK88" t="n">
+      <c r="KK88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KL88" t="n">
         <v>3</v>
       </c>
     </row>
@@ -80111,8 +80375,11 @@
       <c r="KJ89" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KK89" t="n">
+      <c r="KK89" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KL89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -81006,8 +81273,11 @@
       <c r="KJ90" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="KK90" t="n">
+      <c r="KK90" s="2" t="n">
         <v>128</v>
+      </c>
+      <c r="KL90" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -81901,8 +82171,11 @@
       <c r="KJ91" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="KK91" t="n">
+      <c r="KK91" s="2" t="n">
         <v>258</v>
+      </c>
+      <c r="KL91" t="n">
+        <v>246</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -82796,8 +83069,11 @@
       <c r="KJ92" s="2" t="n">
         <v>273</v>
       </c>
-      <c r="KK92" t="n">
+      <c r="KK92" s="2" t="n">
         <v>311</v>
+      </c>
+      <c r="KL92" t="n">
+        <v>283</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -83691,8 +83967,11 @@
       <c r="KJ93" s="2" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="KK93" t="n">
+      <c r="KK93" s="2" t="n">
         <v>79.3</v>
+      </c>
+      <c r="KL93" t="n">
+        <v>80.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -84586,8 +84865,11 @@
       <c r="KJ94" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KK94" t="n">
+      <c r="KK94" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KL94" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -85481,8 +85763,11 @@
       <c r="KJ95" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KK95" t="n">
+      <c r="KK95" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KL95" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -86376,8 +86661,11 @@
       <c r="KJ96" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KK96" t="n">
+      <c r="KK96" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KL96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -87271,7 +87559,10 @@
       <c r="KJ97" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KK97" t="n">
+      <c r="KK97" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="KL97" t="n">
         <v>29</v>
       </c>
     </row>
@@ -88166,8 +88457,11 @@
       <c r="KJ98" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KK98" t="n">
+      <c r="KK98" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="KL98" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -89061,8 +89355,11 @@
       <c r="KJ99" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KK99" t="n">
+      <c r="KK99" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KL99" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -89956,8 +90253,11 @@
       <c r="KJ100" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KK100" t="n">
+      <c r="KK100" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KL100" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -90851,8 +91151,11 @@
       <c r="KJ101" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KK101" t="n">
+      <c r="KK101" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KL101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -91746,8 +92049,11 @@
       <c r="KJ102" s="2" t="n">
         <v>61.5</v>
       </c>
-      <c r="KK102" t="n">
+      <c r="KK102" s="2" t="n">
         <v>86.7</v>
+      </c>
+      <c r="KL102" t="n">
+        <v>90.90000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Essendon_stats.xlsx
+++ b/AFL_ML/Data/Essendon_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KL102"/>
+  <dimension ref="A1:KM102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JQ85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JY94" activeCellId="0" sqref="JY94"/>
@@ -1354,8 +1354,11 @@
       <c r="KK1" s="2" t="n">
         <v>10914</v>
       </c>
-      <c r="KL1" t="n">
+      <c r="KL1" s="2" t="n">
         <v>10922</v>
+      </c>
+      <c r="KM1" t="n">
+        <v>10935</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2252,7 +2255,10 @@
       <c r="KK2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KL2" t="n">
+      <c r="KL2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KM2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3150,8 +3156,11 @@
       <c r="KK3" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KL3" t="n">
+      <c r="KL3" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4048,8 +4057,11 @@
       <c r="KK4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KL4" t="n">
+      <c r="KL4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4946,8 +4958,11 @@
       <c r="KK5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KL5" t="n">
+      <c r="KL5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KM5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5844,8 +5859,11 @@
       <c r="KK6" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="KL6" t="n">
+      <c r="KL6" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="KM6" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6742,8 +6760,11 @@
       <c r="KK7" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="KL7" t="n">
+      <c r="KL7" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="KM7" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7640,8 +7661,11 @@
       <c r="KK8" s="2" t="n">
         <v>-2</v>
       </c>
-      <c r="KL8" t="n">
+      <c r="KL8" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KM8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8538,7 +8562,10 @@
       <c r="KK9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KL9" t="n">
+      <c r="KL9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KM9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9436,8 +9463,11 @@
       <c r="KK10" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KL10" t="n">
+      <c r="KL10" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KM10" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10334,8 +10364,11 @@
       <c r="KK11" s="2" t="n">
         <v>205</v>
       </c>
-      <c r="KL11" t="n">
+      <c r="KL11" s="2" t="n">
         <v>210</v>
+      </c>
+      <c r="KM11" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11232,8 +11265,11 @@
       <c r="KK12" s="2" t="n">
         <v>164</v>
       </c>
-      <c r="KL12" t="n">
+      <c r="KL12" s="2" t="n">
         <v>161</v>
+      </c>
+      <c r="KM12" t="n">
+        <v>163</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12130,8 +12166,11 @@
       <c r="KK13" s="2" t="n">
         <v>369</v>
       </c>
-      <c r="KL13" t="n">
+      <c r="KL13" s="2" t="n">
         <v>371</v>
+      </c>
+      <c r="KM13" t="n">
+        <v>386</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13028,8 +13067,11 @@
       <c r="KK14" s="2" t="n">
         <v>1.25</v>
       </c>
-      <c r="KL14" t="n">
+      <c r="KL14" s="2" t="n">
         <v>1.3</v>
+      </c>
+      <c r="KM14" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13926,8 +13968,11 @@
       <c r="KK15" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="KL15" t="n">
+      <c r="KL15" s="2" t="n">
         <v>96</v>
+      </c>
+      <c r="KM15" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14824,8 +14869,11 @@
       <c r="KK16" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KL16" t="n">
+      <c r="KL16" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KM16" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15722,8 +15770,11 @@
       <c r="KK17" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KL17" t="n">
+      <c r="KL17" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KM17" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16620,7 +16671,10 @@
       <c r="KK18" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KL18" t="n">
+      <c r="KL18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KM18" t="n">
         <v>22</v>
       </c>
     </row>
@@ -17518,8 +17572,11 @@
       <c r="KK19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KL19" t="n">
+      <c r="KL19" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KM19" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18416,8 +18473,11 @@
       <c r="KK20" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KL20" t="n">
+      <c r="KL20" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KM20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19314,8 +19374,11 @@
       <c r="KK21" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KL21" t="n">
+      <c r="KL21" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KM21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20212,8 +20275,11 @@
       <c r="KK22" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KL22" t="n">
+      <c r="KL22" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KM22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21110,8 +21176,11 @@
       <c r="KK23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KL23" t="n">
+      <c r="KL23" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KM23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22008,8 +22077,11 @@
       <c r="KK24" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KL24" t="n">
+      <c r="KL24" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KM24" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -22906,8 +22978,11 @@
       <c r="KK25" s="2" t="n">
         <v>62.5</v>
       </c>
-      <c r="KL25" t="n">
+      <c r="KL25" s="2" t="n">
         <v>43.5</v>
+      </c>
+      <c r="KM25" t="n">
+        <v>61.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -23804,8 +23879,11 @@
       <c r="KK26" s="2" t="n">
         <v>24.6</v>
       </c>
-      <c r="KL26" t="n">
+      <c r="KL26" s="2" t="n">
         <v>37.1</v>
+      </c>
+      <c r="KM26" t="n">
+        <v>29.69</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24702,8 +24780,11 @@
       <c r="KK27" s="2" t="n">
         <v>15.38</v>
       </c>
-      <c r="KL27" t="n">
+      <c r="KL27" s="2" t="n">
         <v>16.13</v>
+      </c>
+      <c r="KM27" t="n">
+        <v>18.38</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25600,8 +25681,11 @@
       <c r="KK28" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KL28" t="n">
+      <c r="KL28" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KM28" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26498,8 +26582,11 @@
       <c r="KK29" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KL29" t="n">
+      <c r="KL29" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KM29" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27396,8 +27483,11 @@
       <c r="KK30" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KL30" t="n">
+      <c r="KL30" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KM30" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28294,8 +28384,11 @@
       <c r="KK31" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="KL31" t="n">
+      <c r="KL31" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KM31" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29192,8 +29285,11 @@
       <c r="KK32" s="2" t="n">
         <v>2.88</v>
       </c>
-      <c r="KL32" t="n">
+      <c r="KL32" s="2" t="n">
         <v>2.39</v>
+      </c>
+      <c r="KM32" t="n">
+        <v>2.86</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30090,8 +30186,11 @@
       <c r="KK33" s="2" t="n">
         <v>4.6</v>
       </c>
-      <c r="KL33" t="n">
+      <c r="KL33" s="2" t="n">
         <v>5.5</v>
+      </c>
+      <c r="KM33" t="n">
+        <v>4.62</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -30988,8 +31087,11 @@
       <c r="KK34" s="2" t="n">
         <v>30.4</v>
       </c>
-      <c r="KL34" t="n">
+      <c r="KL34" s="2" t="n">
         <v>41.8</v>
+      </c>
+      <c r="KM34" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -31886,8 +31988,11 @@
       <c r="KK35" s="2" t="n">
         <v>21.7</v>
       </c>
-      <c r="KL35" t="n">
+      <c r="KL35" s="2" t="n">
         <v>18.2</v>
+      </c>
+      <c r="KM35" t="n">
+        <v>21.7</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -32784,8 +32889,11 @@
       <c r="KK36" s="2" t="n">
         <v>187.9</v>
       </c>
-      <c r="KL36" t="n">
+      <c r="KL36" s="2" t="n">
         <v>188.4</v>
+      </c>
+      <c r="KM36" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -33682,8 +33790,11 @@
       <c r="KK37" s="2" t="n">
         <v>86.3</v>
       </c>
-      <c r="KL37" t="n">
+      <c r="KL37" s="2" t="n">
         <v>86.3</v>
+      </c>
+      <c r="KM37" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -34580,8 +34691,11 @@
       <c r="KK38" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KL38" t="n">
+      <c r="KL38" s="2" t="n">
         <v>24.74</v>
+      </c>
+      <c r="KM38" t="n">
+        <v>24.91</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35478,8 +35592,11 @@
       <c r="KK39" s="2" t="n">
         <v>84.90000000000001</v>
       </c>
-      <c r="KL39" t="n">
+      <c r="KL39" s="2" t="n">
         <v>83.2</v>
+      </c>
+      <c r="KM39" t="n">
+        <v>84.40000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36376,7 +36493,10 @@
       <c r="KK40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KL40" t="n">
+      <c r="KL40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KM40" t="n">
         <v>9</v>
       </c>
     </row>
@@ -37274,7 +37394,10 @@
       <c r="KK41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KL41" t="n">
+      <c r="KL41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KM41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -38172,7 +38295,10 @@
       <c r="KK42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KL42" t="n">
+      <c r="KL42" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KM42" t="n">
         <v>7</v>
       </c>
     </row>
@@ -39070,7 +39196,10 @@
       <c r="KK43" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KL43" t="n">
+      <c r="KL43" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KM43" t="n">
         <v>2</v>
       </c>
     </row>
@@ -39968,8 +40097,11 @@
       <c r="KK44" s="2" t="n">
         <v>151</v>
       </c>
-      <c r="KL44" t="n">
+      <c r="KL44" s="2" t="n">
         <v>132</v>
+      </c>
+      <c r="KM44" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -40866,8 +40998,11 @@
       <c r="KK45" s="2" t="n">
         <v>218</v>
       </c>
-      <c r="KL45" t="n">
+      <c r="KL45" s="2" t="n">
         <v>234</v>
+      </c>
+      <c r="KM45" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -41764,8 +41899,11 @@
       <c r="KK46" s="2" t="n">
         <v>269</v>
       </c>
-      <c r="KL46" t="n">
+      <c r="KL46" s="2" t="n">
         <v>272</v>
+      </c>
+      <c r="KM46" t="n">
+        <v>284</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -42662,8 +42800,11 @@
       <c r="KK47" s="2" t="n">
         <v>72.90000000000001</v>
       </c>
-      <c r="KL47" t="n">
+      <c r="KL47" s="2" t="n">
         <v>73.3</v>
+      </c>
+      <c r="KM47" t="n">
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -43560,8 +43701,11 @@
       <c r="KK48" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KL48" t="n">
+      <c r="KL48" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KM48" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -44458,8 +44602,11 @@
       <c r="KK49" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KL49" t="n">
+      <c r="KL49" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KM49" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -45356,7 +45503,10 @@
       <c r="KK50" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KL50" t="n">
+      <c r="KL50" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KM50" t="n">
         <v>14</v>
       </c>
     </row>
@@ -46254,8 +46404,11 @@
       <c r="KK51" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KL51" t="n">
+      <c r="KL51" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KM51" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -47152,8 +47305,11 @@
       <c r="KK52" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KL52" t="n">
+      <c r="KL52" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KM52" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -48050,8 +48206,11 @@
       <c r="KK53" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="KL53" t="n">
+      <c r="KL53" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KM53" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -48948,8 +49107,11 @@
       <c r="KK54" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KL54" t="n">
+      <c r="KL54" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KM54" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -49846,8 +50008,11 @@
       <c r="KK55" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KL55" t="n">
+      <c r="KL55" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KM55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -50744,8 +50909,11 @@
       <c r="KK56" s="2" t="n">
         <v>73.3</v>
       </c>
-      <c r="KL56" t="n">
+      <c r="KL56" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="KM56" t="n">
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -51642,8 +51810,11 @@
       <c r="KK57" s="2" t="n">
         <v>222</v>
       </c>
-      <c r="KL57" t="n">
+      <c r="KL57" s="2" t="n">
         <v>211</v>
+      </c>
+      <c r="KM57" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -52540,8 +52711,11 @@
       <c r="KK58" s="2" t="n">
         <v>170</v>
       </c>
-      <c r="KL58" t="n">
+      <c r="KL58" s="2" t="n">
         <v>141</v>
+      </c>
+      <c r="KM58" t="n">
+        <v>162</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -53438,8 +53612,11 @@
       <c r="KK59" s="2" t="n">
         <v>392</v>
       </c>
-      <c r="KL59" t="n">
+      <c r="KL59" s="2" t="n">
         <v>352</v>
+      </c>
+      <c r="KM59" t="n">
+        <v>349</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -54336,8 +54513,11 @@
       <c r="KK60" s="2" t="n">
         <v>1.31</v>
       </c>
-      <c r="KL60" t="n">
+      <c r="KL60" s="2" t="n">
         <v>1.5</v>
+      </c>
+      <c r="KM60" t="n">
+        <v>1.15</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -55234,8 +55414,11 @@
       <c r="KK61" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="KL61" t="n">
+      <c r="KL61" s="2" t="n">
         <v>111</v>
+      </c>
+      <c r="KM61" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -56132,8 +56315,11 @@
       <c r="KK62" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KL62" t="n">
+      <c r="KL62" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KM62" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -57030,8 +57216,11 @@
       <c r="KK63" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KL63" t="n">
+      <c r="KL63" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KM63" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -57928,8 +58117,11 @@
       <c r="KK64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KL64" t="n">
+      <c r="KL64" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KM64" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -58826,7 +59018,10 @@
       <c r="KK65" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KL65" t="n">
+      <c r="KL65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KM65" t="n">
         <v>22</v>
       </c>
     </row>
@@ -59724,8 +59919,11 @@
       <c r="KK66" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KL66" t="n">
+      <c r="KL66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KM66" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -60622,7 +60820,10 @@
       <c r="KK67" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KL67" t="n">
+      <c r="KL67" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KM67" t="n">
         <v>10</v>
       </c>
     </row>
@@ -61520,7 +61721,10 @@
       <c r="KK68" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KL68" t="n">
+      <c r="KL68" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KM68" t="n">
         <v>4</v>
       </c>
     </row>
@@ -62418,8 +62622,11 @@
       <c r="KK69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KL69" t="n">
+      <c r="KL69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KM69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -63316,7 +63523,10 @@
       <c r="KK70" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KL70" t="n">
+      <c r="KL70" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="KM70" t="n">
         <v>17</v>
       </c>
     </row>
@@ -64214,8 +64424,11 @@
       <c r="KK71" s="2" t="n">
         <v>57.7</v>
       </c>
-      <c r="KL71" t="n">
+      <c r="KL71" s="2" t="n">
         <v>64.7</v>
+      </c>
+      <c r="KM71" t="n">
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -65112,8 +65325,11 @@
       <c r="KK72" s="2" t="n">
         <v>26.13</v>
       </c>
-      <c r="KL72" t="n">
+      <c r="KL72" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KM72" t="n">
+        <v>29.08</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -66010,8 +66226,11 @@
       <c r="KK73" s="2" t="n">
         <v>15.08</v>
       </c>
-      <c r="KL73" t="n">
+      <c r="KL73" s="2" t="n">
         <v>20.71</v>
+      </c>
+      <c r="KM73" t="n">
+        <v>20.53</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -66908,8 +67127,11 @@
       <c r="KK74" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KL74" t="n">
+      <c r="KL74" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KM74" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -67806,8 +68028,11 @@
       <c r="KK75" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KL75" t="n">
+      <c r="KL75" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="KM75" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -68704,8 +68929,11 @@
       <c r="KK76" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KL76" t="n">
+      <c r="KL76" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KM76" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -69602,8 +69830,11 @@
       <c r="KK77" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KL77" t="n">
+      <c r="KL77" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KM77" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -70500,8 +70731,11 @@
       <c r="KK78" s="2" t="n">
         <v>1.81</v>
       </c>
-      <c r="KL78" t="n">
+      <c r="KL78" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KM78" t="n">
+        <v>2.76</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -71398,8 +71632,11 @@
       <c r="KK79" s="2" t="n">
         <v>3.13</v>
       </c>
-      <c r="KL79" t="n">
+      <c r="KL79" s="2" t="n">
         <v>4.64</v>
+      </c>
+      <c r="KM79" t="n">
+        <v>3.92</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -72296,8 +72533,11 @@
       <c r="KK80" s="2" t="n">
         <v>51.1</v>
       </c>
-      <c r="KL80" t="n">
+      <c r="KL80" s="2" t="n">
         <v>29.4</v>
+      </c>
+      <c r="KM80" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -73194,8 +73434,11 @@
       <c r="KK81" s="2" t="n">
         <v>31.9</v>
       </c>
-      <c r="KL81" t="n">
+      <c r="KL81" s="2" t="n">
         <v>21.6</v>
+      </c>
+      <c r="KM81" t="n">
+        <v>25.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -74092,8 +74335,11 @@
       <c r="KK82" s="2" t="n">
         <v>186.6</v>
       </c>
-      <c r="KL82" t="n">
+      <c r="KL82" s="2" t="n">
         <v>189.3</v>
+      </c>
+      <c r="KM82" t="n">
+        <v>188.6</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -74990,8 +75236,11 @@
       <c r="KK83" s="2" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="KL83" t="n">
+      <c r="KL83" s="2" t="n">
         <v>87.09999999999999</v>
+      </c>
+      <c r="KM83" t="n">
+        <v>83.8</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -75888,8 +76137,11 @@
       <c r="KK84" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KL84" t="n">
+      <c r="KL84" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KM84" t="n">
+        <v>24.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -76786,8 +77038,11 @@
       <c r="KK85" s="2" t="n">
         <v>124.4</v>
       </c>
-      <c r="KL85" t="n">
+      <c r="KL85" s="2" t="n">
         <v>93.09999999999999</v>
+      </c>
+      <c r="KM85" t="n">
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -77684,8 +77939,11 @@
       <c r="KK86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KL86" t="n">
+      <c r="KL86" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KM86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -78582,8 +78840,11 @@
       <c r="KK87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KL87" t="n">
+      <c r="KL87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KM87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -79480,8 +79741,11 @@
       <c r="KK88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KL88" t="n">
+      <c r="KL88" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KM88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -80378,8 +80642,11 @@
       <c r="KK89" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KL89" t="n">
+      <c r="KL89" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KM89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -81276,8 +81543,11 @@
       <c r="KK90" s="2" t="n">
         <v>128</v>
       </c>
-      <c r="KL90" t="n">
+      <c r="KL90" s="2" t="n">
         <v>97</v>
+      </c>
+      <c r="KM90" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -82174,8 +82444,11 @@
       <c r="KK91" s="2" t="n">
         <v>258</v>
       </c>
-      <c r="KL91" t="n">
+      <c r="KL91" s="2" t="n">
         <v>246</v>
+      </c>
+      <c r="KM91" t="n">
+        <v>217</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -83072,8 +83345,11 @@
       <c r="KK92" s="2" t="n">
         <v>311</v>
       </c>
-      <c r="KL92" t="n">
+      <c r="KL92" s="2" t="n">
         <v>283</v>
+      </c>
+      <c r="KM92" t="n">
+        <v>261</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -83970,8 +84246,11 @@
       <c r="KK93" s="2" t="n">
         <v>79.3</v>
       </c>
-      <c r="KL93" t="n">
+      <c r="KL93" s="2" t="n">
         <v>80.40000000000001</v>
+      </c>
+      <c r="KM93" t="n">
+        <v>74.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -84868,8 +85147,11 @@
       <c r="KK94" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KL94" t="n">
+      <c r="KL94" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="KM94" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -85766,8 +86048,11 @@
       <c r="KK95" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KL95" t="n">
+      <c r="KL95" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KM95" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -86664,8 +86949,11 @@
       <c r="KK96" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KL96" t="n">
+      <c r="KL96" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KM96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -87562,8 +87850,11 @@
       <c r="KK97" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KL97" t="n">
+      <c r="KL97" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KM97" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -88460,8 +88751,11 @@
       <c r="KK98" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KL98" t="n">
+      <c r="KL98" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KM98" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -89358,8 +89652,11 @@
       <c r="KK99" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KL99" t="n">
+      <c r="KL99" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KM99" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -90256,8 +90553,11 @@
       <c r="KK100" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KL100" t="n">
+      <c r="KL100" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KM100" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -91154,7 +91454,10 @@
       <c r="KK101" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KL101" t="n">
+      <c r="KL101" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KM101" t="n">
         <v>10</v>
       </c>
     </row>
@@ -92052,8 +92355,11 @@
       <c r="KK102" s="2" t="n">
         <v>86.7</v>
       </c>
-      <c r="KL102" t="n">
+      <c r="KL102" s="2" t="n">
         <v>90.90000000000001</v>
+      </c>
+      <c r="KM102" t="n">
+        <v>83.3</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Essendon_stats.xlsx
+++ b/AFL_ML/Data/Essendon_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KM102"/>
+  <dimension ref="A1:KN102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JQ85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JY94" activeCellId="0" sqref="JY94"/>
@@ -1357,8 +1357,11 @@
       <c r="KL1" s="2" t="n">
         <v>10922</v>
       </c>
-      <c r="KM1" t="n">
+      <c r="KM1" s="2" t="n">
         <v>10935</v>
+      </c>
+      <c r="KN1" t="n">
+        <v>10942</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2258,7 +2261,10 @@
       <c r="KL2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KM2" t="n">
+      <c r="KM2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KN2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3159,8 +3165,11 @@
       <c r="KL3" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KM3" t="n">
+      <c r="KM3" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4060,7 +4069,10 @@
       <c r="KL4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KM4" t="n">
+      <c r="KM4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KN4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4961,8 +4973,11 @@
       <c r="KL5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KM5" t="n">
+      <c r="KM5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KN5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5862,8 +5877,11 @@
       <c r="KL6" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="KM6" t="n">
+      <c r="KM6" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="KN6" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6763,8 +6781,11 @@
       <c r="KL7" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="KM7" t="n">
+      <c r="KM7" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="KN7" t="n">
+        <v>162</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7664,8 +7685,11 @@
       <c r="KL8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KM8" t="n">
+      <c r="KM8" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KN8" t="n">
+        <v>-126</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8565,8 +8589,11 @@
       <c r="KL9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KM9" t="n">
+      <c r="KM9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KN9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9466,8 +9493,11 @@
       <c r="KL10" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KM10" t="n">
+      <c r="KM10" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KN10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10367,8 +10397,11 @@
       <c r="KL11" s="2" t="n">
         <v>210</v>
       </c>
-      <c r="KM11" t="n">
+      <c r="KM11" s="2" t="n">
         <v>223</v>
+      </c>
+      <c r="KN11" t="n">
+        <v>159</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11268,8 +11301,11 @@
       <c r="KL12" s="2" t="n">
         <v>161</v>
       </c>
-      <c r="KM12" t="n">
+      <c r="KM12" s="2" t="n">
         <v>163</v>
+      </c>
+      <c r="KN12" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12169,8 +12205,11 @@
       <c r="KL13" s="2" t="n">
         <v>371</v>
       </c>
-      <c r="KM13" t="n">
+      <c r="KM13" s="2" t="n">
         <v>386</v>
+      </c>
+      <c r="KN13" t="n">
+        <v>314</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13070,8 +13109,11 @@
       <c r="KL14" s="2" t="n">
         <v>1.3</v>
       </c>
-      <c r="KM14" t="n">
+      <c r="KM14" s="2" t="n">
         <v>1.37</v>
+      </c>
+      <c r="KN14" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13971,8 +14013,11 @@
       <c r="KL15" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="KM15" t="n">
+      <c r="KM15" s="2" t="n">
         <v>108</v>
+      </c>
+      <c r="KN15" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14872,7 +14917,10 @@
       <c r="KL16" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KM16" t="n">
+      <c r="KM16" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KN16" t="n">
         <v>62</v>
       </c>
     </row>
@@ -15773,8 +15821,11 @@
       <c r="KL17" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KM17" t="n">
+      <c r="KM17" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KN17" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16674,8 +16725,11 @@
       <c r="KL18" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KM18" t="n">
+      <c r="KM18" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KN18" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17575,7 +17629,10 @@
       <c r="KL19" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KM19" t="n">
+      <c r="KM19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KN19" t="n">
         <v>20</v>
       </c>
     </row>
@@ -18476,8 +18533,11 @@
       <c r="KL20" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KM20" t="n">
+      <c r="KM20" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KN20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19377,8 +19437,11 @@
       <c r="KL21" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KM21" t="n">
+      <c r="KM21" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KN21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20278,8 +20341,11 @@
       <c r="KL22" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KM22" t="n">
+      <c r="KM22" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KN22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21179,8 +21245,11 @@
       <c r="KL23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KM23" t="n">
+      <c r="KM23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KN23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22080,8 +22149,11 @@
       <c r="KL24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KM24" t="n">
+      <c r="KM24" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KN24" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -22981,8 +23053,11 @@
       <c r="KL25" s="2" t="n">
         <v>43.5</v>
       </c>
-      <c r="KM25" t="n">
+      <c r="KM25" s="2" t="n">
         <v>61.9</v>
+      </c>
+      <c r="KN25" t="n">
+        <v>45.5</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -23882,8 +23957,11 @@
       <c r="KL26" s="2" t="n">
         <v>37.1</v>
       </c>
-      <c r="KM26" t="n">
+      <c r="KM26" s="2" t="n">
         <v>29.69</v>
+      </c>
+      <c r="KN26" t="n">
+        <v>62.8</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24783,8 +24861,11 @@
       <c r="KL27" s="2" t="n">
         <v>16.13</v>
       </c>
-      <c r="KM27" t="n">
+      <c r="KM27" s="2" t="n">
         <v>18.38</v>
+      </c>
+      <c r="KN27" t="n">
+        <v>28.55</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25684,8 +25765,11 @@
       <c r="KL28" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KM28" t="n">
+      <c r="KM28" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KN28" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26585,8 +26669,11 @@
       <c r="KL29" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KM29" t="n">
+      <c r="KM29" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="KN29" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27486,8 +27573,11 @@
       <c r="KL30" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KM30" t="n">
+      <c r="KM30" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KN30" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28387,8 +28477,11 @@
       <c r="KL31" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KM31" t="n">
+      <c r="KM31" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KN31" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29288,8 +29381,11 @@
       <c r="KL32" s="2" t="n">
         <v>2.39</v>
       </c>
-      <c r="KM32" t="n">
+      <c r="KM32" s="2" t="n">
         <v>2.86</v>
+      </c>
+      <c r="KN32" t="n">
+        <v>3.73</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30189,8 +30285,11 @@
       <c r="KL33" s="2" t="n">
         <v>5.5</v>
       </c>
-      <c r="KM33" t="n">
+      <c r="KM33" s="2" t="n">
         <v>4.62</v>
+      </c>
+      <c r="KN33" t="n">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31090,8 +31189,11 @@
       <c r="KL34" s="2" t="n">
         <v>41.8</v>
       </c>
-      <c r="KM34" t="n">
+      <c r="KM34" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="KN34" t="n">
+        <v>26.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -31991,8 +32093,11 @@
       <c r="KL35" s="2" t="n">
         <v>18.2</v>
       </c>
-      <c r="KM35" t="n">
+      <c r="KM35" s="2" t="n">
         <v>21.7</v>
+      </c>
+      <c r="KN35" t="n">
+        <v>12.2</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -32892,8 +32997,11 @@
       <c r="KL36" s="2" t="n">
         <v>188.4</v>
       </c>
-      <c r="KM36" t="n">
+      <c r="KM36" s="2" t="n">
         <v>188.7</v>
+      </c>
+      <c r="KN36" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -33793,8 +33901,11 @@
       <c r="KL37" s="2" t="n">
         <v>86.3</v>
       </c>
-      <c r="KM37" t="n">
+      <c r="KM37" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="KN37" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -34694,8 +34805,11 @@
       <c r="KL38" s="2" t="n">
         <v>24.74</v>
       </c>
-      <c r="KM38" t="n">
+      <c r="KM38" s="2" t="n">
         <v>24.91</v>
+      </c>
+      <c r="KN38" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35595,8 +35709,11 @@
       <c r="KL39" s="2" t="n">
         <v>83.2</v>
       </c>
-      <c r="KM39" t="n">
+      <c r="KM39" s="2" t="n">
         <v>84.40000000000001</v>
+      </c>
+      <c r="KN39" t="n">
+        <v>94.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36496,8 +36613,11 @@
       <c r="KL40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KM40" t="n">
+      <c r="KM40" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KN40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -37397,8 +37517,11 @@
       <c r="KL41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KM41" t="n">
+      <c r="KM41" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KN41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -38298,7 +38421,10 @@
       <c r="KL42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KM42" t="n">
+      <c r="KM42" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KN42" t="n">
         <v>7</v>
       </c>
     </row>
@@ -39199,8 +39325,11 @@
       <c r="KL43" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KM43" t="n">
+      <c r="KM43" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KN43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -40100,8 +40229,11 @@
       <c r="KL44" s="2" t="n">
         <v>132</v>
       </c>
-      <c r="KM44" t="n">
+      <c r="KM44" s="2" t="n">
         <v>139</v>
+      </c>
+      <c r="KN44" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -41001,8 +41133,11 @@
       <c r="KL45" s="2" t="n">
         <v>234</v>
       </c>
-      <c r="KM45" t="n">
+      <c r="KM45" s="2" t="n">
         <v>242</v>
+      </c>
+      <c r="KN45" t="n">
+        <v>199</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -41902,8 +42037,11 @@
       <c r="KL46" s="2" t="n">
         <v>272</v>
       </c>
-      <c r="KM46" t="n">
+      <c r="KM46" s="2" t="n">
         <v>284</v>
+      </c>
+      <c r="KN46" t="n">
+        <v>226</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -42803,8 +42941,11 @@
       <c r="KL47" s="2" t="n">
         <v>73.3</v>
       </c>
-      <c r="KM47" t="n">
+      <c r="KM47" s="2" t="n">
         <v>73.59999999999999</v>
+      </c>
+      <c r="KN47" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -43704,8 +43845,11 @@
       <c r="KL48" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KM48" t="n">
+      <c r="KM48" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="KN48" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -44605,8 +44749,11 @@
       <c r="KL49" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KM49" t="n">
+      <c r="KM49" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KN49" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -45506,8 +45653,11 @@
       <c r="KL50" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KM50" t="n">
+      <c r="KM50" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KN50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -46407,8 +46557,11 @@
       <c r="KL51" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KM51" t="n">
+      <c r="KM51" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KN51" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -47308,8 +47461,11 @@
       <c r="KL52" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KM52" t="n">
+      <c r="KM52" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KN52" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -48209,8 +48365,11 @@
       <c r="KL53" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KM53" t="n">
+      <c r="KM53" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KN53" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -49110,8 +49269,11 @@
       <c r="KL54" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KM54" t="n">
+      <c r="KM54" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KN54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -50011,8 +50173,11 @@
       <c r="KL55" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KM55" t="n">
+      <c r="KM55" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KN55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -50912,8 +51077,11 @@
       <c r="KL56" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="KM56" t="n">
+      <c r="KM56" s="2" t="n">
         <v>76.90000000000001</v>
+      </c>
+      <c r="KN56" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -51813,8 +51981,11 @@
       <c r="KL57" s="2" t="n">
         <v>211</v>
       </c>
-      <c r="KM57" t="n">
+      <c r="KM57" s="2" t="n">
         <v>187</v>
+      </c>
+      <c r="KN57" t="n">
+        <v>245</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -52714,8 +52885,11 @@
       <c r="KL58" s="2" t="n">
         <v>141</v>
       </c>
-      <c r="KM58" t="n">
+      <c r="KM58" s="2" t="n">
         <v>162</v>
+      </c>
+      <c r="KN58" t="n">
+        <v>186</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -53615,8 +53789,11 @@
       <c r="KL59" s="2" t="n">
         <v>352</v>
       </c>
-      <c r="KM59" t="n">
+      <c r="KM59" s="2" t="n">
         <v>349</v>
+      </c>
+      <c r="KN59" t="n">
+        <v>431</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -54516,8 +54693,11 @@
       <c r="KL60" s="2" t="n">
         <v>1.5</v>
       </c>
-      <c r="KM60" t="n">
+      <c r="KM60" s="2" t="n">
         <v>1.15</v>
+      </c>
+      <c r="KN60" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -55417,8 +55597,11 @@
       <c r="KL61" s="2" t="n">
         <v>111</v>
       </c>
-      <c r="KM61" t="n">
+      <c r="KM61" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="KN61" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -56318,8 +56501,11 @@
       <c r="KL62" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KM62" t="n">
+      <c r="KM62" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="KN62" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -57219,8 +57405,11 @@
       <c r="KL63" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KM63" t="n">
+      <c r="KM63" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KN63" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -58120,7 +58309,10 @@
       <c r="KL64" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KM64" t="n">
+      <c r="KM64" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KN64" t="n">
         <v>20</v>
       </c>
     </row>
@@ -59021,8 +59213,11 @@
       <c r="KL65" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KM65" t="n">
+      <c r="KM65" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KN65" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -59922,8 +60117,11 @@
       <c r="KL66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KM66" t="n">
+      <c r="KM66" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KN66" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -60823,8 +61021,11 @@
       <c r="KL67" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KM67" t="n">
+      <c r="KM67" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KN67" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -61724,8 +61925,11 @@
       <c r="KL68" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KM68" t="n">
+      <c r="KM68" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KN68" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -62625,8 +62829,11 @@
       <c r="KL69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KM69" t="n">
+      <c r="KM69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KN69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -63526,8 +63733,11 @@
       <c r="KL70" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KM70" t="n">
+      <c r="KM70" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KN70" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -64427,8 +64637,11 @@
       <c r="KL71" s="2" t="n">
         <v>64.7</v>
       </c>
-      <c r="KM71" t="n">
+      <c r="KM71" s="2" t="n">
         <v>70.59999999999999</v>
+      </c>
+      <c r="KN71" t="n">
+        <v>67.59999999999999</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -65328,8 +65541,11 @@
       <c r="KL72" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KM72" t="n">
+      <c r="KM72" s="2" t="n">
         <v>29.08</v>
+      </c>
+      <c r="KN72" t="n">
+        <v>17.24</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -66229,8 +66445,11 @@
       <c r="KL73" s="2" t="n">
         <v>20.71</v>
       </c>
-      <c r="KM73" t="n">
+      <c r="KM73" s="2" t="n">
         <v>20.53</v>
+      </c>
+      <c r="KN73" t="n">
+        <v>11.65</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -67130,8 +67349,11 @@
       <c r="KL74" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KM74" t="n">
+      <c r="KM74" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KN74" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -68031,7 +68253,10 @@
       <c r="KL75" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="KM75" t="n">
+      <c r="KM75" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="KN75" t="n">
         <v>58</v>
       </c>
     </row>
@@ -68932,8 +69157,11 @@
       <c r="KL76" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KM76" t="n">
+      <c r="KM76" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KN76" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -69833,8 +70061,11 @@
       <c r="KL77" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KM77" t="n">
+      <c r="KM77" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KN77" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -70734,8 +70965,11 @@
       <c r="KL78" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KM78" t="n">
+      <c r="KM78" s="2" t="n">
         <v>2.76</v>
+      </c>
+      <c r="KN78" t="n">
+        <v>1.89</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -71635,8 +71869,11 @@
       <c r="KL79" s="2" t="n">
         <v>4.64</v>
       </c>
-      <c r="KM79" t="n">
+      <c r="KM79" s="2" t="n">
         <v>3.92</v>
+      </c>
+      <c r="KN79" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -72536,8 +72773,11 @@
       <c r="KL80" s="2" t="n">
         <v>29.4</v>
       </c>
-      <c r="KM80" t="n">
+      <c r="KM80" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="KN80" t="n">
+        <v>52.9</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -73437,8 +73677,11 @@
       <c r="KL81" s="2" t="n">
         <v>21.6</v>
       </c>
-      <c r="KM81" t="n">
+      <c r="KM81" s="2" t="n">
         <v>25.5</v>
+      </c>
+      <c r="KN81" t="n">
+        <v>35.7</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -74338,8 +74581,11 @@
       <c r="KL82" s="2" t="n">
         <v>189.3</v>
       </c>
-      <c r="KM82" t="n">
+      <c r="KM82" s="2" t="n">
         <v>188.6</v>
+      </c>
+      <c r="KN82" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -75239,8 +75485,11 @@
       <c r="KL83" s="2" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="KM83" t="n">
+      <c r="KM83" s="2" t="n">
         <v>83.8</v>
+      </c>
+      <c r="KN83" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -76140,8 +76389,11 @@
       <c r="KL84" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KM84" t="n">
+      <c r="KM84" s="2" t="n">
         <v>24.91</v>
+      </c>
+      <c r="KN84" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -77041,8 +77293,11 @@
       <c r="KL85" s="2" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="KM85" t="n">
+      <c r="KM85" s="2" t="n">
         <v>98.09999999999999</v>
+      </c>
+      <c r="KN85" t="n">
+        <v>100.4</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -77942,8 +78197,11 @@
       <c r="KL86" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KM86" t="n">
+      <c r="KM86" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KN86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -78843,8 +79101,11 @@
       <c r="KL87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KM87" t="n">
+      <c r="KM87" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KN87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -79744,8 +80005,11 @@
       <c r="KL88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KM88" t="n">
+      <c r="KM88" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KN88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -80645,8 +80909,11 @@
       <c r="KL89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KM89" t="n">
+      <c r="KM89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KN89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -81546,8 +81813,11 @@
       <c r="KL90" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="KM90" t="n">
+      <c r="KM90" s="2" t="n">
         <v>130</v>
+      </c>
+      <c r="KN90" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -82447,8 +82717,11 @@
       <c r="KL91" s="2" t="n">
         <v>246</v>
       </c>
-      <c r="KM91" t="n">
+      <c r="KM91" s="2" t="n">
         <v>217</v>
+      </c>
+      <c r="KN91" t="n">
+        <v>275</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -83348,8 +83621,11 @@
       <c r="KL92" s="2" t="n">
         <v>283</v>
       </c>
-      <c r="KM92" t="n">
+      <c r="KM92" s="2" t="n">
         <v>261</v>
+      </c>
+      <c r="KN92" t="n">
+        <v>322</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -84249,8 +84525,11 @@
       <c r="KL93" s="2" t="n">
         <v>80.40000000000001</v>
       </c>
-      <c r="KM93" t="n">
+      <c r="KM93" s="2" t="n">
         <v>74.8</v>
+      </c>
+      <c r="KN93" t="n">
+        <v>74.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -85150,7 +85429,10 @@
       <c r="KL94" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="KM94" t="n">
+      <c r="KM94" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="KN94" t="n">
         <v>58</v>
       </c>
     </row>
@@ -86051,8 +86333,11 @@
       <c r="KL95" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KM95" t="n">
+      <c r="KM95" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KN95" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -86952,8 +87237,11 @@
       <c r="KL96" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KM96" t="n">
+      <c r="KM96" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KN96" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -87853,8 +88141,11 @@
       <c r="KL97" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KM97" t="n">
+      <c r="KM97" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KN97" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -88754,8 +89045,11 @@
       <c r="KL98" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KM98" t="n">
+      <c r="KM98" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KN98" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -89655,8 +89949,11 @@
       <c r="KL99" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KM99" t="n">
+      <c r="KM99" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KN99" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -90556,8 +90853,11 @@
       <c r="KL100" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KM100" t="n">
+      <c r="KM100" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KN100" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -91457,8 +91757,11 @@
       <c r="KL101" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KM101" t="n">
+      <c r="KM101" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KN101" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -92358,8 +92661,11 @@
       <c r="KL102" s="2" t="n">
         <v>90.90000000000001</v>
       </c>
-      <c r="KM102" t="n">
+      <c r="KM102" s="2" t="n">
         <v>83.3</v>
+      </c>
+      <c r="KN102" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Essendon_stats.xlsx
+++ b/AFL_ML/Data/Essendon_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KN102"/>
+  <dimension ref="A1:KO102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JQ85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JY94" activeCellId="0" sqref="JY94"/>
@@ -1360,8 +1360,11 @@
       <c r="KM1" s="2" t="n">
         <v>10935</v>
       </c>
-      <c r="KN1" t="n">
+      <c r="KN1" s="2" t="n">
         <v>10942</v>
+      </c>
+      <c r="KO1" t="n">
+        <v>10951</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2264,7 +2267,10 @@
       <c r="KM2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KN2" t="n">
+      <c r="KN2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KO2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3168,8 +3174,11 @@
       <c r="KM3" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KN3" t="n">
+      <c r="KN3" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4072,8 +4081,11 @@
       <c r="KM4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KN4" t="n">
+      <c r="KN4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4976,8 +4988,11 @@
       <c r="KM5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KN5" t="n">
+      <c r="KN5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KO5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5880,8 +5895,11 @@
       <c r="KM6" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="KN6" t="n">
+      <c r="KN6" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KO6" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6784,8 +6802,11 @@
       <c r="KM7" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="KN7" t="n">
+      <c r="KN7" s="2" t="n">
         <v>162</v>
+      </c>
+      <c r="KO7" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7688,8 +7709,11 @@
       <c r="KM8" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KN8" t="n">
+      <c r="KN8" s="2" t="n">
         <v>-126</v>
+      </c>
+      <c r="KO8" t="n">
+        <v>-70</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8592,7 +8616,10 @@
       <c r="KM9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KN9" t="n">
+      <c r="KN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9496,8 +9523,11 @@
       <c r="KM10" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KN10" t="n">
+      <c r="KN10" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KO10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10400,8 +10430,11 @@
       <c r="KM11" s="2" t="n">
         <v>223</v>
       </c>
-      <c r="KN11" t="n">
+      <c r="KN11" s="2" t="n">
         <v>159</v>
+      </c>
+      <c r="KO11" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11304,8 +11337,11 @@
       <c r="KM12" s="2" t="n">
         <v>163</v>
       </c>
-      <c r="KN12" t="n">
+      <c r="KN12" s="2" t="n">
         <v>155</v>
+      </c>
+      <c r="KO12" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12208,8 +12244,11 @@
       <c r="KM13" s="2" t="n">
         <v>386</v>
       </c>
-      <c r="KN13" t="n">
+      <c r="KN13" s="2" t="n">
         <v>314</v>
+      </c>
+      <c r="KO13" t="n">
+        <v>390</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13112,8 +13151,11 @@
       <c r="KM14" s="2" t="n">
         <v>1.37</v>
       </c>
-      <c r="KN14" t="n">
+      <c r="KN14" s="2" t="n">
         <v>1.03</v>
+      </c>
+      <c r="KO14" t="n">
+        <v>1.29</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14016,8 +14058,11 @@
       <c r="KM15" s="2" t="n">
         <v>108</v>
       </c>
-      <c r="KN15" t="n">
+      <c r="KN15" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KO15" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14920,8 +14965,11 @@
       <c r="KM16" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KN16" t="n">
+      <c r="KN16" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="KO16" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15824,8 +15872,11 @@
       <c r="KM17" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KN17" t="n">
+      <c r="KN17" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="KO17" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16728,8 +16779,11 @@
       <c r="KM18" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KN18" t="n">
+      <c r="KN18" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KO18" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17632,8 +17686,11 @@
       <c r="KM19" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KN19" t="n">
+      <c r="KN19" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KO19" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18536,8 +18593,11 @@
       <c r="KM20" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KN20" t="n">
+      <c r="KN20" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KO20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19440,8 +19500,11 @@
       <c r="KM21" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KN21" t="n">
+      <c r="KN21" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KO21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20344,8 +20407,11 @@
       <c r="KM22" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KN22" t="n">
+      <c r="KN22" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KO22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21248,8 +21314,11 @@
       <c r="KM23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KN23" t="n">
+      <c r="KN23" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KO23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22152,8 +22221,11 @@
       <c r="KM24" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KN24" t="n">
+      <c r="KN24" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KO24" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23056,8 +23128,11 @@
       <c r="KM25" s="2" t="n">
         <v>61.9</v>
       </c>
-      <c r="KN25" t="n">
+      <c r="KN25" s="2" t="n">
         <v>45.5</v>
+      </c>
+      <c r="KO25" t="n">
+        <v>18.8</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -23960,8 +24035,11 @@
       <c r="KM26" s="2" t="n">
         <v>29.69</v>
       </c>
-      <c r="KN26" t="n">
+      <c r="KN26" s="2" t="n">
         <v>62.8</v>
+      </c>
+      <c r="KO26" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24864,8 +24942,11 @@
       <c r="KM27" s="2" t="n">
         <v>18.38</v>
       </c>
-      <c r="KN27" t="n">
+      <c r="KN27" s="2" t="n">
         <v>28.55</v>
+      </c>
+      <c r="KO27" t="n">
+        <v>24.38</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25768,8 +25849,11 @@
       <c r="KM28" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KN28" t="n">
+      <c r="KN28" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KO28" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26672,8 +26756,11 @@
       <c r="KM29" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KN29" t="n">
+      <c r="KN29" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="KO29" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27576,8 +27663,11 @@
       <c r="KM30" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KN30" t="n">
+      <c r="KN30" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KO30" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28480,8 +28570,11 @@
       <c r="KM31" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KN31" t="n">
+      <c r="KN31" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KO31" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29384,8 +29477,11 @@
       <c r="KM32" s="2" t="n">
         <v>2.86</v>
       </c>
-      <c r="KN32" t="n">
+      <c r="KN32" s="2" t="n">
         <v>3.73</v>
+      </c>
+      <c r="KO32" t="n">
+        <v>2.44</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30288,8 +30384,11 @@
       <c r="KM33" s="2" t="n">
         <v>4.62</v>
       </c>
-      <c r="KN33" t="n">
+      <c r="KN33" s="2" t="n">
         <v>8.199999999999999</v>
+      </c>
+      <c r="KO33" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31192,8 +31291,11 @@
       <c r="KM34" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KN34" t="n">
+      <c r="KN34" s="2" t="n">
         <v>26.8</v>
+      </c>
+      <c r="KO34" t="n">
+        <v>35.9</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32096,8 +32198,11 @@
       <c r="KM35" s="2" t="n">
         <v>21.7</v>
       </c>
-      <c r="KN35" t="n">
+      <c r="KN35" s="2" t="n">
         <v>12.2</v>
+      </c>
+      <c r="KO35" t="n">
+        <v>7.7</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33000,8 +33105,11 @@
       <c r="KM36" s="2" t="n">
         <v>188.7</v>
       </c>
-      <c r="KN36" t="n">
+      <c r="KN36" s="2" t="n">
         <v>189</v>
+      </c>
+      <c r="KO36" t="n">
+        <v>187.9</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -33904,8 +34012,11 @@
       <c r="KM37" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="KN37" t="n">
+      <c r="KN37" s="2" t="n">
         <v>87.09999999999999</v>
+      </c>
+      <c r="KO37" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -34808,8 +34919,11 @@
       <c r="KM38" s="2" t="n">
         <v>24.91</v>
       </c>
-      <c r="KN38" t="n">
+      <c r="KN38" s="2" t="n">
         <v>25.33</v>
+      </c>
+      <c r="KO38" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35712,8 +35826,11 @@
       <c r="KM39" s="2" t="n">
         <v>84.40000000000001</v>
       </c>
-      <c r="KN39" t="n">
+      <c r="KN39" s="2" t="n">
         <v>94.7</v>
+      </c>
+      <c r="KO39" t="n">
+        <v>82.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36616,8 +36733,11 @@
       <c r="KM40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KN40" t="n">
+      <c r="KN40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KO40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -37520,7 +37640,10 @@
       <c r="KM41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KN41" t="n">
+      <c r="KN41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KO41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -38424,8 +38547,11 @@
       <c r="KM42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KN42" t="n">
+      <c r="KN42" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KO42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -39328,7 +39454,10 @@
       <c r="KM43" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KN43" t="n">
+      <c r="KN43" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KO43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -40232,8 +40361,11 @@
       <c r="KM44" s="2" t="n">
         <v>139</v>
       </c>
-      <c r="KN44" t="n">
+      <c r="KN44" s="2" t="n">
         <v>106</v>
+      </c>
+      <c r="KO44" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -41136,8 +41268,11 @@
       <c r="KM45" s="2" t="n">
         <v>242</v>
       </c>
-      <c r="KN45" t="n">
+      <c r="KN45" s="2" t="n">
         <v>199</v>
+      </c>
+      <c r="KO45" t="n">
+        <v>279</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -42040,8 +42175,11 @@
       <c r="KM46" s="2" t="n">
         <v>284</v>
       </c>
-      <c r="KN46" t="n">
+      <c r="KN46" s="2" t="n">
         <v>226</v>
+      </c>
+      <c r="KO46" t="n">
+        <v>292</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -42944,8 +43082,11 @@
       <c r="KM47" s="2" t="n">
         <v>73.59999999999999</v>
       </c>
-      <c r="KN47" t="n">
+      <c r="KN47" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="KO47" t="n">
+        <v>74.90000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -43848,8 +43989,11 @@
       <c r="KM48" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KN48" t="n">
+      <c r="KN48" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="KO48" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -44752,8 +44896,11 @@
       <c r="KM49" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KN49" t="n">
+      <c r="KN49" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KO49" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -45656,8 +45803,11 @@
       <c r="KM50" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KN50" t="n">
+      <c r="KN50" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KO50" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -46560,8 +46710,11 @@
       <c r="KM51" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KN51" t="n">
+      <c r="KN51" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KO51" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -47464,8 +47617,11 @@
       <c r="KM52" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KN52" t="n">
+      <c r="KN52" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KO52" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -48368,8 +48524,11 @@
       <c r="KM53" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KN53" t="n">
+      <c r="KN53" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KO53" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -49272,8 +49431,11 @@
       <c r="KM54" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KN54" t="n">
+      <c r="KN54" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KO54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -50176,8 +50338,11 @@
       <c r="KM55" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KN55" t="n">
+      <c r="KN55" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KO55" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -51080,8 +51245,11 @@
       <c r="KM56" s="2" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="KN56" t="n">
+      <c r="KN56" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="KO56" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -51984,8 +52152,11 @@
       <c r="KM57" s="2" t="n">
         <v>187</v>
       </c>
-      <c r="KN57" t="n">
+      <c r="KN57" s="2" t="n">
         <v>245</v>
+      </c>
+      <c r="KO57" t="n">
+        <v>229</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -52888,8 +53059,11 @@
       <c r="KM58" s="2" t="n">
         <v>162</v>
       </c>
-      <c r="KN58" t="n">
+      <c r="KN58" s="2" t="n">
         <v>186</v>
+      </c>
+      <c r="KO58" t="n">
+        <v>167</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -53792,8 +53966,11 @@
       <c r="KM59" s="2" t="n">
         <v>349</v>
       </c>
-      <c r="KN59" t="n">
+      <c r="KN59" s="2" t="n">
         <v>431</v>
+      </c>
+      <c r="KO59" t="n">
+        <v>396</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -54696,8 +54873,11 @@
       <c r="KM60" s="2" t="n">
         <v>1.15</v>
       </c>
-      <c r="KN60" t="n">
+      <c r="KN60" s="2" t="n">
         <v>1.32</v>
+      </c>
+      <c r="KO60" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -55600,8 +55780,11 @@
       <c r="KM61" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="KN61" t="n">
+      <c r="KN61" s="2" t="n">
         <v>108</v>
+      </c>
+      <c r="KO61" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -56504,8 +56687,11 @@
       <c r="KM62" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KN62" t="n">
+      <c r="KN62" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KO62" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -57408,8 +57594,11 @@
       <c r="KM63" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KN63" t="n">
+      <c r="KN63" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="KO63" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -58312,8 +58501,11 @@
       <c r="KM64" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KN64" t="n">
+      <c r="KN64" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KO64" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -59216,8 +59408,11 @@
       <c r="KM65" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KN65" t="n">
+      <c r="KN65" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KO65" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -60120,8 +60315,11 @@
       <c r="KM66" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KN66" t="n">
+      <c r="KN66" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KO66" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -61024,8 +61222,11 @@
       <c r="KM67" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KN67" t="n">
+      <c r="KN67" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KO67" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -61928,8 +62129,11 @@
       <c r="KM68" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KN68" t="n">
+      <c r="KN68" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KO68" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -62832,8 +63036,11 @@
       <c r="KM69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KN69" t="n">
+      <c r="KN69" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KO69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -63736,8 +63943,11 @@
       <c r="KM70" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KN70" t="n">
+      <c r="KN70" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KO70" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -64640,8 +64850,11 @@
       <c r="KM71" s="2" t="n">
         <v>70.59999999999999</v>
       </c>
-      <c r="KN71" t="n">
+      <c r="KN71" s="2" t="n">
         <v>67.59999999999999</v>
+      </c>
+      <c r="KO71" t="n">
+        <v>76.2</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -65544,8 +65757,11 @@
       <c r="KM72" s="2" t="n">
         <v>29.08</v>
       </c>
-      <c r="KN72" t="n">
+      <c r="KN72" s="2" t="n">
         <v>17.24</v>
+      </c>
+      <c r="KO72" t="n">
+        <v>24.75</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -66448,8 +66664,11 @@
       <c r="KM73" s="2" t="n">
         <v>20.53</v>
       </c>
-      <c r="KN73" t="n">
+      <c r="KN73" s="2" t="n">
         <v>11.65</v>
+      </c>
+      <c r="KO73" t="n">
+        <v>18.86</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -67352,8 +67571,11 @@
       <c r="KM74" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KN74" t="n">
+      <c r="KN74" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KO74" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -68256,8 +68478,11 @@
       <c r="KM75" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KN75" t="n">
+      <c r="KN75" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="KO75" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -69160,8 +69385,11 @@
       <c r="KM76" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KN76" t="n">
+      <c r="KN76" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KO76" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -70064,8 +70292,11 @@
       <c r="KM77" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="KN77" t="n">
+      <c r="KN77" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="KO77" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -70968,8 +71199,11 @@
       <c r="KM78" s="2" t="n">
         <v>2.76</v>
       </c>
-      <c r="KN78" t="n">
+      <c r="KN78" s="2" t="n">
         <v>1.89</v>
+      </c>
+      <c r="KO78" t="n">
+        <v>2.67</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -71872,8 +72106,11 @@
       <c r="KM79" s="2" t="n">
         <v>3.92</v>
       </c>
-      <c r="KN79" t="n">
+      <c r="KN79" s="2" t="n">
         <v>2.8</v>
+      </c>
+      <c r="KO79" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -72776,8 +73013,11 @@
       <c r="KM80" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="KN80" t="n">
+      <c r="KN80" s="2" t="n">
         <v>52.9</v>
+      </c>
+      <c r="KO80" t="n">
+        <v>32.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -73680,8 +73920,11 @@
       <c r="KM81" s="2" t="n">
         <v>25.5</v>
       </c>
-      <c r="KN81" t="n">
+      <c r="KN81" s="2" t="n">
         <v>35.7</v>
+      </c>
+      <c r="KO81" t="n">
+        <v>28.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -74584,8 +74827,11 @@
       <c r="KM82" s="2" t="n">
         <v>188.6</v>
       </c>
-      <c r="KN82" t="n">
+      <c r="KN82" s="2" t="n">
         <v>188.7</v>
+      </c>
+      <c r="KO82" t="n">
+        <v>188.1</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -75488,8 +75734,11 @@
       <c r="KM83" s="2" t="n">
         <v>83.8</v>
       </c>
-      <c r="KN83" t="n">
+      <c r="KN83" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="KO83" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -76392,8 +76641,11 @@
       <c r="KM84" s="2" t="n">
         <v>24.91</v>
       </c>
-      <c r="KN84" t="n">
+      <c r="KN84" s="2" t="n">
         <v>25.91</v>
+      </c>
+      <c r="KO84" t="n">
+        <v>28.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -77296,8 +77548,11 @@
       <c r="KM85" s="2" t="n">
         <v>98.09999999999999</v>
       </c>
-      <c r="KN85" t="n">
+      <c r="KN85" s="2" t="n">
         <v>100.4</v>
+      </c>
+      <c r="KO85" t="n">
+        <v>144.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -78200,8 +78455,11 @@
       <c r="KM86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KN86" t="n">
+      <c r="KN86" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KO86" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -79104,8 +79362,11 @@
       <c r="KM87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KN87" t="n">
+      <c r="KN87" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KO87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -80008,8 +80269,11 @@
       <c r="KM88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KN88" t="n">
+      <c r="KN88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KO88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -80912,8 +81176,11 @@
       <c r="KM89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KN89" t="n">
+      <c r="KN89" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KO89" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -81816,8 +82083,11 @@
       <c r="KM90" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="KN90" t="n">
+      <c r="KN90" s="2" t="n">
         <v>147</v>
+      </c>
+      <c r="KO90" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -82720,8 +82990,11 @@
       <c r="KM91" s="2" t="n">
         <v>217</v>
       </c>
-      <c r="KN91" t="n">
+      <c r="KN91" s="2" t="n">
         <v>275</v>
+      </c>
+      <c r="KO91" t="n">
+        <v>270</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -83624,8 +83897,11 @@
       <c r="KM92" s="2" t="n">
         <v>261</v>
       </c>
-      <c r="KN92" t="n">
+      <c r="KN92" s="2" t="n">
         <v>322</v>
+      </c>
+      <c r="KO92" t="n">
+        <v>304</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -84528,8 +84804,11 @@
       <c r="KM93" s="2" t="n">
         <v>74.8</v>
       </c>
-      <c r="KN93" t="n">
+      <c r="KN93" s="2" t="n">
         <v>74.7</v>
+      </c>
+      <c r="KO93" t="n">
+        <v>76.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -85432,8 +85711,11 @@
       <c r="KM94" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KN94" t="n">
+      <c r="KN94" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="KO94" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -86336,8 +86618,11 @@
       <c r="KM95" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KN95" t="n">
+      <c r="KN95" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KO95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -87240,8 +87525,11 @@
       <c r="KM96" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KN96" t="n">
+      <c r="KN96" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KO96" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -88144,8 +88432,11 @@
       <c r="KM97" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KN97" t="n">
+      <c r="KN97" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="KO97" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -89048,8 +89339,11 @@
       <c r="KM98" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KN98" t="n">
+      <c r="KN98" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KO98" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -89952,8 +90246,11 @@
       <c r="KM99" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KN99" t="n">
+      <c r="KN99" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KO99" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -90856,8 +91153,11 @@
       <c r="KM100" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KN100" t="n">
+      <c r="KN100" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KO100" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -91760,8 +92060,11 @@
       <c r="KM101" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KN101" t="n">
+      <c r="KN101" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KO101" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -92664,8 +92967,11 @@
       <c r="KM102" s="2" t="n">
         <v>83.3</v>
       </c>
-      <c r="KN102" t="n">
+      <c r="KN102" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="KO102" t="n">
+        <v>87.5</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Essendon_stats.xlsx
+++ b/AFL_ML/Data/Essendon_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KO102"/>
+  <dimension ref="A1:KP102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JQ85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JY94" activeCellId="0" sqref="JY94"/>
@@ -1363,8 +1363,11 @@
       <c r="KN1" s="2" t="n">
         <v>10942</v>
       </c>
-      <c r="KO1" t="n">
+      <c r="KO1" s="2" t="n">
         <v>10951</v>
+      </c>
+      <c r="KP1" t="n">
+        <v>10973</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2270,7 +2273,10 @@
       <c r="KN2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KO2" t="n">
+      <c r="KO2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KP2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3177,8 +3183,11 @@
       <c r="KN3" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KO3" t="n">
+      <c r="KO3" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4084,7 +4093,10 @@
       <c r="KN4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KO4" t="n">
+      <c r="KO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4991,8 +5003,11 @@
       <c r="KN5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KO5" t="n">
+      <c r="KO5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KP5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5898,8 +5913,11 @@
       <c r="KN6" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KO6" t="n">
+      <c r="KO6" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KP6" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6805,8 +6823,11 @@
       <c r="KN7" s="2" t="n">
         <v>162</v>
       </c>
-      <c r="KO7" t="n">
+      <c r="KO7" s="2" t="n">
         <v>101</v>
+      </c>
+      <c r="KP7" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7712,8 +7733,11 @@
       <c r="KN8" s="2" t="n">
         <v>-126</v>
       </c>
-      <c r="KO8" t="n">
+      <c r="KO8" s="2" t="n">
         <v>-70</v>
+      </c>
+      <c r="KP8" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8619,8 +8643,11 @@
       <c r="KN9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KO9" t="n">
+      <c r="KO9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KP9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9526,8 +9553,11 @@
       <c r="KN10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KO10" t="n">
+      <c r="KO10" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KP10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10433,8 +10463,11 @@
       <c r="KN11" s="2" t="n">
         <v>159</v>
       </c>
-      <c r="KO11" t="n">
+      <c r="KO11" s="2" t="n">
         <v>220</v>
+      </c>
+      <c r="KP11" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11340,8 +11373,11 @@
       <c r="KN12" s="2" t="n">
         <v>155</v>
       </c>
-      <c r="KO12" t="n">
+      <c r="KO12" s="2" t="n">
         <v>170</v>
+      </c>
+      <c r="KP12" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12247,8 +12283,11 @@
       <c r="KN13" s="2" t="n">
         <v>314</v>
       </c>
-      <c r="KO13" t="n">
+      <c r="KO13" s="2" t="n">
         <v>390</v>
+      </c>
+      <c r="KP13" t="n">
+        <v>346</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13154,8 +13193,11 @@
       <c r="KN14" s="2" t="n">
         <v>1.03</v>
       </c>
-      <c r="KO14" t="n">
+      <c r="KO14" s="2" t="n">
         <v>1.29</v>
+      </c>
+      <c r="KP14" t="n">
+        <v>1.45</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14061,8 +14103,11 @@
       <c r="KN15" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KO15" t="n">
+      <c r="KO15" s="2" t="n">
         <v>121</v>
+      </c>
+      <c r="KP15" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14968,8 +15013,11 @@
       <c r="KN16" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="KO16" t="n">
+      <c r="KO16" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KP16" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15875,8 +15923,11 @@
       <c r="KN17" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KO17" t="n">
+      <c r="KO17" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KP17" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16782,8 +16833,11 @@
       <c r="KN18" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KO18" t="n">
+      <c r="KO18" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KP18" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17689,8 +17743,11 @@
       <c r="KN19" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KO19" t="n">
+      <c r="KO19" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KP19" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18596,8 +18653,11 @@
       <c r="KN20" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KO20" t="n">
+      <c r="KO20" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KP20" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19503,8 +19563,11 @@
       <c r="KN21" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KO21" t="n">
+      <c r="KO21" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KP21" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20410,8 +20473,11 @@
       <c r="KN22" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KO22" t="n">
+      <c r="KO22" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KP22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -21317,8 +21383,11 @@
       <c r="KN23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KO23" t="n">
+      <c r="KO23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KP23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22224,8 +22293,11 @@
       <c r="KN24" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KO24" t="n">
+      <c r="KO24" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KP24" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23131,8 +23203,11 @@
       <c r="KN25" s="2" t="n">
         <v>45.5</v>
       </c>
-      <c r="KO25" t="n">
+      <c r="KO25" s="2" t="n">
         <v>18.8</v>
+      </c>
+      <c r="KP25" t="n">
+        <v>77.3</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24038,8 +24113,11 @@
       <c r="KN26" s="2" t="n">
         <v>62.8</v>
       </c>
-      <c r="KO26" t="n">
+      <c r="KO26" s="2" t="n">
         <v>130</v>
+      </c>
+      <c r="KP26" t="n">
+        <v>20.35</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24945,8 +25023,11 @@
       <c r="KN27" s="2" t="n">
         <v>28.55</v>
       </c>
-      <c r="KO27" t="n">
+      <c r="KO27" s="2" t="n">
         <v>24.38</v>
+      </c>
+      <c r="KP27" t="n">
+        <v>15.73</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25852,8 +25933,11 @@
       <c r="KN28" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KO28" t="n">
+      <c r="KO28" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="KP28" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26759,8 +26843,11 @@
       <c r="KN29" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KO29" t="n">
+      <c r="KO29" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KP29" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27666,8 +27753,11 @@
       <c r="KN30" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KO30" t="n">
+      <c r="KO30" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KP30" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28573,8 +28663,11 @@
       <c r="KN31" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KO31" t="n">
+      <c r="KO31" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KP31" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29480,8 +29573,11 @@
       <c r="KN32" s="2" t="n">
         <v>3.73</v>
       </c>
-      <c r="KO32" t="n">
+      <c r="KO32" s="2" t="n">
         <v>2.44</v>
+      </c>
+      <c r="KP32" t="n">
+        <v>2.32</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30387,8 +30483,11 @@
       <c r="KN33" s="2" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="KO33" t="n">
+      <c r="KO33" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KP33" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31294,8 +31393,11 @@
       <c r="KN34" s="2" t="n">
         <v>26.8</v>
       </c>
-      <c r="KO34" t="n">
+      <c r="KO34" s="2" t="n">
         <v>35.9</v>
+      </c>
+      <c r="KP34" t="n">
+        <v>43.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32201,8 +32303,11 @@
       <c r="KN35" s="2" t="n">
         <v>12.2</v>
       </c>
-      <c r="KO35" t="n">
+      <c r="KO35" s="2" t="n">
         <v>7.7</v>
+      </c>
+      <c r="KP35" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33108,8 +33213,11 @@
       <c r="KN36" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="KO36" t="n">
+      <c r="KO36" s="2" t="n">
         <v>187.9</v>
+      </c>
+      <c r="KP36" t="n">
+        <v>189.9</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -34015,8 +34123,11 @@
       <c r="KN37" s="2" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="KO37" t="n">
+      <c r="KO37" s="2" t="n">
         <v>86.3</v>
+      </c>
+      <c r="KP37" t="n">
+        <v>87.90000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -34922,8 +35033,11 @@
       <c r="KN38" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="KO38" t="n">
+      <c r="KO38" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="KP38" t="n">
+        <v>25.66</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35829,8 +35943,11 @@
       <c r="KN39" s="2" t="n">
         <v>94.7</v>
       </c>
-      <c r="KO39" t="n">
+      <c r="KO39" s="2" t="n">
         <v>82.3</v>
+      </c>
+      <c r="KP39" t="n">
+        <v>102.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36736,8 +36853,11 @@
       <c r="KN40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KO40" t="n">
+      <c r="KO40" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KP40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -37643,7 +37763,10 @@
       <c r="KN41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KO41" t="n">
+      <c r="KO41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KP41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -38550,8 +38673,11 @@
       <c r="KN42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KO42" t="n">
+      <c r="KO42" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KP42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -39457,8 +39583,11 @@
       <c r="KN43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KO43" t="n">
+      <c r="KO43" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KP43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -40364,8 +40493,11 @@
       <c r="KN44" s="2" t="n">
         <v>106</v>
       </c>
-      <c r="KO44" t="n">
+      <c r="KO44" s="2" t="n">
         <v>110</v>
+      </c>
+      <c r="KP44" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -41271,8 +41403,11 @@
       <c r="KN45" s="2" t="n">
         <v>199</v>
       </c>
-      <c r="KO45" t="n">
+      <c r="KO45" s="2" t="n">
         <v>279</v>
+      </c>
+      <c r="KP45" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -42178,8 +42313,11 @@
       <c r="KN46" s="2" t="n">
         <v>226</v>
       </c>
-      <c r="KO46" t="n">
+      <c r="KO46" s="2" t="n">
         <v>292</v>
+      </c>
+      <c r="KP46" t="n">
+        <v>261</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -43085,8 +43223,11 @@
       <c r="KN47" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="KO47" t="n">
+      <c r="KO47" s="2" t="n">
         <v>74.90000000000001</v>
+      </c>
+      <c r="KP47" t="n">
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -43992,8 +44133,11 @@
       <c r="KN48" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KO48" t="n">
+      <c r="KO48" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="KP48" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -44899,8 +45043,11 @@
       <c r="KN49" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KO49" t="n">
+      <c r="KO49" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KP49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -45806,7 +45953,10 @@
       <c r="KN50" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KO50" t="n">
+      <c r="KO50" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KP50" t="n">
         <v>14</v>
       </c>
     </row>
@@ -46713,8 +46863,11 @@
       <c r="KN51" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KO51" t="n">
+      <c r="KO51" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="KP51" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -47620,8 +47773,11 @@
       <c r="KN52" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KO52" t="n">
+      <c r="KO52" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KP52" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -48527,7 +48683,10 @@
       <c r="KN53" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KO53" t="n">
+      <c r="KO53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KP53" t="n">
         <v>37</v>
       </c>
     </row>
@@ -49434,8 +49593,11 @@
       <c r="KN54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KO54" t="n">
+      <c r="KO54" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KP54" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -50341,8 +50503,11 @@
       <c r="KN55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KO55" t="n">
+      <c r="KO55" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KP55" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -51248,8 +51413,11 @@
       <c r="KN56" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="KO56" t="n">
+      <c r="KO56" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="KP56" t="n">
+        <v>88.2</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -52155,8 +52323,11 @@
       <c r="KN57" s="2" t="n">
         <v>245</v>
       </c>
-      <c r="KO57" t="n">
+      <c r="KO57" s="2" t="n">
         <v>229</v>
+      </c>
+      <c r="KP57" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -53062,8 +53233,11 @@
       <c r="KN58" s="2" t="n">
         <v>186</v>
       </c>
-      <c r="KO58" t="n">
+      <c r="KO58" s="2" t="n">
         <v>167</v>
+      </c>
+      <c r="KP58" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -53969,8 +54143,11 @@
       <c r="KN59" s="2" t="n">
         <v>431</v>
       </c>
-      <c r="KO59" t="n">
+      <c r="KO59" s="2" t="n">
         <v>396</v>
+      </c>
+      <c r="KP59" t="n">
+        <v>339</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -54876,8 +55053,11 @@
       <c r="KN60" s="2" t="n">
         <v>1.32</v>
       </c>
-      <c r="KO60" t="n">
+      <c r="KO60" s="2" t="n">
         <v>1.37</v>
+      </c>
+      <c r="KP60" t="n">
+        <v>1.46</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -55783,8 +55963,11 @@
       <c r="KN61" s="2" t="n">
         <v>108</v>
       </c>
-      <c r="KO61" t="n">
+      <c r="KO61" s="2" t="n">
         <v>106</v>
+      </c>
+      <c r="KP61" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -56690,8 +56873,11 @@
       <c r="KN62" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KO62" t="n">
+      <c r="KO62" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="KP62" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -57597,8 +57783,11 @@
       <c r="KN63" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KO63" t="n">
+      <c r="KO63" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="KP63" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -58504,8 +58693,11 @@
       <c r="KN64" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KO64" t="n">
+      <c r="KO64" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KP64" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -59411,8 +59603,11 @@
       <c r="KN65" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KO65" t="n">
+      <c r="KO65" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KP65" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -60318,8 +60513,11 @@
       <c r="KN66" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KO66" t="n">
+      <c r="KO66" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KP66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -61225,8 +61423,11 @@
       <c r="KN67" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KO67" t="n">
+      <c r="KO67" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KP67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -62132,8 +62333,11 @@
       <c r="KN68" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KO68" t="n">
+      <c r="KO68" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KP68" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -63039,7 +63243,10 @@
       <c r="KN69" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KO69" t="n">
+      <c r="KO69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KP69" t="n">
         <v>3</v>
       </c>
     </row>
@@ -63946,8 +64153,11 @@
       <c r="KN70" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KO70" t="n">
+      <c r="KO70" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="KP70" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -64853,8 +65063,11 @@
       <c r="KN71" s="2" t="n">
         <v>67.59999999999999</v>
       </c>
-      <c r="KO71" t="n">
+      <c r="KO71" s="2" t="n">
         <v>76.2</v>
+      </c>
+      <c r="KP71" t="n">
+        <v>39.3</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -65760,8 +65973,11 @@
       <c r="KN72" s="2" t="n">
         <v>17.24</v>
       </c>
-      <c r="KO72" t="n">
+      <c r="KO72" s="2" t="n">
         <v>24.75</v>
+      </c>
+      <c r="KP72" t="n">
+        <v>30.82</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -66667,8 +66883,11 @@
       <c r="KN73" s="2" t="n">
         <v>11.65</v>
       </c>
-      <c r="KO73" t="n">
+      <c r="KO73" s="2" t="n">
         <v>18.86</v>
+      </c>
+      <c r="KP73" t="n">
+        <v>12.11</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -67574,8 +67793,11 @@
       <c r="KN74" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KO74" t="n">
+      <c r="KO74" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KP74" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -68481,8 +68703,11 @@
       <c r="KN75" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KO75" t="n">
+      <c r="KO75" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KP75" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -69388,8 +69613,11 @@
       <c r="KN76" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KO76" t="n">
+      <c r="KO76" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KP76" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -70295,8 +70523,11 @@
       <c r="KN77" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="KO77" t="n">
+      <c r="KO77" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="KP77" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -71202,8 +71433,11 @@
       <c r="KN78" s="2" t="n">
         <v>1.89</v>
       </c>
-      <c r="KO78" t="n">
+      <c r="KO78" s="2" t="n">
         <v>2.67</v>
+      </c>
+      <c r="KP78" t="n">
+        <v>2.04</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -72109,8 +72343,11 @@
       <c r="KN79" s="2" t="n">
         <v>2.8</v>
       </c>
-      <c r="KO79" t="n">
+      <c r="KO79" s="2" t="n">
         <v>3.5</v>
+      </c>
+      <c r="KP79" t="n">
+        <v>5.18</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -73016,8 +73253,11 @@
       <c r="KN80" s="2" t="n">
         <v>52.9</v>
       </c>
-      <c r="KO80" t="n">
+      <c r="KO80" s="2" t="n">
         <v>32.1</v>
+      </c>
+      <c r="KP80" t="n">
+        <v>43.9</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -73923,8 +74163,11 @@
       <c r="KN81" s="2" t="n">
         <v>35.7</v>
       </c>
-      <c r="KO81" t="n">
+      <c r="KO81" s="2" t="n">
         <v>28.6</v>
+      </c>
+      <c r="KP81" t="n">
+        <v>19.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -74830,8 +75073,11 @@
       <c r="KN82" s="2" t="n">
         <v>188.7</v>
       </c>
-      <c r="KO82" t="n">
+      <c r="KO82" s="2" t="n">
         <v>188.1</v>
+      </c>
+      <c r="KP82" t="n">
+        <v>187.8</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -75737,8 +75983,11 @@
       <c r="KN83" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="KO83" t="n">
+      <c r="KO83" s="2" t="n">
         <v>87.5</v>
+      </c>
+      <c r="KP83" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -76644,8 +76893,11 @@
       <c r="KN84" s="2" t="n">
         <v>25.91</v>
       </c>
-      <c r="KO84" t="n">
+      <c r="KO84" s="2" t="n">
         <v>28.8</v>
+      </c>
+      <c r="KP84" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -77551,8 +77803,11 @@
       <c r="KN85" s="2" t="n">
         <v>100.4</v>
       </c>
-      <c r="KO85" t="n">
+      <c r="KO85" s="2" t="n">
         <v>144.2</v>
+      </c>
+      <c r="KP85" t="n">
+        <v>88.90000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -78458,8 +78713,11 @@
       <c r="KN86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KO86" t="n">
+      <c r="KO86" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KP86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -79365,7 +79623,10 @@
       <c r="KN87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KO87" t="n">
+      <c r="KO87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KP87" t="n">
         <v>6</v>
       </c>
     </row>
@@ -80272,8 +80533,11 @@
       <c r="KN88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KO88" t="n">
+      <c r="KO88" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KP88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -81179,8 +81443,11 @@
       <c r="KN89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KO89" t="n">
+      <c r="KO89" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KP89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -82086,8 +82353,11 @@
       <c r="KN90" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="KO90" t="n">
+      <c r="KO90" s="2" t="n">
         <v>124</v>
+      </c>
+      <c r="KP90" t="n">
+        <v>122</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -82993,8 +83263,11 @@
       <c r="KN91" s="2" t="n">
         <v>275</v>
       </c>
-      <c r="KO91" t="n">
+      <c r="KO91" s="2" t="n">
         <v>270</v>
+      </c>
+      <c r="KP91" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -83900,8 +84173,11 @@
       <c r="KN92" s="2" t="n">
         <v>322</v>
       </c>
-      <c r="KO92" t="n">
+      <c r="KO92" s="2" t="n">
         <v>304</v>
+      </c>
+      <c r="KP92" t="n">
+        <v>249</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -84807,8 +85083,11 @@
       <c r="KN93" s="2" t="n">
         <v>74.7</v>
       </c>
-      <c r="KO93" t="n">
+      <c r="KO93" s="2" t="n">
         <v>76.8</v>
+      </c>
+      <c r="KP93" t="n">
+        <v>73.5</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -85714,8 +85993,11 @@
       <c r="KN94" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KO94" t="n">
+      <c r="KO94" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KP94" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -86621,8 +86903,11 @@
       <c r="KN95" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KO95" t="n">
+      <c r="KO95" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KP95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -87528,8 +87813,11 @@
       <c r="KN96" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KO96" t="n">
+      <c r="KO96" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KP96" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -88435,8 +88723,11 @@
       <c r="KN97" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KO97" t="n">
+      <c r="KO97" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KP97" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -89342,8 +89633,11 @@
       <c r="KN98" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="KO98" t="n">
+      <c r="KO98" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KP98" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -90249,8 +90543,11 @@
       <c r="KN99" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KO99" t="n">
+      <c r="KO99" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KP99" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -91156,8 +91453,11 @@
       <c r="KN100" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KO100" t="n">
+      <c r="KO100" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KP100" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -92063,8 +92363,11 @@
       <c r="KN101" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KO101" t="n">
+      <c r="KO101" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KP101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -92970,8 +93273,11 @@
       <c r="KN102" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="KO102" t="n">
+      <c r="KO102" s="2" t="n">
         <v>87.5</v>
+      </c>
+      <c r="KP102" t="n">
+        <v>81.8</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Essendon_stats.xlsx
+++ b/AFL_ML/Data/Essendon_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KP102"/>
+  <dimension ref="A1:KS102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JQ85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JY94" activeCellId="0" sqref="JY94"/>
@@ -1366,8 +1366,17 @@
       <c r="KO1" s="2" t="n">
         <v>10951</v>
       </c>
-      <c r="KP1" t="n">
+      <c r="KP1" s="2" t="n">
         <v>10973</v>
+      </c>
+      <c r="KQ1" s="2" t="n">
+        <v>10984</v>
+      </c>
+      <c r="KR1" s="2" t="n">
+        <v>10991</v>
+      </c>
+      <c r="KS1" t="n">
+        <v>10998</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2276,7 +2285,16 @@
       <c r="KO2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KP2" t="n">
+      <c r="KP2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KQ2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KR2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KS2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3186,8 +3204,17 @@
       <c r="KO3" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KP3" t="n">
+      <c r="KP3" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KQ3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KR3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -4096,8 +4123,17 @@
       <c r="KO4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KP4" t="n">
+      <c r="KP4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KQ4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -5006,7 +5042,16 @@
       <c r="KO5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KP5" t="n">
+      <c r="KP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5916,8 +5961,17 @@
       <c r="KO6" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="KP6" t="n">
+      <c r="KP6" s="2" t="n">
         <v>107</v>
+      </c>
+      <c r="KQ6" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="KR6" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="KS6" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6826,8 +6880,17 @@
       <c r="KO7" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="KP7" t="n">
+      <c r="KP7" s="2" t="n">
         <v>83</v>
+      </c>
+      <c r="KQ7" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="KR7" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="KS7" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7736,8 +7799,17 @@
       <c r="KO8" s="2" t="n">
         <v>-70</v>
       </c>
-      <c r="KP8" t="n">
+      <c r="KP8" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KQ8" s="2" t="n">
+        <v>-30</v>
+      </c>
+      <c r="KR8" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KS8" t="n">
+        <v>-69</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8646,8 +8718,17 @@
       <c r="KO9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KP9" t="n">
+      <c r="KP9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KS9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9556,8 +9637,17 @@
       <c r="KO10" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KP10" t="n">
+      <c r="KP10" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KQ10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KR10" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KS10" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10466,8 +10556,17 @@
       <c r="KO11" s="2" t="n">
         <v>220</v>
       </c>
-      <c r="KP11" t="n">
+      <c r="KP11" s="2" t="n">
         <v>205</v>
+      </c>
+      <c r="KQ11" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KR11" s="2" t="n">
+        <v>248</v>
+      </c>
+      <c r="KS11" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11376,8 +11475,17 @@
       <c r="KO12" s="2" t="n">
         <v>170</v>
       </c>
-      <c r="KP12" t="n">
+      <c r="KP12" s="2" t="n">
         <v>141</v>
+      </c>
+      <c r="KQ12" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="KR12" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="KS12" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -12286,8 +12394,17 @@
       <c r="KO13" s="2" t="n">
         <v>390</v>
       </c>
-      <c r="KP13" t="n">
+      <c r="KP13" s="2" t="n">
         <v>346</v>
+      </c>
+      <c r="KQ13" s="2" t="n">
+        <v>367</v>
+      </c>
+      <c r="KR13" s="2" t="n">
+        <v>417</v>
+      </c>
+      <c r="KS13" t="n">
+        <v>376</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -13196,8 +13313,17 @@
       <c r="KO14" s="2" t="n">
         <v>1.29</v>
       </c>
-      <c r="KP14" t="n">
+      <c r="KP14" s="2" t="n">
         <v>1.45</v>
+      </c>
+      <c r="KQ14" s="2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="KR14" s="2" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="KS14" t="n">
+        <v>1.21</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -14106,8 +14232,17 @@
       <c r="KO15" s="2" t="n">
         <v>121</v>
       </c>
-      <c r="KP15" t="n">
+      <c r="KP15" s="2" t="n">
         <v>92</v>
+      </c>
+      <c r="KQ15" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="KR15" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="KS15" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -15016,8 +15151,17 @@
       <c r="KO16" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KP16" t="n">
+      <c r="KP16" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="KQ16" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KR16" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="KS16" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15926,8 +16070,17 @@
       <c r="KO17" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KP17" t="n">
+      <c r="KP17" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KQ17" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KR17" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="KS17" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16836,8 +16989,17 @@
       <c r="KO18" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KP18" t="n">
+      <c r="KP18" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KQ18" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="KR18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KS18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17746,8 +17908,17 @@
       <c r="KO19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KP19" t="n">
+      <c r="KP19" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KQ19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KR19" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KS19" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18656,8 +18827,17 @@
       <c r="KO20" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KP20" t="n">
+      <c r="KP20" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KQ20" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KR20" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KS20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19566,8 +19746,17 @@
       <c r="KO21" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KP21" t="n">
+      <c r="KP21" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KQ21" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KR21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KS21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -20476,7 +20665,16 @@
       <c r="KO22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KP22" t="n">
+      <c r="KP22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KQ22" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KR22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KS22" t="n">
         <v>5</v>
       </c>
     </row>
@@ -21386,8 +21584,17 @@
       <c r="KO23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KP23" t="n">
+      <c r="KP23" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KQ23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KR23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KS23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -22296,8 +22503,17 @@
       <c r="KO24" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KP24" t="n">
+      <c r="KP24" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="KQ24" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="KR24" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="KS24" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -23206,8 +23422,17 @@
       <c r="KO25" s="2" t="n">
         <v>18.8</v>
       </c>
-      <c r="KP25" t="n">
+      <c r="KP25" s="2" t="n">
         <v>77.3</v>
+      </c>
+      <c r="KQ25" s="2" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="KR25" s="2" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="KS25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -24116,8 +24341,17 @@
       <c r="KO26" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="KP26" t="n">
+      <c r="KP26" s="2" t="n">
         <v>20.35</v>
+      </c>
+      <c r="KQ26" s="2" t="n">
+        <v>24.47</v>
+      </c>
+      <c r="KR26" s="2" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="KS26" t="n">
+        <v>62.67</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -25026,8 +25260,17 @@
       <c r="KO27" s="2" t="n">
         <v>24.38</v>
       </c>
-      <c r="KP27" t="n">
+      <c r="KP27" s="2" t="n">
         <v>15.73</v>
+      </c>
+      <c r="KQ27" s="2" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="KR27" s="2" t="n">
+        <v>19.86</v>
+      </c>
+      <c r="KS27" t="n">
+        <v>31.33</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25936,8 +26179,17 @@
       <c r="KO28" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KP28" t="n">
+      <c r="KP28" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KQ28" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="KR28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KS28" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26846,8 +27098,17 @@
       <c r="KO29" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KP29" t="n">
+      <c r="KP29" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KQ29" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="KR29" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KS29" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27756,8 +28017,17 @@
       <c r="KO30" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KP30" t="n">
+      <c r="KP30" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KQ30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KR30" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="KS30" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -28666,8 +28936,17 @@
       <c r="KO31" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KP31" t="n">
+      <c r="KP31" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KQ31" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KR31" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="KS31" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -29576,8 +29855,17 @@
       <c r="KO32" s="2" t="n">
         <v>2.44</v>
       </c>
-      <c r="KP32" t="n">
+      <c r="KP32" s="2" t="n">
         <v>2.32</v>
+      </c>
+      <c r="KQ32" s="2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="KR32" s="2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="KS32" t="n">
+        <v>3.58</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -30486,8 +30774,17 @@
       <c r="KO33" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KP33" t="n">
+      <c r="KP33" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KQ33" s="2" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="KR33" s="2" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="KS33" t="n">
+        <v>7.17</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -31396,8 +31693,17 @@
       <c r="KO34" s="2" t="n">
         <v>35.9</v>
       </c>
-      <c r="KP34" t="n">
+      <c r="KP34" s="2" t="n">
         <v>43.1</v>
+      </c>
+      <c r="KQ34" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="KR34" s="2" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="KS34" t="n">
+        <v>25.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -32306,8 +32612,17 @@
       <c r="KO35" s="2" t="n">
         <v>7.7</v>
       </c>
-      <c r="KP35" t="n">
+      <c r="KP35" s="2" t="n">
         <v>33.3</v>
+      </c>
+      <c r="KQ35" s="2" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="KR35" s="2" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="KS35" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -33216,8 +33531,17 @@
       <c r="KO36" s="2" t="n">
         <v>187.9</v>
       </c>
-      <c r="KP36" t="n">
+      <c r="KP36" s="2" t="n">
         <v>189.9</v>
+      </c>
+      <c r="KQ36" s="2" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="KR36" s="2" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="KS36" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -34126,8 +34450,17 @@
       <c r="KO37" s="2" t="n">
         <v>86.3</v>
       </c>
-      <c r="KP37" t="n">
+      <c r="KP37" s="2" t="n">
         <v>87.90000000000001</v>
+      </c>
+      <c r="KQ37" s="2" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="KR37" s="2" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="KS37" t="n">
+        <v>87.8</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -35036,8 +35369,17 @@
       <c r="KO38" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KP38" t="n">
+      <c r="KP38" s="2" t="n">
         <v>25.66</v>
+      </c>
+      <c r="KQ38" s="2" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="KR38" s="2" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="KS38" t="n">
+        <v>26.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35946,8 +36288,17 @@
       <c r="KO39" s="2" t="n">
         <v>82.3</v>
       </c>
-      <c r="KP39" t="n">
+      <c r="KP39" s="2" t="n">
         <v>102.3</v>
+      </c>
+      <c r="KQ39" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KR39" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="KS39" t="n">
+        <v>111.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -36856,8 +37207,17 @@
       <c r="KO40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KP40" t="n">
+      <c r="KP40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KQ40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KR40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KS40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -37766,7 +38126,16 @@
       <c r="KO41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KP41" t="n">
+      <c r="KP41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KQ41" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KR41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KS41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -38676,8 +39045,17 @@
       <c r="KO42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KP42" t="n">
+      <c r="KP42" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KQ42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KR42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KS42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -39586,8 +39964,17 @@
       <c r="KO43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KP43" t="n">
+      <c r="KP43" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KQ43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KR43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KS43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -40496,8 +40883,17 @@
       <c r="KO44" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="KP44" t="n">
+      <c r="KP44" s="2" t="n">
         <v>116</v>
+      </c>
+      <c r="KQ44" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="KR44" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="KS44" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -41406,8 +41802,17 @@
       <c r="KO45" s="2" t="n">
         <v>279</v>
       </c>
-      <c r="KP45" t="n">
+      <c r="KP45" s="2" t="n">
         <v>215</v>
+      </c>
+      <c r="KQ45" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="KR45" s="2" t="n">
+        <v>261</v>
+      </c>
+      <c r="KS45" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -42316,8 +42721,17 @@
       <c r="KO46" s="2" t="n">
         <v>292</v>
       </c>
-      <c r="KP46" t="n">
+      <c r="KP46" s="2" t="n">
         <v>261</v>
+      </c>
+      <c r="KQ46" s="2" t="n">
+        <v>263</v>
+      </c>
+      <c r="KR46" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="KS46" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -43226,8 +43640,17 @@
       <c r="KO47" s="2" t="n">
         <v>74.90000000000001</v>
       </c>
-      <c r="KP47" t="n">
+      <c r="KP47" s="2" t="n">
         <v>75.40000000000001</v>
+      </c>
+      <c r="KQ47" s="2" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="KR47" s="2" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="KS47" t="n">
+        <v>68.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -44136,8 +44559,17 @@
       <c r="KO48" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KP48" t="n">
+      <c r="KP48" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KQ48" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="KR48" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="KS48" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -45046,8 +45478,17 @@
       <c r="KO49" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KP49" t="n">
+      <c r="KP49" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KQ49" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KR49" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KS49" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -45956,8 +46397,17 @@
       <c r="KO50" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KP50" t="n">
+      <c r="KP50" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KQ50" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KR50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KS50" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -46866,8 +47316,17 @@
       <c r="KO51" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KP51" t="n">
+      <c r="KP51" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KQ51" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="KR51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KS51" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -47776,8 +48235,17 @@
       <c r="KO52" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KP52" t="n">
+      <c r="KP52" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="KQ52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KR52" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="KS52" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -48686,8 +49154,17 @@
       <c r="KO53" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KP53" t="n">
+      <c r="KP53" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KQ53" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="KR53" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KS53" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -49596,7 +50073,16 @@
       <c r="KO54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KP54" t="n">
+      <c r="KP54" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KQ54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KR54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KS54" t="n">
         <v>11</v>
       </c>
     </row>
@@ -50506,8 +50992,17 @@
       <c r="KO55" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KP55" t="n">
+      <c r="KP55" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KQ55" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KR55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KS55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -51416,8 +51911,17 @@
       <c r="KO56" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="KP56" t="n">
+      <c r="KP56" s="2" t="n">
         <v>88.2</v>
+      </c>
+      <c r="KQ56" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KR56" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KS56" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -52326,8 +52830,17 @@
       <c r="KO57" s="2" t="n">
         <v>229</v>
       </c>
-      <c r="KP57" t="n">
+      <c r="KP57" s="2" t="n">
         <v>201</v>
+      </c>
+      <c r="KQ57" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="KR57" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="KS57" t="n">
+        <v>237</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -53236,8 +53749,17 @@
       <c r="KO58" s="2" t="n">
         <v>167</v>
       </c>
-      <c r="KP58" t="n">
+      <c r="KP58" s="2" t="n">
         <v>138</v>
+      </c>
+      <c r="KQ58" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="KR58" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="KS58" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -54146,8 +54668,17 @@
       <c r="KO59" s="2" t="n">
         <v>396</v>
       </c>
-      <c r="KP59" t="n">
+      <c r="KP59" s="2" t="n">
         <v>339</v>
+      </c>
+      <c r="KQ59" s="2" t="n">
+        <v>357</v>
+      </c>
+      <c r="KR59" s="2" t="n">
+        <v>392</v>
+      </c>
+      <c r="KS59" t="n">
+        <v>356</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -55056,8 +55587,17 @@
       <c r="KO60" s="2" t="n">
         <v>1.37</v>
       </c>
-      <c r="KP60" t="n">
+      <c r="KP60" s="2" t="n">
         <v>1.46</v>
+      </c>
+      <c r="KQ60" s="2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="KR60" s="2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="KS60" t="n">
+        <v>1.99</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -55966,8 +56506,17 @@
       <c r="KO61" s="2" t="n">
         <v>106</v>
       </c>
-      <c r="KP61" t="n">
+      <c r="KP61" s="2" t="n">
         <v>95</v>
+      </c>
+      <c r="KQ61" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="KR61" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="KS61" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -56876,8 +57425,17 @@
       <c r="KO62" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KP62" t="n">
+      <c r="KP62" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KQ62" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KR62" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="KS62" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -57786,8 +58344,17 @@
       <c r="KO63" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KP63" t="n">
+      <c r="KP63" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KQ63" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KR63" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KS63" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -58696,8 +59263,17 @@
       <c r="KO64" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KP64" t="n">
+      <c r="KP64" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KQ64" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KR64" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KS64" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -59606,8 +60182,17 @@
       <c r="KO65" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KP65" t="n">
+      <c r="KP65" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KQ65" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="KR65" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KS65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -60516,8 +61101,17 @@
       <c r="KO66" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KP66" t="n">
+      <c r="KP66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KQ66" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="KR66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KS66" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -61426,8 +62020,17 @@
       <c r="KO67" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KP67" t="n">
+      <c r="KP67" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KQ67" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KR67" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KS67" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -62336,8 +62939,17 @@
       <c r="KO68" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KP68" t="n">
+      <c r="KP68" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KQ68" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KR68" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KS68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -63246,8 +63858,17 @@
       <c r="KO69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KP69" t="n">
+      <c r="KP69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KQ69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KR69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KS69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -64156,8 +64777,17 @@
       <c r="KO70" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="KP70" t="n">
+      <c r="KP70" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="KQ70" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="KR70" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KS70" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -65066,8 +65696,17 @@
       <c r="KO71" s="2" t="n">
         <v>76.2</v>
       </c>
-      <c r="KP71" t="n">
+      <c r="KP71" s="2" t="n">
         <v>39.3</v>
+      </c>
+      <c r="KQ71" s="2" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="KR71" s="2" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="KS71" t="n">
+        <v>65.40000000000001</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -65976,8 +66615,17 @@
       <c r="KO72" s="2" t="n">
         <v>24.75</v>
       </c>
-      <c r="KP72" t="n">
+      <c r="KP72" s="2" t="n">
         <v>30.82</v>
+      </c>
+      <c r="KQ72" s="2" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="KR72" s="2" t="n">
+        <v>43.56</v>
+      </c>
+      <c r="KS72" t="n">
+        <v>20.94</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -66886,8 +67534,17 @@
       <c r="KO73" s="2" t="n">
         <v>18.86</v>
       </c>
-      <c r="KP73" t="n">
+      <c r="KP73" s="2" t="n">
         <v>12.11</v>
+      </c>
+      <c r="KQ73" s="2" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="KR73" s="2" t="n">
+        <v>17.82</v>
+      </c>
+      <c r="KS73" t="n">
+        <v>13.69</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -67796,8 +68453,17 @@
       <c r="KO74" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KP74" t="n">
+      <c r="KP74" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KQ74" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="KR74" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="KS74" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -68706,8 +69372,17 @@
       <c r="KO75" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KP75" t="n">
+      <c r="KP75" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KQ75" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KR75" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="KS75" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -69616,8 +70291,17 @@
       <c r="KO76" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KP76" t="n">
+      <c r="KP76" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KQ76" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KR76" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="KS76" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -70526,8 +71210,17 @@
       <c r="KO77" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KP77" t="n">
+      <c r="KP77" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KQ77" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KR77" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KS77" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -71436,8 +72129,17 @@
       <c r="KO78" s="2" t="n">
         <v>2.67</v>
       </c>
-      <c r="KP78" t="n">
+      <c r="KP78" s="2" t="n">
         <v>2.04</v>
+      </c>
+      <c r="KQ78" s="2" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="KR78" s="2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="KS78" t="n">
+        <v>2.42</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -72346,8 +73048,17 @@
       <c r="KO79" s="2" t="n">
         <v>3.5</v>
       </c>
-      <c r="KP79" t="n">
+      <c r="KP79" s="2" t="n">
         <v>5.18</v>
+      </c>
+      <c r="KQ79" s="2" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="KR79" s="2" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="KS79" t="n">
+        <v>3.71</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -73256,8 +73967,17 @@
       <c r="KO80" s="2" t="n">
         <v>32.1</v>
       </c>
-      <c r="KP80" t="n">
+      <c r="KP80" s="2" t="n">
         <v>43.9</v>
+      </c>
+      <c r="KQ80" s="2" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="KR80" s="2" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="KS80" t="n">
+        <v>39.7</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -74166,8 +74886,17 @@
       <c r="KO81" s="2" t="n">
         <v>28.6</v>
       </c>
-      <c r="KP81" t="n">
+      <c r="KP81" s="2" t="n">
         <v>19.3</v>
+      </c>
+      <c r="KQ81" s="2" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="KR81" s="2" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="KS81" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -75076,8 +75805,17 @@
       <c r="KO82" s="2" t="n">
         <v>188.1</v>
       </c>
-      <c r="KP82" t="n">
+      <c r="KP82" s="2" t="n">
         <v>187.8</v>
+      </c>
+      <c r="KQ82" s="2" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="KR82" s="2" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="KS82" t="n">
+        <v>188.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -75986,8 +76724,17 @@
       <c r="KO83" s="2" t="n">
         <v>87.5</v>
       </c>
-      <c r="KP83" t="n">
+      <c r="KP83" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="KQ83" s="2" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="KR83" s="2" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="KS83" t="n">
+        <v>88.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -76896,8 +77643,17 @@
       <c r="KO84" s="2" t="n">
         <v>28.8</v>
       </c>
-      <c r="KP84" t="n">
+      <c r="KP84" s="2" t="n">
         <v>25.8</v>
+      </c>
+      <c r="KQ84" s="2" t="n">
+        <v>25.24</v>
+      </c>
+      <c r="KR84" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="KS84" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -77806,8 +78562,17 @@
       <c r="KO85" s="2" t="n">
         <v>144.2</v>
       </c>
-      <c r="KP85" t="n">
+      <c r="KP85" s="2" t="n">
         <v>88.90000000000001</v>
+      </c>
+      <c r="KQ85" s="2" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="KR85" s="2" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="KS85" t="n">
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -78716,8 +79481,17 @@
       <c r="KO86" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KP86" t="n">
+      <c r="KP86" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KQ86" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KR86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KS86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -79626,8 +80400,17 @@
       <c r="KO87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KP87" t="n">
+      <c r="KP87" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KQ87" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KR87" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KS87" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -80536,8 +81319,17 @@
       <c r="KO88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KP88" t="n">
+      <c r="KP88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KQ88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KR88" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KS88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -81446,7 +82238,16 @@
       <c r="KO89" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KP89" t="n">
+      <c r="KP89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KQ89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KR89" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KS89" t="n">
         <v>4</v>
       </c>
     </row>
@@ -82356,8 +83157,17 @@
       <c r="KO90" s="2" t="n">
         <v>124</v>
       </c>
-      <c r="KP90" t="n">
+      <c r="KP90" s="2" t="n">
         <v>122</v>
+      </c>
+      <c r="KQ90" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="KR90" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="KS90" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -83266,8 +84076,17 @@
       <c r="KO91" s="2" t="n">
         <v>270</v>
       </c>
-      <c r="KP91" t="n">
+      <c r="KP91" s="2" t="n">
         <v>212</v>
+      </c>
+      <c r="KQ91" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="KR91" s="2" t="n">
+        <v>254</v>
+      </c>
+      <c r="KS91" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -84176,8 +84995,17 @@
       <c r="KO92" s="2" t="n">
         <v>304</v>
       </c>
-      <c r="KP92" t="n">
+      <c r="KP92" s="2" t="n">
         <v>249</v>
+      </c>
+      <c r="KQ92" s="2" t="n">
+        <v>261</v>
+      </c>
+      <c r="KR92" s="2" t="n">
+        <v>277</v>
+      </c>
+      <c r="KS92" t="n">
+        <v>261</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -85086,8 +85914,17 @@
       <c r="KO93" s="2" t="n">
         <v>76.8</v>
       </c>
-      <c r="KP93" t="n">
+      <c r="KP93" s="2" t="n">
         <v>73.5</v>
+      </c>
+      <c r="KQ93" s="2" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="KR93" s="2" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="KS93" t="n">
+        <v>73.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -85996,8 +86833,17 @@
       <c r="KO94" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KP94" t="n">
+      <c r="KP94" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KQ94" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KR94" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="KS94" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -86906,7 +87752,16 @@
       <c r="KO95" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KP95" t="n">
+      <c r="KP95" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KQ95" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KR95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KS95" t="n">
         <v>12</v>
       </c>
     </row>
@@ -87816,8 +88671,17 @@
       <c r="KO96" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KP96" t="n">
+      <c r="KP96" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KQ96" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="KR96" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KS96" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -88726,8 +89590,17 @@
       <c r="KO97" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="KP97" t="n">
+      <c r="KP97" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="KQ97" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="KR97" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="KS97" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -89636,8 +90509,17 @@
       <c r="KO98" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KP98" t="n">
+      <c r="KP98" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="KQ98" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KR98" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="KS98" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -90546,8 +91428,17 @@
       <c r="KO99" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KP99" t="n">
+      <c r="KP99" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KQ99" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KR99" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KS99" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -91456,8 +92347,17 @@
       <c r="KO100" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KP100" t="n">
+      <c r="KP100" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KQ100" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KR100" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KS100" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -92366,8 +93266,17 @@
       <c r="KO101" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KP101" t="n">
+      <c r="KP101" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KQ101" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KR101" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KS101" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -93276,8 +94185,17 @@
       <c r="KO102" s="2" t="n">
         <v>87.5</v>
       </c>
-      <c r="KP102" t="n">
+      <c r="KP102" s="2" t="n">
         <v>81.8</v>
+      </c>
+      <c r="KQ102" s="2" t="n">
+        <v>84.2</v>
+      </c>
+      <c r="KR102" s="2" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="KS102" t="n">
+        <v>64.7</v>
       </c>
     </row>
   </sheetData>
